--- a/Báo Cáo/Tuần 3/PhacThaoChiTiet_DangKy.xlsx
+++ b/Báo Cáo/Tuần 3/PhacThaoChiTiet_DangKy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Trang bìa" sheetId="1" r:id="rId1"/>
@@ -3045,6 +3045,684 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -3085,683 +3763,131 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="20" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -3799,18 +3925,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3823,120 +3937,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="18" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="19" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="20" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Input" xfId="5" builtinId="20"/>
@@ -3998,7 +3998,7 @@
           <xdr:cNvPr id="2" name="Picture 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4067,7 +4067,7 @@
           <xdr:cNvPr id="4" name="Rectangle 25">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4119,7 +4119,7 @@
           <xdr:cNvPr id="5" name="Rectangle 4459">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4173,7 +4173,7 @@
           <xdr:cNvPr id="6" name="Text Box 4320">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4268,7 +4268,7 @@
           <xdr:cNvPr id="7" name="Line 4328">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4317,7 +4317,7 @@
           <xdr:cNvPr id="8" name="Line 4328">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4366,7 +4366,7 @@
           <xdr:cNvPr id="9" name="Text Box 4324">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4437,7 +4437,7 @@
           <xdr:cNvPr id="10" name="Picture 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4506,7 +4506,7 @@
           <xdr:cNvPr id="11" name="AutoShape 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4555,7 +4555,7 @@
           <xdr:cNvPr id="14" name="Elbow Connector 24">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4608,7 +4608,7 @@
           <xdr:cNvPr id="15" name="AutoShape 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4657,7 +4657,7 @@
           <xdr:cNvPr id="16" name="Elbow Connector 24">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4745,7 +4745,7 @@
           <xdr:cNvPr id="12" name="Group 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000C000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4764,7 +4764,7 @@
             <xdr:cNvPr id="17" name="Rectangle 16">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000011000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4820,7 +4820,7 @@
             <xdr:cNvPr id="19" name="TextBox 18">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000013000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4874,7 +4874,7 @@
             <xdr:cNvPr id="20" name="Rounded Rectangle 19">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000014000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4967,7 +4967,7 @@
             <xdr:cNvPr id="21" name="Rounded Rectangle 20">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000015000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5047,7 +5047,7 @@
             <xdr:cNvPr id="22" name="TextBox 21">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000016000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5113,7 +5113,7 @@
             <xdr:cNvPr id="23" name="Rectangle 22">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000017000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5172,7 +5172,7 @@
             <xdr:cNvPr id="24" name="Rounded Rectangle 23">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000018000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5252,7 +5252,7 @@
             <xdr:cNvPr id="25" name="Rounded Rectangle 24">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000019000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5332,7 +5332,7 @@
             <xdr:cNvPr id="26" name="Rounded Rectangle 25">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001A000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5425,7 +5425,7 @@
             <xdr:cNvPr id="27" name="Rounded Rectangle 26">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001B000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5518,7 +5518,7 @@
             <xdr:cNvPr id="28" name="Oval 27">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001C000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5563,7 +5563,7 @@
             <xdr:cNvPr id="29" name="TextBox 28">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001D000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5612,7 +5612,7 @@
             <xdr:cNvPr id="30" name="Oval 29">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001E000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5657,7 +5657,7 @@
             <xdr:cNvPr id="31" name="TextBox 30">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001F000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5706,7 +5706,7 @@
             <xdr:cNvPr id="2" name="TextBox 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5760,7 +5760,7 @@
             <xdr:cNvPr id="48" name="Picture 47">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000030000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000030000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5789,7 +5789,7 @@
             <xdr:cNvPr id="49" name="Picture 48">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000031000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000031000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5818,7 +5818,7 @@
             <xdr:cNvPr id="5" name="Rectangle 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5872,7 +5872,7 @@
             <xdr:cNvPr id="50" name="Rectangle 49">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000032000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000032000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5926,7 +5926,7 @@
             <xdr:cNvPr id="51" name="Rectangle 50">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000033000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000033000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5980,7 +5980,7 @@
             <xdr:cNvPr id="52" name="Rectangle 51">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000034000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000034000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6034,7 +6034,7 @@
             <xdr:cNvPr id="53" name="Rectangle 52">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000035000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000035000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6089,7 +6089,7 @@
           <xdr:cNvPr id="43" name="Shape 34">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6201,7 +6201,7 @@
           <xdr:cNvPr id="45" name="Shape 34">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6315,7 +6315,7 @@
           <xdr:cNvPr id="4" name="Group 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6334,7 +6334,7 @@
             <xdr:cNvPr id="32" name="Rectangle 31">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000020000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6390,7 +6390,7 @@
             <xdr:cNvPr id="34" name="Rounded Rectangle 33">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000022000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6483,7 +6483,7 @@
             <xdr:cNvPr id="35" name="Rounded Rectangle 34">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000023000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6576,7 +6576,7 @@
             <xdr:cNvPr id="36" name="Rectangle 35">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000024000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6635,7 +6635,7 @@
             <xdr:cNvPr id="37" name="Left Arrow 36">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000025000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6680,7 +6680,7 @@
             <xdr:cNvPr id="38" name="TextBox 37">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000026000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6734,7 +6734,7 @@
             <xdr:cNvPr id="39" name="TextBox 38">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000027000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000027000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6788,7 +6788,7 @@
             <xdr:cNvPr id="40" name="TextBox 39">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000028000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6854,7 +6854,7 @@
             <xdr:cNvPr id="41" name="TextBox 40">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000029000000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -6909,7 +6909,7 @@
           <xdr:cNvPr id="46" name="Shape 34">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -6994,7 +6994,7 @@
           <xdr:cNvPr id="47" name="Shape 34">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7079,7 +7079,7 @@
           <xdr:cNvPr id="54" name="Shape 34">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000011000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -7455,7 +7455,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7465,8 +7465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW157"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A109" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="AC122" sqref="AC122"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A109" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="AV119" sqref="AV119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="14.4"/>
@@ -7482,67 +7482,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" ht="15" thickTop="1">
-      <c r="A1" s="396" t="s">
+      <c r="A1" s="383" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="397"/>
-      <c r="C1" s="397"/>
-      <c r="D1" s="397"/>
-      <c r="E1" s="397"/>
-      <c r="F1" s="397"/>
-      <c r="G1" s="397"/>
-      <c r="H1" s="397"/>
-      <c r="I1" s="575"/>
-      <c r="J1" s="414" t="s">
+      <c r="B1" s="384"/>
+      <c r="C1" s="384"/>
+      <c r="D1" s="384"/>
+      <c r="E1" s="384"/>
+      <c r="F1" s="384"/>
+      <c r="G1" s="384"/>
+      <c r="H1" s="384"/>
+      <c r="I1" s="385"/>
+      <c r="J1" s="392" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="406"/>
-      <c r="L1" s="406"/>
-      <c r="M1" s="406"/>
-      <c r="N1" s="406"/>
-      <c r="O1" s="407"/>
-      <c r="P1" s="414" t="s">
+      <c r="K1" s="393"/>
+      <c r="L1" s="393"/>
+      <c r="M1" s="393"/>
+      <c r="N1" s="393"/>
+      <c r="O1" s="394"/>
+      <c r="P1" s="392" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="406"/>
-      <c r="R1" s="406"/>
-      <c r="S1" s="406"/>
-      <c r="T1" s="406"/>
-      <c r="U1" s="407"/>
-      <c r="V1" s="417" t="s">
+      <c r="Q1" s="393"/>
+      <c r="R1" s="393"/>
+      <c r="S1" s="393"/>
+      <c r="T1" s="393"/>
+      <c r="U1" s="394"/>
+      <c r="V1" s="407" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="418"/>
-      <c r="X1" s="418"/>
-      <c r="Y1" s="418"/>
-      <c r="Z1" s="419"/>
-      <c r="AA1" s="423" t="s">
+      <c r="W1" s="408"/>
+      <c r="X1" s="408"/>
+      <c r="Y1" s="408"/>
+      <c r="Z1" s="409"/>
+      <c r="AA1" s="413" t="s">
         <v>65</v>
       </c>
-      <c r="AB1" s="406"/>
-      <c r="AC1" s="406"/>
-      <c r="AD1" s="406"/>
-      <c r="AE1" s="406"/>
-      <c r="AF1" s="406"/>
-      <c r="AG1" s="406"/>
-      <c r="AH1" s="406"/>
-      <c r="AI1" s="406"/>
-      <c r="AJ1" s="406"/>
-      <c r="AK1" s="406"/>
-      <c r="AL1" s="407"/>
-      <c r="AM1" s="427" t="s">
+      <c r="AB1" s="393"/>
+      <c r="AC1" s="393"/>
+      <c r="AD1" s="393"/>
+      <c r="AE1" s="393"/>
+      <c r="AF1" s="393"/>
+      <c r="AG1" s="393"/>
+      <c r="AH1" s="393"/>
+      <c r="AI1" s="393"/>
+      <c r="AJ1" s="393"/>
+      <c r="AK1" s="393"/>
+      <c r="AL1" s="394"/>
+      <c r="AM1" s="415" t="s">
         <v>4</v>
       </c>
-      <c r="AN1" s="428"/>
-      <c r="AO1" s="429" t="s">
+      <c r="AN1" s="416"/>
+      <c r="AO1" s="421" t="s">
         <v>151</v>
       </c>
-      <c r="AP1" s="430"/>
-      <c r="AQ1" s="431"/>
-      <c r="AR1" s="427" t="s">
+      <c r="AP1" s="422"/>
+      <c r="AQ1" s="423"/>
+      <c r="AR1" s="415" t="s">
         <v>5</v>
       </c>
-      <c r="AS1" s="428"/>
+      <c r="AS1" s="416"/>
       <c r="AT1" s="432">
         <v>45056</v>
       </c>
@@ -7551,564 +7551,564 @@
       <c r="AW1" s="434"/>
     </row>
     <row r="2" spans="1:49">
-      <c r="A2" s="399"/>
-      <c r="B2" s="400"/>
-      <c r="C2" s="400"/>
-      <c r="D2" s="400"/>
-      <c r="E2" s="400"/>
-      <c r="F2" s="400"/>
-      <c r="G2" s="400"/>
-      <c r="H2" s="400"/>
-      <c r="I2" s="576"/>
-      <c r="J2" s="415"/>
-      <c r="K2" s="409"/>
-      <c r="L2" s="409"/>
-      <c r="M2" s="409"/>
-      <c r="N2" s="409"/>
-      <c r="O2" s="410"/>
-      <c r="P2" s="415"/>
-      <c r="Q2" s="409"/>
-      <c r="R2" s="409"/>
-      <c r="S2" s="409"/>
-      <c r="T2" s="409"/>
-      <c r="U2" s="410"/>
-      <c r="V2" s="578"/>
-      <c r="W2" s="579"/>
-      <c r="X2" s="579"/>
-      <c r="Y2" s="579"/>
-      <c r="Z2" s="580"/>
-      <c r="AA2" s="408"/>
-      <c r="AB2" s="409"/>
-      <c r="AC2" s="409"/>
-      <c r="AD2" s="409"/>
-      <c r="AE2" s="409"/>
-      <c r="AF2" s="409"/>
-      <c r="AG2" s="409"/>
-      <c r="AH2" s="409"/>
-      <c r="AI2" s="409"/>
-      <c r="AJ2" s="409"/>
-      <c r="AK2" s="409"/>
-      <c r="AL2" s="410"/>
-      <c r="AM2" s="435" t="s">
+      <c r="A2" s="386"/>
+      <c r="B2" s="387"/>
+      <c r="C2" s="387"/>
+      <c r="D2" s="387"/>
+      <c r="E2" s="387"/>
+      <c r="F2" s="387"/>
+      <c r="G2" s="387"/>
+      <c r="H2" s="387"/>
+      <c r="I2" s="388"/>
+      <c r="J2" s="395"/>
+      <c r="K2" s="396"/>
+      <c r="L2" s="396"/>
+      <c r="M2" s="396"/>
+      <c r="N2" s="396"/>
+      <c r="O2" s="397"/>
+      <c r="P2" s="395"/>
+      <c r="Q2" s="396"/>
+      <c r="R2" s="396"/>
+      <c r="S2" s="396"/>
+      <c r="T2" s="396"/>
+      <c r="U2" s="397"/>
+      <c r="V2" s="410"/>
+      <c r="W2" s="411"/>
+      <c r="X2" s="411"/>
+      <c r="Y2" s="411"/>
+      <c r="Z2" s="412"/>
+      <c r="AA2" s="414"/>
+      <c r="AB2" s="396"/>
+      <c r="AC2" s="396"/>
+      <c r="AD2" s="396"/>
+      <c r="AE2" s="396"/>
+      <c r="AF2" s="396"/>
+      <c r="AG2" s="396"/>
+      <c r="AH2" s="396"/>
+      <c r="AI2" s="396"/>
+      <c r="AJ2" s="396"/>
+      <c r="AK2" s="396"/>
+      <c r="AL2" s="397"/>
+      <c r="AM2" s="424" t="s">
         <v>6</v>
       </c>
-      <c r="AN2" s="436"/>
-      <c r="AO2" s="437"/>
-      <c r="AP2" s="438"/>
-      <c r="AQ2" s="439"/>
-      <c r="AR2" s="435" t="s">
+      <c r="AN2" s="425"/>
+      <c r="AO2" s="426"/>
+      <c r="AP2" s="427"/>
+      <c r="AQ2" s="428"/>
+      <c r="AR2" s="424" t="s">
         <v>7</v>
       </c>
-      <c r="AS2" s="436"/>
-      <c r="AT2" s="440"/>
-      <c r="AU2" s="441"/>
-      <c r="AV2" s="441"/>
-      <c r="AW2" s="442"/>
+      <c r="AS2" s="425"/>
+      <c r="AT2" s="429"/>
+      <c r="AU2" s="430"/>
+      <c r="AV2" s="430"/>
+      <c r="AW2" s="431"/>
     </row>
     <row r="3" spans="1:49" ht="15" thickBot="1">
-      <c r="A3" s="402"/>
-      <c r="B3" s="403"/>
-      <c r="C3" s="403"/>
-      <c r="D3" s="403"/>
-      <c r="E3" s="403"/>
-      <c r="F3" s="403"/>
-      <c r="G3" s="403"/>
-      <c r="H3" s="403"/>
-      <c r="I3" s="577"/>
-      <c r="J3" s="416"/>
-      <c r="K3" s="412"/>
-      <c r="L3" s="412"/>
-      <c r="M3" s="412"/>
-      <c r="N3" s="412"/>
-      <c r="O3" s="413"/>
-      <c r="P3" s="416"/>
-      <c r="Q3" s="412"/>
-      <c r="R3" s="412"/>
-      <c r="S3" s="412"/>
-      <c r="T3" s="412"/>
-      <c r="U3" s="413"/>
-      <c r="V3" s="443" t="s">
+      <c r="A3" s="389"/>
+      <c r="B3" s="390"/>
+      <c r="C3" s="390"/>
+      <c r="D3" s="390"/>
+      <c r="E3" s="390"/>
+      <c r="F3" s="390"/>
+      <c r="G3" s="390"/>
+      <c r="H3" s="390"/>
+      <c r="I3" s="391"/>
+      <c r="J3" s="398"/>
+      <c r="K3" s="399"/>
+      <c r="L3" s="399"/>
+      <c r="M3" s="399"/>
+      <c r="N3" s="399"/>
+      <c r="O3" s="400"/>
+      <c r="P3" s="398"/>
+      <c r="Q3" s="399"/>
+      <c r="R3" s="399"/>
+      <c r="S3" s="399"/>
+      <c r="T3" s="399"/>
+      <c r="U3" s="400"/>
+      <c r="V3" s="404" t="s">
         <v>8</v>
       </c>
-      <c r="W3" s="444"/>
-      <c r="X3" s="444"/>
-      <c r="Y3" s="444"/>
-      <c r="Z3" s="445"/>
-      <c r="AA3" s="393" t="s">
+      <c r="W3" s="405"/>
+      <c r="X3" s="405"/>
+      <c r="Y3" s="405"/>
+      <c r="Z3" s="406"/>
+      <c r="AA3" s="401" t="s">
         <v>74</v>
       </c>
-      <c r="AB3" s="394"/>
-      <c r="AC3" s="394"/>
-      <c r="AD3" s="394"/>
-      <c r="AE3" s="394"/>
-      <c r="AF3" s="394"/>
-      <c r="AG3" s="446"/>
-      <c r="AH3" s="447" t="s">
+      <c r="AB3" s="402"/>
+      <c r="AC3" s="402"/>
+      <c r="AD3" s="402"/>
+      <c r="AE3" s="402"/>
+      <c r="AF3" s="402"/>
+      <c r="AG3" s="403"/>
+      <c r="AH3" s="417" t="s">
         <v>9</v>
       </c>
-      <c r="AI3" s="448"/>
-      <c r="AJ3" s="448"/>
-      <c r="AK3" s="448"/>
-      <c r="AL3" s="449"/>
-      <c r="AM3" s="393" t="s">
+      <c r="AI3" s="418"/>
+      <c r="AJ3" s="418"/>
+      <c r="AK3" s="418"/>
+      <c r="AL3" s="419"/>
+      <c r="AM3" s="401" t="s">
         <v>67</v>
       </c>
-      <c r="AN3" s="394"/>
-      <c r="AO3" s="394"/>
-      <c r="AP3" s="394"/>
-      <c r="AQ3" s="394"/>
-      <c r="AR3" s="394"/>
-      <c r="AS3" s="394"/>
-      <c r="AT3" s="394"/>
-      <c r="AU3" s="394"/>
-      <c r="AV3" s="394"/>
-      <c r="AW3" s="395"/>
+      <c r="AN3" s="402"/>
+      <c r="AO3" s="402"/>
+      <c r="AP3" s="402"/>
+      <c r="AQ3" s="402"/>
+      <c r="AR3" s="402"/>
+      <c r="AS3" s="402"/>
+      <c r="AT3" s="402"/>
+      <c r="AU3" s="402"/>
+      <c r="AV3" s="402"/>
+      <c r="AW3" s="420"/>
     </row>
     <row r="4" spans="1:49" ht="15" thickTop="1"/>
     <row r="6" spans="1:49">
-      <c r="B6" s="571" t="s">
+      <c r="B6" s="435" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="572"/>
-      <c r="D6" s="572"/>
-      <c r="E6" s="572"/>
-      <c r="F6" s="572"/>
-      <c r="G6" s="572"/>
-      <c r="H6" s="572"/>
-      <c r="I6" s="572"/>
-      <c r="J6" s="572"/>
-      <c r="K6" s="572"/>
-      <c r="L6" s="572"/>
-      <c r="M6" s="572"/>
-      <c r="N6" s="572"/>
-      <c r="O6" s="572"/>
-      <c r="P6" s="572"/>
-      <c r="Q6" s="572"/>
-      <c r="R6" s="572"/>
-      <c r="S6" s="572"/>
-      <c r="T6" s="572"/>
-      <c r="U6" s="572"/>
-      <c r="V6" s="572"/>
-      <c r="W6" s="572"/>
-      <c r="X6" s="572"/>
-      <c r="Y6" s="572"/>
-      <c r="Z6" s="572"/>
-      <c r="AA6" s="572"/>
-      <c r="AB6" s="572"/>
-      <c r="AC6" s="572"/>
-      <c r="AD6" s="572"/>
-      <c r="AE6" s="572"/>
-      <c r="AF6" s="572"/>
-      <c r="AG6" s="572"/>
-      <c r="AH6" s="572"/>
-      <c r="AI6" s="572"/>
-      <c r="AJ6" s="572"/>
-      <c r="AK6" s="572"/>
-      <c r="AL6" s="572"/>
-      <c r="AM6" s="572"/>
-      <c r="AN6" s="572"/>
-      <c r="AO6" s="572"/>
-      <c r="AP6" s="572"/>
-      <c r="AQ6" s="572"/>
-      <c r="AR6" s="572"/>
-      <c r="AS6" s="572"/>
-      <c r="AT6" s="572"/>
-      <c r="AU6" s="572"/>
-      <c r="AV6" s="572"/>
+      <c r="C6" s="436"/>
+      <c r="D6" s="436"/>
+      <c r="E6" s="436"/>
+      <c r="F6" s="436"/>
+      <c r="G6" s="436"/>
+      <c r="H6" s="436"/>
+      <c r="I6" s="436"/>
+      <c r="J6" s="436"/>
+      <c r="K6" s="436"/>
+      <c r="L6" s="436"/>
+      <c r="M6" s="436"/>
+      <c r="N6" s="436"/>
+      <c r="O6" s="436"/>
+      <c r="P6" s="436"/>
+      <c r="Q6" s="436"/>
+      <c r="R6" s="436"/>
+      <c r="S6" s="436"/>
+      <c r="T6" s="436"/>
+      <c r="U6" s="436"/>
+      <c r="V6" s="436"/>
+      <c r="W6" s="436"/>
+      <c r="X6" s="436"/>
+      <c r="Y6" s="436"/>
+      <c r="Z6" s="436"/>
+      <c r="AA6" s="436"/>
+      <c r="AB6" s="436"/>
+      <c r="AC6" s="436"/>
+      <c r="AD6" s="436"/>
+      <c r="AE6" s="436"/>
+      <c r="AF6" s="436"/>
+      <c r="AG6" s="436"/>
+      <c r="AH6" s="436"/>
+      <c r="AI6" s="436"/>
+      <c r="AJ6" s="436"/>
+      <c r="AK6" s="436"/>
+      <c r="AL6" s="436"/>
+      <c r="AM6" s="436"/>
+      <c r="AN6" s="436"/>
+      <c r="AO6" s="436"/>
+      <c r="AP6" s="436"/>
+      <c r="AQ6" s="436"/>
+      <c r="AR6" s="436"/>
+      <c r="AS6" s="436"/>
+      <c r="AT6" s="436"/>
+      <c r="AU6" s="436"/>
+      <c r="AV6" s="436"/>
     </row>
     <row r="7" spans="1:49">
-      <c r="B7" s="572"/>
-      <c r="C7" s="572"/>
-      <c r="D7" s="572"/>
-      <c r="E7" s="572"/>
-      <c r="F7" s="572"/>
-      <c r="G7" s="572"/>
-      <c r="H7" s="572"/>
-      <c r="I7" s="572"/>
-      <c r="J7" s="572"/>
-      <c r="K7" s="572"/>
-      <c r="L7" s="572"/>
-      <c r="M7" s="572"/>
-      <c r="N7" s="572"/>
-      <c r="O7" s="572"/>
-      <c r="P7" s="572"/>
-      <c r="Q7" s="572"/>
-      <c r="R7" s="572"/>
-      <c r="S7" s="572"/>
-      <c r="T7" s="572"/>
-      <c r="U7" s="572"/>
-      <c r="V7" s="572"/>
-      <c r="W7" s="572"/>
-      <c r="X7" s="572"/>
-      <c r="Y7" s="572"/>
-      <c r="Z7" s="572"/>
-      <c r="AA7" s="572"/>
-      <c r="AB7" s="572"/>
-      <c r="AC7" s="572"/>
-      <c r="AD7" s="572"/>
-      <c r="AE7" s="572"/>
-      <c r="AF7" s="572"/>
-      <c r="AG7" s="572"/>
-      <c r="AH7" s="572"/>
-      <c r="AI7" s="572"/>
-      <c r="AJ7" s="572"/>
-      <c r="AK7" s="572"/>
-      <c r="AL7" s="572"/>
-      <c r="AM7" s="572"/>
-      <c r="AN7" s="572"/>
-      <c r="AO7" s="572"/>
-      <c r="AP7" s="572"/>
-      <c r="AQ7" s="572"/>
-      <c r="AR7" s="572"/>
-      <c r="AS7" s="572"/>
-      <c r="AT7" s="572"/>
-      <c r="AU7" s="572"/>
-      <c r="AV7" s="572"/>
+      <c r="B7" s="436"/>
+      <c r="C7" s="436"/>
+      <c r="D7" s="436"/>
+      <c r="E7" s="436"/>
+      <c r="F7" s="436"/>
+      <c r="G7" s="436"/>
+      <c r="H7" s="436"/>
+      <c r="I7" s="436"/>
+      <c r="J7" s="436"/>
+      <c r="K7" s="436"/>
+      <c r="L7" s="436"/>
+      <c r="M7" s="436"/>
+      <c r="N7" s="436"/>
+      <c r="O7" s="436"/>
+      <c r="P7" s="436"/>
+      <c r="Q7" s="436"/>
+      <c r="R7" s="436"/>
+      <c r="S7" s="436"/>
+      <c r="T7" s="436"/>
+      <c r="U7" s="436"/>
+      <c r="V7" s="436"/>
+      <c r="W7" s="436"/>
+      <c r="X7" s="436"/>
+      <c r="Y7" s="436"/>
+      <c r="Z7" s="436"/>
+      <c r="AA7" s="436"/>
+      <c r="AB7" s="436"/>
+      <c r="AC7" s="436"/>
+      <c r="AD7" s="436"/>
+      <c r="AE7" s="436"/>
+      <c r="AF7" s="436"/>
+      <c r="AG7" s="436"/>
+      <c r="AH7" s="436"/>
+      <c r="AI7" s="436"/>
+      <c r="AJ7" s="436"/>
+      <c r="AK7" s="436"/>
+      <c r="AL7" s="436"/>
+      <c r="AM7" s="436"/>
+      <c r="AN7" s="436"/>
+      <c r="AO7" s="436"/>
+      <c r="AP7" s="436"/>
+      <c r="AQ7" s="436"/>
+      <c r="AR7" s="436"/>
+      <c r="AS7" s="436"/>
+      <c r="AT7" s="436"/>
+      <c r="AU7" s="436"/>
+      <c r="AV7" s="436"/>
     </row>
     <row r="8" spans="1:49">
-      <c r="B8" s="572"/>
-      <c r="C8" s="572"/>
-      <c r="D8" s="572"/>
-      <c r="E8" s="572"/>
-      <c r="F8" s="572"/>
-      <c r="G8" s="572"/>
-      <c r="H8" s="572"/>
-      <c r="I8" s="572"/>
-      <c r="J8" s="572"/>
-      <c r="K8" s="572"/>
-      <c r="L8" s="572"/>
-      <c r="M8" s="572"/>
-      <c r="N8" s="572"/>
-      <c r="O8" s="572"/>
-      <c r="P8" s="572"/>
-      <c r="Q8" s="572"/>
-      <c r="R8" s="572"/>
-      <c r="S8" s="572"/>
-      <c r="T8" s="572"/>
-      <c r="U8" s="572"/>
-      <c r="V8" s="572"/>
-      <c r="W8" s="572"/>
-      <c r="X8" s="572"/>
-      <c r="Y8" s="572"/>
-      <c r="Z8" s="572"/>
-      <c r="AA8" s="572"/>
-      <c r="AB8" s="572"/>
-      <c r="AC8" s="572"/>
-      <c r="AD8" s="572"/>
-      <c r="AE8" s="572"/>
-      <c r="AF8" s="572"/>
-      <c r="AG8" s="572"/>
-      <c r="AH8" s="572"/>
-      <c r="AI8" s="572"/>
-      <c r="AJ8" s="572"/>
-      <c r="AK8" s="572"/>
-      <c r="AL8" s="572"/>
-      <c r="AM8" s="572"/>
-      <c r="AN8" s="572"/>
-      <c r="AO8" s="572"/>
-      <c r="AP8" s="572"/>
-      <c r="AQ8" s="572"/>
-      <c r="AR8" s="572"/>
-      <c r="AS8" s="572"/>
-      <c r="AT8" s="572"/>
-      <c r="AU8" s="572"/>
-      <c r="AV8" s="572"/>
+      <c r="B8" s="436"/>
+      <c r="C8" s="436"/>
+      <c r="D8" s="436"/>
+      <c r="E8" s="436"/>
+      <c r="F8" s="436"/>
+      <c r="G8" s="436"/>
+      <c r="H8" s="436"/>
+      <c r="I8" s="436"/>
+      <c r="J8" s="436"/>
+      <c r="K8" s="436"/>
+      <c r="L8" s="436"/>
+      <c r="M8" s="436"/>
+      <c r="N8" s="436"/>
+      <c r="O8" s="436"/>
+      <c r="P8" s="436"/>
+      <c r="Q8" s="436"/>
+      <c r="R8" s="436"/>
+      <c r="S8" s="436"/>
+      <c r="T8" s="436"/>
+      <c r="U8" s="436"/>
+      <c r="V8" s="436"/>
+      <c r="W8" s="436"/>
+      <c r="X8" s="436"/>
+      <c r="Y8" s="436"/>
+      <c r="Z8" s="436"/>
+      <c r="AA8" s="436"/>
+      <c r="AB8" s="436"/>
+      <c r="AC8" s="436"/>
+      <c r="AD8" s="436"/>
+      <c r="AE8" s="436"/>
+      <c r="AF8" s="436"/>
+      <c r="AG8" s="436"/>
+      <c r="AH8" s="436"/>
+      <c r="AI8" s="436"/>
+      <c r="AJ8" s="436"/>
+      <c r="AK8" s="436"/>
+      <c r="AL8" s="436"/>
+      <c r="AM8" s="436"/>
+      <c r="AN8" s="436"/>
+      <c r="AO8" s="436"/>
+      <c r="AP8" s="436"/>
+      <c r="AQ8" s="436"/>
+      <c r="AR8" s="436"/>
+      <c r="AS8" s="436"/>
+      <c r="AT8" s="436"/>
+      <c r="AU8" s="436"/>
+      <c r="AV8" s="436"/>
     </row>
     <row r="9" spans="1:49">
-      <c r="B9" s="572"/>
-      <c r="C9" s="572"/>
-      <c r="D9" s="572"/>
-      <c r="E9" s="572"/>
-      <c r="F9" s="572"/>
-      <c r="G9" s="572"/>
-      <c r="H9" s="572"/>
-      <c r="I9" s="572"/>
-      <c r="J9" s="572"/>
-      <c r="K9" s="572"/>
-      <c r="L9" s="572"/>
-      <c r="M9" s="572"/>
-      <c r="N9" s="572"/>
-      <c r="O9" s="572"/>
-      <c r="P9" s="572"/>
-      <c r="Q9" s="572"/>
-      <c r="R9" s="572"/>
-      <c r="S9" s="572"/>
-      <c r="T9" s="572"/>
-      <c r="U9" s="572"/>
-      <c r="V9" s="572"/>
-      <c r="W9" s="572"/>
-      <c r="X9" s="572"/>
-      <c r="Y9" s="572"/>
-      <c r="Z9" s="572"/>
-      <c r="AA9" s="572"/>
-      <c r="AB9" s="572"/>
-      <c r="AC9" s="572"/>
-      <c r="AD9" s="572"/>
-      <c r="AE9" s="572"/>
-      <c r="AF9" s="572"/>
-      <c r="AG9" s="572"/>
-      <c r="AH9" s="572"/>
-      <c r="AI9" s="572"/>
-      <c r="AJ9" s="572"/>
-      <c r="AK9" s="572"/>
-      <c r="AL9" s="572"/>
-      <c r="AM9" s="572"/>
-      <c r="AN9" s="572"/>
-      <c r="AO9" s="572"/>
-      <c r="AP9" s="572"/>
-      <c r="AQ9" s="572"/>
-      <c r="AR9" s="572"/>
-      <c r="AS9" s="572"/>
-      <c r="AT9" s="572"/>
-      <c r="AU9" s="572"/>
-      <c r="AV9" s="572"/>
+      <c r="B9" s="436"/>
+      <c r="C9" s="436"/>
+      <c r="D9" s="436"/>
+      <c r="E9" s="436"/>
+      <c r="F9" s="436"/>
+      <c r="G9" s="436"/>
+      <c r="H9" s="436"/>
+      <c r="I9" s="436"/>
+      <c r="J9" s="436"/>
+      <c r="K9" s="436"/>
+      <c r="L9" s="436"/>
+      <c r="M9" s="436"/>
+      <c r="N9" s="436"/>
+      <c r="O9" s="436"/>
+      <c r="P9" s="436"/>
+      <c r="Q9" s="436"/>
+      <c r="R9" s="436"/>
+      <c r="S9" s="436"/>
+      <c r="T9" s="436"/>
+      <c r="U9" s="436"/>
+      <c r="V9" s="436"/>
+      <c r="W9" s="436"/>
+      <c r="X9" s="436"/>
+      <c r="Y9" s="436"/>
+      <c r="Z9" s="436"/>
+      <c r="AA9" s="436"/>
+      <c r="AB9" s="436"/>
+      <c r="AC9" s="436"/>
+      <c r="AD9" s="436"/>
+      <c r="AE9" s="436"/>
+      <c r="AF9" s="436"/>
+      <c r="AG9" s="436"/>
+      <c r="AH9" s="436"/>
+      <c r="AI9" s="436"/>
+      <c r="AJ9" s="436"/>
+      <c r="AK9" s="436"/>
+      <c r="AL9" s="436"/>
+      <c r="AM9" s="436"/>
+      <c r="AN9" s="436"/>
+      <c r="AO9" s="436"/>
+      <c r="AP9" s="436"/>
+      <c r="AQ9" s="436"/>
+      <c r="AR9" s="436"/>
+      <c r="AS9" s="436"/>
+      <c r="AT9" s="436"/>
+      <c r="AU9" s="436"/>
+      <c r="AV9" s="436"/>
     </row>
     <row r="10" spans="1:49">
-      <c r="B10" s="572"/>
-      <c r="C10" s="572"/>
-      <c r="D10" s="572"/>
-      <c r="E10" s="572"/>
-      <c r="F10" s="572"/>
-      <c r="G10" s="572"/>
-      <c r="H10" s="572"/>
-      <c r="I10" s="572"/>
-      <c r="J10" s="572"/>
-      <c r="K10" s="572"/>
-      <c r="L10" s="572"/>
-      <c r="M10" s="572"/>
-      <c r="N10" s="572"/>
-      <c r="O10" s="572"/>
-      <c r="P10" s="572"/>
-      <c r="Q10" s="572"/>
-      <c r="R10" s="572"/>
-      <c r="S10" s="572"/>
-      <c r="T10" s="572"/>
-      <c r="U10" s="572"/>
-      <c r="V10" s="572"/>
-      <c r="W10" s="572"/>
-      <c r="X10" s="572"/>
-      <c r="Y10" s="572"/>
-      <c r="Z10" s="572"/>
-      <c r="AA10" s="572"/>
-      <c r="AB10" s="572"/>
-      <c r="AC10" s="572"/>
-      <c r="AD10" s="572"/>
-      <c r="AE10" s="572"/>
-      <c r="AF10" s="572"/>
-      <c r="AG10" s="572"/>
-      <c r="AH10" s="572"/>
-      <c r="AI10" s="572"/>
-      <c r="AJ10" s="572"/>
-      <c r="AK10" s="572"/>
-      <c r="AL10" s="572"/>
-      <c r="AM10" s="572"/>
-      <c r="AN10" s="572"/>
-      <c r="AO10" s="572"/>
-      <c r="AP10" s="572"/>
-      <c r="AQ10" s="572"/>
-      <c r="AR10" s="572"/>
-      <c r="AS10" s="572"/>
-      <c r="AT10" s="572"/>
-      <c r="AU10" s="572"/>
-      <c r="AV10" s="572"/>
+      <c r="B10" s="436"/>
+      <c r="C10" s="436"/>
+      <c r="D10" s="436"/>
+      <c r="E10" s="436"/>
+      <c r="F10" s="436"/>
+      <c r="G10" s="436"/>
+      <c r="H10" s="436"/>
+      <c r="I10" s="436"/>
+      <c r="J10" s="436"/>
+      <c r="K10" s="436"/>
+      <c r="L10" s="436"/>
+      <c r="M10" s="436"/>
+      <c r="N10" s="436"/>
+      <c r="O10" s="436"/>
+      <c r="P10" s="436"/>
+      <c r="Q10" s="436"/>
+      <c r="R10" s="436"/>
+      <c r="S10" s="436"/>
+      <c r="T10" s="436"/>
+      <c r="U10" s="436"/>
+      <c r="V10" s="436"/>
+      <c r="W10" s="436"/>
+      <c r="X10" s="436"/>
+      <c r="Y10" s="436"/>
+      <c r="Z10" s="436"/>
+      <c r="AA10" s="436"/>
+      <c r="AB10" s="436"/>
+      <c r="AC10" s="436"/>
+      <c r="AD10" s="436"/>
+      <c r="AE10" s="436"/>
+      <c r="AF10" s="436"/>
+      <c r="AG10" s="436"/>
+      <c r="AH10" s="436"/>
+      <c r="AI10" s="436"/>
+      <c r="AJ10" s="436"/>
+      <c r="AK10" s="436"/>
+      <c r="AL10" s="436"/>
+      <c r="AM10" s="436"/>
+      <c r="AN10" s="436"/>
+      <c r="AO10" s="436"/>
+      <c r="AP10" s="436"/>
+      <c r="AQ10" s="436"/>
+      <c r="AR10" s="436"/>
+      <c r="AS10" s="436"/>
+      <c r="AT10" s="436"/>
+      <c r="AU10" s="436"/>
+      <c r="AV10" s="436"/>
     </row>
     <row r="12" spans="1:49">
-      <c r="B12" s="573" t="s">
+      <c r="B12" s="437" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="573"/>
-      <c r="D12" s="573"/>
-      <c r="E12" s="573"/>
-      <c r="F12" s="573"/>
-      <c r="G12" s="573"/>
-      <c r="H12" s="573"/>
-      <c r="I12" s="573"/>
-      <c r="J12" s="573"/>
-      <c r="K12" s="573"/>
-      <c r="L12" s="573"/>
-      <c r="M12" s="573"/>
-      <c r="N12" s="573"/>
-      <c r="O12" s="573"/>
-      <c r="P12" s="573"/>
-      <c r="Q12" s="573"/>
-      <c r="R12" s="573"/>
-      <c r="S12" s="573"/>
-      <c r="T12" s="573"/>
-      <c r="U12" s="573"/>
-      <c r="V12" s="573"/>
-      <c r="W12" s="573"/>
-      <c r="X12" s="573"/>
-      <c r="Y12" s="573"/>
-      <c r="Z12" s="573"/>
-      <c r="AA12" s="573"/>
-      <c r="AB12" s="573"/>
-      <c r="AC12" s="573"/>
-      <c r="AD12" s="573"/>
-      <c r="AE12" s="573"/>
-      <c r="AF12" s="573"/>
-      <c r="AG12" s="573"/>
-      <c r="AH12" s="573"/>
-      <c r="AI12" s="573"/>
-      <c r="AJ12" s="573"/>
-      <c r="AK12" s="573"/>
-      <c r="AL12" s="573"/>
-      <c r="AM12" s="573"/>
-      <c r="AN12" s="573"/>
-      <c r="AO12" s="573"/>
-      <c r="AP12" s="573"/>
-      <c r="AQ12" s="573"/>
-      <c r="AR12" s="573"/>
-      <c r="AS12" s="573"/>
-      <c r="AT12" s="573"/>
-      <c r="AU12" s="573"/>
-      <c r="AV12" s="573"/>
+      <c r="C12" s="437"/>
+      <c r="D12" s="437"/>
+      <c r="E12" s="437"/>
+      <c r="F12" s="437"/>
+      <c r="G12" s="437"/>
+      <c r="H12" s="437"/>
+      <c r="I12" s="437"/>
+      <c r="J12" s="437"/>
+      <c r="K12" s="437"/>
+      <c r="L12" s="437"/>
+      <c r="M12" s="437"/>
+      <c r="N12" s="437"/>
+      <c r="O12" s="437"/>
+      <c r="P12" s="437"/>
+      <c r="Q12" s="437"/>
+      <c r="R12" s="437"/>
+      <c r="S12" s="437"/>
+      <c r="T12" s="437"/>
+      <c r="U12" s="437"/>
+      <c r="V12" s="437"/>
+      <c r="W12" s="437"/>
+      <c r="X12" s="437"/>
+      <c r="Y12" s="437"/>
+      <c r="Z12" s="437"/>
+      <c r="AA12" s="437"/>
+      <c r="AB12" s="437"/>
+      <c r="AC12" s="437"/>
+      <c r="AD12" s="437"/>
+      <c r="AE12" s="437"/>
+      <c r="AF12" s="437"/>
+      <c r="AG12" s="437"/>
+      <c r="AH12" s="437"/>
+      <c r="AI12" s="437"/>
+      <c r="AJ12" s="437"/>
+      <c r="AK12" s="437"/>
+      <c r="AL12" s="437"/>
+      <c r="AM12" s="437"/>
+      <c r="AN12" s="437"/>
+      <c r="AO12" s="437"/>
+      <c r="AP12" s="437"/>
+      <c r="AQ12" s="437"/>
+      <c r="AR12" s="437"/>
+      <c r="AS12" s="437"/>
+      <c r="AT12" s="437"/>
+      <c r="AU12" s="437"/>
+      <c r="AV12" s="437"/>
     </row>
     <row r="13" spans="1:49">
-      <c r="B13" s="573"/>
-      <c r="C13" s="573"/>
-      <c r="D13" s="573"/>
-      <c r="E13" s="573"/>
-      <c r="F13" s="573"/>
-      <c r="G13" s="573"/>
-      <c r="H13" s="573"/>
-      <c r="I13" s="573"/>
-      <c r="J13" s="573"/>
-      <c r="K13" s="573"/>
-      <c r="L13" s="573"/>
-      <c r="M13" s="573"/>
-      <c r="N13" s="573"/>
-      <c r="O13" s="573"/>
-      <c r="P13" s="573"/>
-      <c r="Q13" s="573"/>
-      <c r="R13" s="573"/>
-      <c r="S13" s="573"/>
-      <c r="T13" s="573"/>
-      <c r="U13" s="573"/>
-      <c r="V13" s="573"/>
-      <c r="W13" s="573"/>
-      <c r="X13" s="573"/>
-      <c r="Y13" s="573"/>
-      <c r="Z13" s="573"/>
-      <c r="AA13" s="573"/>
-      <c r="AB13" s="573"/>
-      <c r="AC13" s="573"/>
-      <c r="AD13" s="573"/>
-      <c r="AE13" s="573"/>
-      <c r="AF13" s="573"/>
-      <c r="AG13" s="573"/>
-      <c r="AH13" s="573"/>
-      <c r="AI13" s="573"/>
-      <c r="AJ13" s="573"/>
-      <c r="AK13" s="573"/>
-      <c r="AL13" s="573"/>
-      <c r="AM13" s="573"/>
-      <c r="AN13" s="573"/>
-      <c r="AO13" s="573"/>
-      <c r="AP13" s="573"/>
-      <c r="AQ13" s="573"/>
-      <c r="AR13" s="573"/>
-      <c r="AS13" s="573"/>
-      <c r="AT13" s="573"/>
-      <c r="AU13" s="573"/>
-      <c r="AV13" s="573"/>
+      <c r="B13" s="437"/>
+      <c r="C13" s="437"/>
+      <c r="D13" s="437"/>
+      <c r="E13" s="437"/>
+      <c r="F13" s="437"/>
+      <c r="G13" s="437"/>
+      <c r="H13" s="437"/>
+      <c r="I13" s="437"/>
+      <c r="J13" s="437"/>
+      <c r="K13" s="437"/>
+      <c r="L13" s="437"/>
+      <c r="M13" s="437"/>
+      <c r="N13" s="437"/>
+      <c r="O13" s="437"/>
+      <c r="P13" s="437"/>
+      <c r="Q13" s="437"/>
+      <c r="R13" s="437"/>
+      <c r="S13" s="437"/>
+      <c r="T13" s="437"/>
+      <c r="U13" s="437"/>
+      <c r="V13" s="437"/>
+      <c r="W13" s="437"/>
+      <c r="X13" s="437"/>
+      <c r="Y13" s="437"/>
+      <c r="Z13" s="437"/>
+      <c r="AA13" s="437"/>
+      <c r="AB13" s="437"/>
+      <c r="AC13" s="437"/>
+      <c r="AD13" s="437"/>
+      <c r="AE13" s="437"/>
+      <c r="AF13" s="437"/>
+      <c r="AG13" s="437"/>
+      <c r="AH13" s="437"/>
+      <c r="AI13" s="437"/>
+      <c r="AJ13" s="437"/>
+      <c r="AK13" s="437"/>
+      <c r="AL13" s="437"/>
+      <c r="AM13" s="437"/>
+      <c r="AN13" s="437"/>
+      <c r="AO13" s="437"/>
+      <c r="AP13" s="437"/>
+      <c r="AQ13" s="437"/>
+      <c r="AR13" s="437"/>
+      <c r="AS13" s="437"/>
+      <c r="AT13" s="437"/>
+      <c r="AU13" s="437"/>
+      <c r="AV13" s="437"/>
     </row>
     <row r="14" spans="1:49">
-      <c r="B14" s="573"/>
-      <c r="C14" s="573"/>
-      <c r="D14" s="573"/>
-      <c r="E14" s="573"/>
-      <c r="F14" s="573"/>
-      <c r="G14" s="573"/>
-      <c r="H14" s="573"/>
-      <c r="I14" s="573"/>
-      <c r="J14" s="573"/>
-      <c r="K14" s="573"/>
-      <c r="L14" s="573"/>
-      <c r="M14" s="573"/>
-      <c r="N14" s="573"/>
-      <c r="O14" s="573"/>
-      <c r="P14" s="573"/>
-      <c r="Q14" s="573"/>
-      <c r="R14" s="573"/>
-      <c r="S14" s="573"/>
-      <c r="T14" s="573"/>
-      <c r="U14" s="573"/>
-      <c r="V14" s="573"/>
-      <c r="W14" s="573"/>
-      <c r="X14" s="573"/>
-      <c r="Y14" s="573"/>
-      <c r="Z14" s="573"/>
-      <c r="AA14" s="573"/>
-      <c r="AB14" s="573"/>
-      <c r="AC14" s="573"/>
-      <c r="AD14" s="573"/>
-      <c r="AE14" s="573"/>
-      <c r="AF14" s="573"/>
-      <c r="AG14" s="573"/>
-      <c r="AH14" s="573"/>
-      <c r="AI14" s="573"/>
-      <c r="AJ14" s="573"/>
-      <c r="AK14" s="573"/>
-      <c r="AL14" s="573"/>
-      <c r="AM14" s="573"/>
-      <c r="AN14" s="573"/>
-      <c r="AO14" s="573"/>
-      <c r="AP14" s="573"/>
-      <c r="AQ14" s="573"/>
-      <c r="AR14" s="573"/>
-      <c r="AS14" s="573"/>
-      <c r="AT14" s="573"/>
-      <c r="AU14" s="573"/>
-      <c r="AV14" s="573"/>
+      <c r="B14" s="437"/>
+      <c r="C14" s="437"/>
+      <c r="D14" s="437"/>
+      <c r="E14" s="437"/>
+      <c r="F14" s="437"/>
+      <c r="G14" s="437"/>
+      <c r="H14" s="437"/>
+      <c r="I14" s="437"/>
+      <c r="J14" s="437"/>
+      <c r="K14" s="437"/>
+      <c r="L14" s="437"/>
+      <c r="M14" s="437"/>
+      <c r="N14" s="437"/>
+      <c r="O14" s="437"/>
+      <c r="P14" s="437"/>
+      <c r="Q14" s="437"/>
+      <c r="R14" s="437"/>
+      <c r="S14" s="437"/>
+      <c r="T14" s="437"/>
+      <c r="U14" s="437"/>
+      <c r="V14" s="437"/>
+      <c r="W14" s="437"/>
+      <c r="X14" s="437"/>
+      <c r="Y14" s="437"/>
+      <c r="Z14" s="437"/>
+      <c r="AA14" s="437"/>
+      <c r="AB14" s="437"/>
+      <c r="AC14" s="437"/>
+      <c r="AD14" s="437"/>
+      <c r="AE14" s="437"/>
+      <c r="AF14" s="437"/>
+      <c r="AG14" s="437"/>
+      <c r="AH14" s="437"/>
+      <c r="AI14" s="437"/>
+      <c r="AJ14" s="437"/>
+      <c r="AK14" s="437"/>
+      <c r="AL14" s="437"/>
+      <c r="AM14" s="437"/>
+      <c r="AN14" s="437"/>
+      <c r="AO14" s="437"/>
+      <c r="AP14" s="437"/>
+      <c r="AQ14" s="437"/>
+      <c r="AR14" s="437"/>
+      <c r="AS14" s="437"/>
+      <c r="AT14" s="437"/>
+      <c r="AU14" s="437"/>
+      <c r="AV14" s="437"/>
     </row>
     <row r="15" spans="1:49">
-      <c r="B15" s="573"/>
-      <c r="C15" s="573"/>
-      <c r="D15" s="573"/>
-      <c r="E15" s="573"/>
-      <c r="F15" s="573"/>
-      <c r="G15" s="573"/>
-      <c r="H15" s="573"/>
-      <c r="I15" s="573"/>
-      <c r="J15" s="573"/>
-      <c r="K15" s="573"/>
-      <c r="L15" s="573"/>
-      <c r="M15" s="573"/>
-      <c r="N15" s="573"/>
-      <c r="O15" s="573"/>
-      <c r="P15" s="573"/>
-      <c r="Q15" s="573"/>
-      <c r="R15" s="573"/>
-      <c r="S15" s="573"/>
-      <c r="T15" s="573"/>
-      <c r="U15" s="573"/>
-      <c r="V15" s="573"/>
-      <c r="W15" s="573"/>
-      <c r="X15" s="573"/>
-      <c r="Y15" s="573"/>
-      <c r="Z15" s="573"/>
-      <c r="AA15" s="573"/>
-      <c r="AB15" s="573"/>
-      <c r="AC15" s="573"/>
-      <c r="AD15" s="573"/>
-      <c r="AE15" s="573"/>
-      <c r="AF15" s="573"/>
-      <c r="AG15" s="573"/>
-      <c r="AH15" s="573"/>
-      <c r="AI15" s="573"/>
-      <c r="AJ15" s="573"/>
-      <c r="AK15" s="573"/>
-      <c r="AL15" s="573"/>
-      <c r="AM15" s="573"/>
-      <c r="AN15" s="573"/>
-      <c r="AO15" s="573"/>
-      <c r="AP15" s="573"/>
-      <c r="AQ15" s="573"/>
-      <c r="AR15" s="573"/>
-      <c r="AS15" s="573"/>
-      <c r="AT15" s="573"/>
-      <c r="AU15" s="573"/>
-      <c r="AV15" s="573"/>
+      <c r="B15" s="437"/>
+      <c r="C15" s="437"/>
+      <c r="D15" s="437"/>
+      <c r="E15" s="437"/>
+      <c r="F15" s="437"/>
+      <c r="G15" s="437"/>
+      <c r="H15" s="437"/>
+      <c r="I15" s="437"/>
+      <c r="J15" s="437"/>
+      <c r="K15" s="437"/>
+      <c r="L15" s="437"/>
+      <c r="M15" s="437"/>
+      <c r="N15" s="437"/>
+      <c r="O15" s="437"/>
+      <c r="P15" s="437"/>
+      <c r="Q15" s="437"/>
+      <c r="R15" s="437"/>
+      <c r="S15" s="437"/>
+      <c r="T15" s="437"/>
+      <c r="U15" s="437"/>
+      <c r="V15" s="437"/>
+      <c r="W15" s="437"/>
+      <c r="X15" s="437"/>
+      <c r="Y15" s="437"/>
+      <c r="Z15" s="437"/>
+      <c r="AA15" s="437"/>
+      <c r="AB15" s="437"/>
+      <c r="AC15" s="437"/>
+      <c r="AD15" s="437"/>
+      <c r="AE15" s="437"/>
+      <c r="AF15" s="437"/>
+      <c r="AG15" s="437"/>
+      <c r="AH15" s="437"/>
+      <c r="AI15" s="437"/>
+      <c r="AJ15" s="437"/>
+      <c r="AK15" s="437"/>
+      <c r="AL15" s="437"/>
+      <c r="AM15" s="437"/>
+      <c r="AN15" s="437"/>
+      <c r="AO15" s="437"/>
+      <c r="AP15" s="437"/>
+      <c r="AQ15" s="437"/>
+      <c r="AR15" s="437"/>
+      <c r="AS15" s="437"/>
+      <c r="AT15" s="437"/>
+      <c r="AU15" s="437"/>
+      <c r="AV15" s="437"/>
     </row>
     <row r="21" spans="16:25">
       <c r="P21" s="36" t="s">
@@ -8254,67 +8254,67 @@
       <c r="AW33" s="231"/>
     </row>
     <row r="34" spans="1:49" ht="15" customHeight="1" thickTop="1">
-      <c r="A34" s="396" t="s">
+      <c r="A34" s="383" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="397"/>
-      <c r="C34" s="397"/>
-      <c r="D34" s="397"/>
-      <c r="E34" s="397"/>
-      <c r="F34" s="397"/>
-      <c r="G34" s="397"/>
-      <c r="H34" s="397"/>
-      <c r="I34" s="398"/>
-      <c r="J34" s="405" t="s">
+      <c r="B34" s="384"/>
+      <c r="C34" s="384"/>
+      <c r="D34" s="384"/>
+      <c r="E34" s="384"/>
+      <c r="F34" s="384"/>
+      <c r="G34" s="384"/>
+      <c r="H34" s="384"/>
+      <c r="I34" s="438"/>
+      <c r="J34" s="441" t="s">
         <v>1</v>
       </c>
-      <c r="K34" s="406"/>
-      <c r="L34" s="406"/>
-      <c r="M34" s="406"/>
-      <c r="N34" s="406"/>
-      <c r="O34" s="407"/>
-      <c r="P34" s="414" t="s">
+      <c r="K34" s="393"/>
+      <c r="L34" s="393"/>
+      <c r="M34" s="393"/>
+      <c r="N34" s="393"/>
+      <c r="O34" s="394"/>
+      <c r="P34" s="392" t="s">
         <v>2</v>
       </c>
-      <c r="Q34" s="406"/>
-      <c r="R34" s="406"/>
-      <c r="S34" s="406"/>
-      <c r="T34" s="406"/>
-      <c r="U34" s="407"/>
-      <c r="V34" s="417" t="s">
+      <c r="Q34" s="393"/>
+      <c r="R34" s="393"/>
+      <c r="S34" s="393"/>
+      <c r="T34" s="393"/>
+      <c r="U34" s="394"/>
+      <c r="V34" s="407" t="s">
         <v>3</v>
       </c>
-      <c r="W34" s="418"/>
-      <c r="X34" s="418"/>
-      <c r="Y34" s="418"/>
-      <c r="Z34" s="419"/>
-      <c r="AA34" s="423" t="s">
+      <c r="W34" s="408"/>
+      <c r="X34" s="408"/>
+      <c r="Y34" s="408"/>
+      <c r="Z34" s="409"/>
+      <c r="AA34" s="413" t="s">
         <v>65</v>
       </c>
-      <c r="AB34" s="406"/>
-      <c r="AC34" s="406"/>
-      <c r="AD34" s="406"/>
-      <c r="AE34" s="406"/>
-      <c r="AF34" s="406"/>
-      <c r="AG34" s="406"/>
-      <c r="AH34" s="406"/>
-      <c r="AI34" s="406"/>
-      <c r="AJ34" s="406"/>
-      <c r="AK34" s="406"/>
-      <c r="AL34" s="407"/>
-      <c r="AM34" s="427" t="s">
+      <c r="AB34" s="393"/>
+      <c r="AC34" s="393"/>
+      <c r="AD34" s="393"/>
+      <c r="AE34" s="393"/>
+      <c r="AF34" s="393"/>
+      <c r="AG34" s="393"/>
+      <c r="AH34" s="393"/>
+      <c r="AI34" s="393"/>
+      <c r="AJ34" s="393"/>
+      <c r="AK34" s="393"/>
+      <c r="AL34" s="394"/>
+      <c r="AM34" s="415" t="s">
         <v>4</v>
       </c>
-      <c r="AN34" s="428"/>
-      <c r="AO34" s="429" t="s">
+      <c r="AN34" s="416"/>
+      <c r="AO34" s="421" t="s">
         <v>151</v>
       </c>
-      <c r="AP34" s="430"/>
-      <c r="AQ34" s="431"/>
-      <c r="AR34" s="427" t="s">
+      <c r="AP34" s="422"/>
+      <c r="AQ34" s="423"/>
+      <c r="AR34" s="415" t="s">
         <v>5</v>
       </c>
-      <c r="AS34" s="428"/>
+      <c r="AS34" s="416"/>
       <c r="AT34" s="432">
         <v>45056</v>
       </c>
@@ -8323,118 +8323,118 @@
       <c r="AW34" s="434"/>
     </row>
     <row r="35" spans="1:49">
-      <c r="A35" s="399"/>
-      <c r="B35" s="400"/>
-      <c r="C35" s="400"/>
-      <c r="D35" s="400"/>
-      <c r="E35" s="400"/>
-      <c r="F35" s="400"/>
-      <c r="G35" s="400"/>
-      <c r="H35" s="400"/>
-      <c r="I35" s="401"/>
-      <c r="J35" s="408"/>
-      <c r="K35" s="409"/>
-      <c r="L35" s="409"/>
-      <c r="M35" s="409"/>
-      <c r="N35" s="409"/>
-      <c r="O35" s="410"/>
-      <c r="P35" s="415"/>
-      <c r="Q35" s="409"/>
-      <c r="R35" s="409"/>
-      <c r="S35" s="409"/>
-      <c r="T35" s="409"/>
-      <c r="U35" s="410"/>
-      <c r="V35" s="420"/>
-      <c r="W35" s="421"/>
-      <c r="X35" s="421"/>
-      <c r="Y35" s="421"/>
-      <c r="Z35" s="422"/>
-      <c r="AA35" s="424"/>
-      <c r="AB35" s="425"/>
-      <c r="AC35" s="425"/>
-      <c r="AD35" s="425"/>
-      <c r="AE35" s="425"/>
-      <c r="AF35" s="425"/>
-      <c r="AG35" s="425"/>
-      <c r="AH35" s="425"/>
-      <c r="AI35" s="425"/>
-      <c r="AJ35" s="425"/>
-      <c r="AK35" s="425"/>
-      <c r="AL35" s="426"/>
-      <c r="AM35" s="435" t="s">
+      <c r="A35" s="386"/>
+      <c r="B35" s="387"/>
+      <c r="C35" s="387"/>
+      <c r="D35" s="387"/>
+      <c r="E35" s="387"/>
+      <c r="F35" s="387"/>
+      <c r="G35" s="387"/>
+      <c r="H35" s="387"/>
+      <c r="I35" s="439"/>
+      <c r="J35" s="414"/>
+      <c r="K35" s="396"/>
+      <c r="L35" s="396"/>
+      <c r="M35" s="396"/>
+      <c r="N35" s="396"/>
+      <c r="O35" s="397"/>
+      <c r="P35" s="395"/>
+      <c r="Q35" s="396"/>
+      <c r="R35" s="396"/>
+      <c r="S35" s="396"/>
+      <c r="T35" s="396"/>
+      <c r="U35" s="397"/>
+      <c r="V35" s="443"/>
+      <c r="W35" s="444"/>
+      <c r="X35" s="444"/>
+      <c r="Y35" s="444"/>
+      <c r="Z35" s="445"/>
+      <c r="AA35" s="446"/>
+      <c r="AB35" s="447"/>
+      <c r="AC35" s="447"/>
+      <c r="AD35" s="447"/>
+      <c r="AE35" s="447"/>
+      <c r="AF35" s="447"/>
+      <c r="AG35" s="447"/>
+      <c r="AH35" s="447"/>
+      <c r="AI35" s="447"/>
+      <c r="AJ35" s="447"/>
+      <c r="AK35" s="447"/>
+      <c r="AL35" s="448"/>
+      <c r="AM35" s="424" t="s">
         <v>6</v>
       </c>
-      <c r="AN35" s="436"/>
-      <c r="AO35" s="437"/>
-      <c r="AP35" s="438"/>
-      <c r="AQ35" s="439"/>
-      <c r="AR35" s="435" t="s">
+      <c r="AN35" s="425"/>
+      <c r="AO35" s="426"/>
+      <c r="AP35" s="427"/>
+      <c r="AQ35" s="428"/>
+      <c r="AR35" s="424" t="s">
         <v>7</v>
       </c>
-      <c r="AS35" s="436"/>
-      <c r="AT35" s="440"/>
-      <c r="AU35" s="441"/>
-      <c r="AV35" s="441"/>
-      <c r="AW35" s="442"/>
+      <c r="AS35" s="425"/>
+      <c r="AT35" s="429"/>
+      <c r="AU35" s="430"/>
+      <c r="AV35" s="430"/>
+      <c r="AW35" s="431"/>
     </row>
     <row r="36" spans="1:49" ht="15" thickBot="1">
-      <c r="A36" s="402"/>
-      <c r="B36" s="403"/>
-      <c r="C36" s="403"/>
-      <c r="D36" s="403"/>
-      <c r="E36" s="403"/>
-      <c r="F36" s="403"/>
-      <c r="G36" s="403"/>
-      <c r="H36" s="403"/>
-      <c r="I36" s="404"/>
-      <c r="J36" s="411"/>
-      <c r="K36" s="412"/>
-      <c r="L36" s="412"/>
-      <c r="M36" s="412"/>
-      <c r="N36" s="412"/>
-      <c r="O36" s="413"/>
-      <c r="P36" s="416"/>
-      <c r="Q36" s="412"/>
-      <c r="R36" s="412"/>
-      <c r="S36" s="412"/>
-      <c r="T36" s="412"/>
-      <c r="U36" s="413"/>
-      <c r="V36" s="443" t="s">
+      <c r="A36" s="389"/>
+      <c r="B36" s="390"/>
+      <c r="C36" s="390"/>
+      <c r="D36" s="390"/>
+      <c r="E36" s="390"/>
+      <c r="F36" s="390"/>
+      <c r="G36" s="390"/>
+      <c r="H36" s="390"/>
+      <c r="I36" s="440"/>
+      <c r="J36" s="442"/>
+      <c r="K36" s="399"/>
+      <c r="L36" s="399"/>
+      <c r="M36" s="399"/>
+      <c r="N36" s="399"/>
+      <c r="O36" s="400"/>
+      <c r="P36" s="398"/>
+      <c r="Q36" s="399"/>
+      <c r="R36" s="399"/>
+      <c r="S36" s="399"/>
+      <c r="T36" s="399"/>
+      <c r="U36" s="400"/>
+      <c r="V36" s="404" t="s">
         <v>8</v>
       </c>
-      <c r="W36" s="444"/>
-      <c r="X36" s="444"/>
-      <c r="Y36" s="444"/>
-      <c r="Z36" s="445"/>
-      <c r="AA36" s="393" t="s">
+      <c r="W36" s="405"/>
+      <c r="X36" s="405"/>
+      <c r="Y36" s="405"/>
+      <c r="Z36" s="406"/>
+      <c r="AA36" s="401" t="s">
         <v>74</v>
       </c>
-      <c r="AB36" s="394"/>
-      <c r="AC36" s="394"/>
-      <c r="AD36" s="394"/>
-      <c r="AE36" s="394"/>
-      <c r="AF36" s="394"/>
-      <c r="AG36" s="446"/>
-      <c r="AH36" s="447" t="s">
+      <c r="AB36" s="402"/>
+      <c r="AC36" s="402"/>
+      <c r="AD36" s="402"/>
+      <c r="AE36" s="402"/>
+      <c r="AF36" s="402"/>
+      <c r="AG36" s="403"/>
+      <c r="AH36" s="417" t="s">
         <v>9</v>
       </c>
-      <c r="AI36" s="448"/>
-      <c r="AJ36" s="448"/>
-      <c r="AK36" s="448"/>
-      <c r="AL36" s="449"/>
-      <c r="AM36" s="393" t="s">
+      <c r="AI36" s="418"/>
+      <c r="AJ36" s="418"/>
+      <c r="AK36" s="418"/>
+      <c r="AL36" s="419"/>
+      <c r="AM36" s="401" t="s">
         <v>67</v>
       </c>
-      <c r="AN36" s="394"/>
-      <c r="AO36" s="394"/>
-      <c r="AP36" s="394"/>
-      <c r="AQ36" s="394"/>
-      <c r="AR36" s="394"/>
-      <c r="AS36" s="394"/>
-      <c r="AT36" s="394"/>
-      <c r="AU36" s="394"/>
-      <c r="AV36" s="394"/>
-      <c r="AW36" s="574"/>
+      <c r="AN36" s="402"/>
+      <c r="AO36" s="402"/>
+      <c r="AP36" s="402"/>
+      <c r="AQ36" s="402"/>
+      <c r="AR36" s="402"/>
+      <c r="AS36" s="402"/>
+      <c r="AT36" s="402"/>
+      <c r="AU36" s="402"/>
+      <c r="AV36" s="402"/>
+      <c r="AW36" s="449"/>
     </row>
     <row r="37" spans="1:49" ht="15" thickTop="1">
       <c r="A37" s="242"/>
@@ -8593,1356 +8593,1356 @@
     </row>
     <row r="40" spans="1:49">
       <c r="A40" s="105"/>
-      <c r="B40" s="550" t="s">
+      <c r="B40" s="450" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="551"/>
-      <c r="D40" s="554" t="s">
+      <c r="C40" s="451"/>
+      <c r="D40" s="454" t="s">
         <v>7</v>
       </c>
-      <c r="E40" s="555"/>
-      <c r="F40" s="555"/>
-      <c r="G40" s="555"/>
-      <c r="H40" s="556"/>
-      <c r="I40" s="550" t="s">
+      <c r="E40" s="455"/>
+      <c r="F40" s="455"/>
+      <c r="G40" s="455"/>
+      <c r="H40" s="456"/>
+      <c r="I40" s="450" t="s">
         <v>23</v>
       </c>
-      <c r="J40" s="560"/>
-      <c r="K40" s="560"/>
-      <c r="L40" s="560"/>
-      <c r="M40" s="560"/>
-      <c r="N40" s="560"/>
-      <c r="O40" s="560"/>
-      <c r="P40" s="560"/>
-      <c r="Q40" s="560"/>
-      <c r="R40" s="560"/>
-      <c r="S40" s="560"/>
-      <c r="T40" s="560"/>
-      <c r="U40" s="560"/>
-      <c r="V40" s="560"/>
-      <c r="W40" s="560"/>
-      <c r="X40" s="560"/>
-      <c r="Y40" s="560"/>
-      <c r="Z40" s="551"/>
-      <c r="AA40" s="554" t="s">
+      <c r="J40" s="460"/>
+      <c r="K40" s="460"/>
+      <c r="L40" s="460"/>
+      <c r="M40" s="460"/>
+      <c r="N40" s="460"/>
+      <c r="O40" s="460"/>
+      <c r="P40" s="460"/>
+      <c r="Q40" s="460"/>
+      <c r="R40" s="460"/>
+      <c r="S40" s="460"/>
+      <c r="T40" s="460"/>
+      <c r="U40" s="460"/>
+      <c r="V40" s="460"/>
+      <c r="W40" s="460"/>
+      <c r="X40" s="460"/>
+      <c r="Y40" s="460"/>
+      <c r="Z40" s="451"/>
+      <c r="AA40" s="454" t="s">
         <v>6</v>
       </c>
-      <c r="AB40" s="555"/>
-      <c r="AC40" s="555"/>
-      <c r="AD40" s="556"/>
-      <c r="AE40" s="565"/>
-      <c r="AF40" s="566"/>
-      <c r="AG40" s="566"/>
-      <c r="AH40" s="566"/>
-      <c r="AI40" s="566"/>
-      <c r="AJ40" s="566"/>
-      <c r="AK40" s="566"/>
-      <c r="AL40" s="566"/>
-      <c r="AM40" s="567"/>
-      <c r="AN40" s="568"/>
-      <c r="AO40" s="569"/>
-      <c r="AP40" s="569"/>
-      <c r="AQ40" s="569"/>
-      <c r="AR40" s="569"/>
-      <c r="AS40" s="569"/>
-      <c r="AT40" s="569"/>
-      <c r="AU40" s="569"/>
-      <c r="AV40" s="570"/>
+      <c r="AB40" s="455"/>
+      <c r="AC40" s="455"/>
+      <c r="AD40" s="456"/>
+      <c r="AE40" s="465"/>
+      <c r="AF40" s="466"/>
+      <c r="AG40" s="466"/>
+      <c r="AH40" s="466"/>
+      <c r="AI40" s="466"/>
+      <c r="AJ40" s="466"/>
+      <c r="AK40" s="466"/>
+      <c r="AL40" s="466"/>
+      <c r="AM40" s="467"/>
+      <c r="AN40" s="468"/>
+      <c r="AO40" s="469"/>
+      <c r="AP40" s="469"/>
+      <c r="AQ40" s="469"/>
+      <c r="AR40" s="469"/>
+      <c r="AS40" s="469"/>
+      <c r="AT40" s="469"/>
+      <c r="AU40" s="469"/>
+      <c r="AV40" s="470"/>
       <c r="AW40" s="242"/>
     </row>
     <row r="41" spans="1:49">
       <c r="A41" s="105"/>
-      <c r="B41" s="552"/>
-      <c r="C41" s="553"/>
-      <c r="D41" s="557"/>
-      <c r="E41" s="558"/>
-      <c r="F41" s="558"/>
-      <c r="G41" s="558"/>
-      <c r="H41" s="559"/>
-      <c r="I41" s="552"/>
-      <c r="J41" s="561"/>
-      <c r="K41" s="561"/>
-      <c r="L41" s="561"/>
-      <c r="M41" s="561"/>
-      <c r="N41" s="561"/>
-      <c r="O41" s="561"/>
-      <c r="P41" s="561"/>
-      <c r="Q41" s="561"/>
-      <c r="R41" s="561"/>
-      <c r="S41" s="561"/>
-      <c r="T41" s="561"/>
-      <c r="U41" s="561"/>
-      <c r="V41" s="561"/>
-      <c r="W41" s="561"/>
-      <c r="X41" s="561"/>
-      <c r="Y41" s="561"/>
-      <c r="Z41" s="553"/>
-      <c r="AA41" s="562"/>
-      <c r="AB41" s="563"/>
-      <c r="AC41" s="563"/>
-      <c r="AD41" s="564"/>
-      <c r="AE41" s="565" t="s">
+      <c r="B41" s="452"/>
+      <c r="C41" s="453"/>
+      <c r="D41" s="457"/>
+      <c r="E41" s="458"/>
+      <c r="F41" s="458"/>
+      <c r="G41" s="458"/>
+      <c r="H41" s="459"/>
+      <c r="I41" s="452"/>
+      <c r="J41" s="461"/>
+      <c r="K41" s="461"/>
+      <c r="L41" s="461"/>
+      <c r="M41" s="461"/>
+      <c r="N41" s="461"/>
+      <c r="O41" s="461"/>
+      <c r="P41" s="461"/>
+      <c r="Q41" s="461"/>
+      <c r="R41" s="461"/>
+      <c r="S41" s="461"/>
+      <c r="T41" s="461"/>
+      <c r="U41" s="461"/>
+      <c r="V41" s="461"/>
+      <c r="W41" s="461"/>
+      <c r="X41" s="461"/>
+      <c r="Y41" s="461"/>
+      <c r="Z41" s="453"/>
+      <c r="AA41" s="462"/>
+      <c r="AB41" s="463"/>
+      <c r="AC41" s="463"/>
+      <c r="AD41" s="464"/>
+      <c r="AE41" s="465" t="s">
         <v>24</v>
       </c>
-      <c r="AF41" s="566"/>
-      <c r="AG41" s="566"/>
-      <c r="AH41" s="566"/>
-      <c r="AI41" s="567"/>
-      <c r="AJ41" s="565" t="s">
+      <c r="AF41" s="466"/>
+      <c r="AG41" s="466"/>
+      <c r="AH41" s="466"/>
+      <c r="AI41" s="467"/>
+      <c r="AJ41" s="465" t="s">
         <v>25</v>
       </c>
-      <c r="AK41" s="566"/>
-      <c r="AL41" s="566"/>
-      <c r="AM41" s="567"/>
-      <c r="AN41" s="565" t="s">
+      <c r="AK41" s="466"/>
+      <c r="AL41" s="466"/>
+      <c r="AM41" s="467"/>
+      <c r="AN41" s="465" t="s">
         <v>24</v>
       </c>
-      <c r="AO41" s="566"/>
-      <c r="AP41" s="566"/>
-      <c r="AQ41" s="566"/>
-      <c r="AR41" s="567"/>
-      <c r="AS41" s="565" t="s">
+      <c r="AO41" s="466"/>
+      <c r="AP41" s="466"/>
+      <c r="AQ41" s="466"/>
+      <c r="AR41" s="467"/>
+      <c r="AS41" s="465" t="s">
         <v>25</v>
       </c>
-      <c r="AT41" s="566"/>
-      <c r="AU41" s="566"/>
-      <c r="AV41" s="567"/>
+      <c r="AT41" s="466"/>
+      <c r="AU41" s="466"/>
+      <c r="AV41" s="467"/>
       <c r="AW41" s="242"/>
     </row>
     <row r="42" spans="1:49">
       <c r="A42" s="105"/>
-      <c r="B42" s="483">
+      <c r="B42" s="471">
         <v>1</v>
       </c>
-      <c r="C42" s="484"/>
-      <c r="D42" s="487">
+      <c r="C42" s="472"/>
+      <c r="D42" s="475">
         <v>45056</v>
       </c>
-      <c r="E42" s="441"/>
-      <c r="F42" s="441"/>
-      <c r="G42" s="441"/>
-      <c r="H42" s="488"/>
-      <c r="I42" s="492" t="s">
+      <c r="E42" s="430"/>
+      <c r="F42" s="430"/>
+      <c r="G42" s="430"/>
+      <c r="H42" s="476"/>
+      <c r="I42" s="480" t="s">
         <v>202</v>
       </c>
-      <c r="J42" s="493"/>
-      <c r="K42" s="493"/>
-      <c r="L42" s="493"/>
-      <c r="M42" s="493"/>
-      <c r="N42" s="493"/>
-      <c r="O42" s="493"/>
-      <c r="P42" s="493"/>
-      <c r="Q42" s="493"/>
-      <c r="R42" s="493"/>
-      <c r="S42" s="493"/>
-      <c r="T42" s="493"/>
-      <c r="U42" s="493"/>
-      <c r="V42" s="493"/>
-      <c r="W42" s="493"/>
-      <c r="X42" s="493"/>
-      <c r="Y42" s="493"/>
-      <c r="Z42" s="494"/>
-      <c r="AA42" s="498" t="s">
+      <c r="J42" s="481"/>
+      <c r="K42" s="481"/>
+      <c r="L42" s="481"/>
+      <c r="M42" s="481"/>
+      <c r="N42" s="481"/>
+      <c r="O42" s="481"/>
+      <c r="P42" s="481"/>
+      <c r="Q42" s="481"/>
+      <c r="R42" s="481"/>
+      <c r="S42" s="481"/>
+      <c r="T42" s="481"/>
+      <c r="U42" s="481"/>
+      <c r="V42" s="481"/>
+      <c r="W42" s="481"/>
+      <c r="X42" s="481"/>
+      <c r="Y42" s="481"/>
+      <c r="Z42" s="482"/>
+      <c r="AA42" s="486" t="s">
         <v>203</v>
       </c>
-      <c r="AB42" s="499"/>
-      <c r="AC42" s="499"/>
-      <c r="AD42" s="500"/>
-      <c r="AE42" s="504">
+      <c r="AB42" s="487"/>
+      <c r="AC42" s="487"/>
+      <c r="AD42" s="488"/>
+      <c r="AE42" s="492">
         <v>45056</v>
       </c>
-      <c r="AF42" s="505"/>
-      <c r="AG42" s="505"/>
-      <c r="AH42" s="505"/>
-      <c r="AI42" s="506"/>
-      <c r="AJ42" s="498" t="s">
+      <c r="AF42" s="493"/>
+      <c r="AG42" s="493"/>
+      <c r="AH42" s="493"/>
+      <c r="AI42" s="494"/>
+      <c r="AJ42" s="486" t="s">
         <v>66</v>
       </c>
-      <c r="AK42" s="499"/>
-      <c r="AL42" s="499"/>
-      <c r="AM42" s="500"/>
-      <c r="AN42" s="510"/>
-      <c r="AO42" s="511"/>
-      <c r="AP42" s="511"/>
-      <c r="AQ42" s="511"/>
-      <c r="AR42" s="512"/>
-      <c r="AS42" s="516"/>
-      <c r="AT42" s="517"/>
-      <c r="AU42" s="517"/>
-      <c r="AV42" s="518"/>
+      <c r="AK42" s="487"/>
+      <c r="AL42" s="487"/>
+      <c r="AM42" s="488"/>
+      <c r="AN42" s="498"/>
+      <c r="AO42" s="499"/>
+      <c r="AP42" s="499"/>
+      <c r="AQ42" s="499"/>
+      <c r="AR42" s="500"/>
+      <c r="AS42" s="504"/>
+      <c r="AT42" s="505"/>
+      <c r="AU42" s="505"/>
+      <c r="AV42" s="506"/>
       <c r="AW42" s="242"/>
     </row>
     <row r="43" spans="1:49">
       <c r="A43" s="105"/>
-      <c r="B43" s="485"/>
-      <c r="C43" s="486"/>
-      <c r="D43" s="489"/>
-      <c r="E43" s="490"/>
-      <c r="F43" s="490"/>
-      <c r="G43" s="490"/>
-      <c r="H43" s="491"/>
-      <c r="I43" s="495"/>
-      <c r="J43" s="496"/>
-      <c r="K43" s="496"/>
-      <c r="L43" s="496"/>
-      <c r="M43" s="496"/>
-      <c r="N43" s="496"/>
-      <c r="O43" s="496"/>
-      <c r="P43" s="496"/>
-      <c r="Q43" s="496"/>
-      <c r="R43" s="496"/>
-      <c r="S43" s="496"/>
-      <c r="T43" s="496"/>
-      <c r="U43" s="496"/>
-      <c r="V43" s="496"/>
-      <c r="W43" s="496"/>
-      <c r="X43" s="496"/>
-      <c r="Y43" s="496"/>
-      <c r="Z43" s="497"/>
-      <c r="AA43" s="501"/>
-      <c r="AB43" s="502"/>
-      <c r="AC43" s="502"/>
-      <c r="AD43" s="503"/>
-      <c r="AE43" s="507"/>
-      <c r="AF43" s="508"/>
-      <c r="AG43" s="508"/>
-      <c r="AH43" s="508"/>
-      <c r="AI43" s="509"/>
-      <c r="AJ43" s="501"/>
-      <c r="AK43" s="502"/>
-      <c r="AL43" s="502"/>
-      <c r="AM43" s="503"/>
-      <c r="AN43" s="513"/>
-      <c r="AO43" s="514"/>
-      <c r="AP43" s="514"/>
-      <c r="AQ43" s="514"/>
-      <c r="AR43" s="515"/>
-      <c r="AS43" s="519"/>
-      <c r="AT43" s="520"/>
-      <c r="AU43" s="520"/>
-      <c r="AV43" s="521"/>
+      <c r="B43" s="473"/>
+      <c r="C43" s="474"/>
+      <c r="D43" s="477"/>
+      <c r="E43" s="478"/>
+      <c r="F43" s="478"/>
+      <c r="G43" s="478"/>
+      <c r="H43" s="479"/>
+      <c r="I43" s="483"/>
+      <c r="J43" s="484"/>
+      <c r="K43" s="484"/>
+      <c r="L43" s="484"/>
+      <c r="M43" s="484"/>
+      <c r="N43" s="484"/>
+      <c r="O43" s="484"/>
+      <c r="P43" s="484"/>
+      <c r="Q43" s="484"/>
+      <c r="R43" s="484"/>
+      <c r="S43" s="484"/>
+      <c r="T43" s="484"/>
+      <c r="U43" s="484"/>
+      <c r="V43" s="484"/>
+      <c r="W43" s="484"/>
+      <c r="X43" s="484"/>
+      <c r="Y43" s="484"/>
+      <c r="Z43" s="485"/>
+      <c r="AA43" s="489"/>
+      <c r="AB43" s="490"/>
+      <c r="AC43" s="490"/>
+      <c r="AD43" s="491"/>
+      <c r="AE43" s="495"/>
+      <c r="AF43" s="496"/>
+      <c r="AG43" s="496"/>
+      <c r="AH43" s="496"/>
+      <c r="AI43" s="497"/>
+      <c r="AJ43" s="489"/>
+      <c r="AK43" s="490"/>
+      <c r="AL43" s="490"/>
+      <c r="AM43" s="491"/>
+      <c r="AN43" s="501"/>
+      <c r="AO43" s="502"/>
+      <c r="AP43" s="502"/>
+      <c r="AQ43" s="502"/>
+      <c r="AR43" s="503"/>
+      <c r="AS43" s="507"/>
+      <c r="AT43" s="508"/>
+      <c r="AU43" s="508"/>
+      <c r="AV43" s="509"/>
       <c r="AW43" s="242"/>
     </row>
     <row r="44" spans="1:49">
       <c r="A44" s="105"/>
-      <c r="B44" s="522"/>
-      <c r="C44" s="523"/>
-      <c r="D44" s="526"/>
-      <c r="E44" s="527"/>
-      <c r="F44" s="527"/>
-      <c r="G44" s="527"/>
-      <c r="H44" s="528"/>
-      <c r="I44" s="532"/>
-      <c r="J44" s="533"/>
-      <c r="K44" s="533"/>
-      <c r="L44" s="533"/>
-      <c r="M44" s="533"/>
-      <c r="N44" s="533"/>
-      <c r="O44" s="533"/>
-      <c r="P44" s="533"/>
-      <c r="Q44" s="533"/>
-      <c r="R44" s="533"/>
-      <c r="S44" s="533"/>
-      <c r="T44" s="533"/>
-      <c r="U44" s="533"/>
-      <c r="V44" s="533"/>
-      <c r="W44" s="533"/>
-      <c r="X44" s="533"/>
-      <c r="Y44" s="533"/>
-      <c r="Z44" s="534"/>
-      <c r="AA44" s="538"/>
-      <c r="AB44" s="539"/>
-      <c r="AC44" s="539"/>
-      <c r="AD44" s="540"/>
-      <c r="AE44" s="544"/>
-      <c r="AF44" s="545"/>
-      <c r="AG44" s="545"/>
-      <c r="AH44" s="545"/>
-      <c r="AI44" s="546"/>
-      <c r="AJ44" s="538"/>
-      <c r="AK44" s="539"/>
-      <c r="AL44" s="539"/>
-      <c r="AM44" s="540"/>
-      <c r="AN44" s="544"/>
-      <c r="AO44" s="545"/>
-      <c r="AP44" s="545"/>
-      <c r="AQ44" s="545"/>
-      <c r="AR44" s="546"/>
-      <c r="AS44" s="538"/>
-      <c r="AT44" s="539"/>
-      <c r="AU44" s="539"/>
-      <c r="AV44" s="540"/>
+      <c r="B44" s="510"/>
+      <c r="C44" s="511"/>
+      <c r="D44" s="514"/>
+      <c r="E44" s="515"/>
+      <c r="F44" s="515"/>
+      <c r="G44" s="515"/>
+      <c r="H44" s="516"/>
+      <c r="I44" s="520"/>
+      <c r="J44" s="521"/>
+      <c r="K44" s="521"/>
+      <c r="L44" s="521"/>
+      <c r="M44" s="521"/>
+      <c r="N44" s="521"/>
+      <c r="O44" s="521"/>
+      <c r="P44" s="521"/>
+      <c r="Q44" s="521"/>
+      <c r="R44" s="521"/>
+      <c r="S44" s="521"/>
+      <c r="T44" s="521"/>
+      <c r="U44" s="521"/>
+      <c r="V44" s="521"/>
+      <c r="W44" s="521"/>
+      <c r="X44" s="521"/>
+      <c r="Y44" s="521"/>
+      <c r="Z44" s="522"/>
+      <c r="AA44" s="526"/>
+      <c r="AB44" s="527"/>
+      <c r="AC44" s="527"/>
+      <c r="AD44" s="528"/>
+      <c r="AE44" s="532"/>
+      <c r="AF44" s="533"/>
+      <c r="AG44" s="533"/>
+      <c r="AH44" s="533"/>
+      <c r="AI44" s="534"/>
+      <c r="AJ44" s="526"/>
+      <c r="AK44" s="527"/>
+      <c r="AL44" s="527"/>
+      <c r="AM44" s="528"/>
+      <c r="AN44" s="532"/>
+      <c r="AO44" s="533"/>
+      <c r="AP44" s="533"/>
+      <c r="AQ44" s="533"/>
+      <c r="AR44" s="534"/>
+      <c r="AS44" s="526"/>
+      <c r="AT44" s="527"/>
+      <c r="AU44" s="527"/>
+      <c r="AV44" s="528"/>
       <c r="AW44" s="242"/>
     </row>
     <row r="45" spans="1:49">
       <c r="A45" s="105"/>
-      <c r="B45" s="524"/>
-      <c r="C45" s="525"/>
-      <c r="D45" s="529"/>
-      <c r="E45" s="530"/>
-      <c r="F45" s="530"/>
-      <c r="G45" s="530"/>
-      <c r="H45" s="531"/>
-      <c r="I45" s="535"/>
-      <c r="J45" s="536"/>
-      <c r="K45" s="536"/>
-      <c r="L45" s="536"/>
-      <c r="M45" s="536"/>
-      <c r="N45" s="536"/>
-      <c r="O45" s="536"/>
-      <c r="P45" s="536"/>
-      <c r="Q45" s="536"/>
-      <c r="R45" s="536"/>
-      <c r="S45" s="536"/>
-      <c r="T45" s="536"/>
-      <c r="U45" s="536"/>
-      <c r="V45" s="536"/>
-      <c r="W45" s="536"/>
-      <c r="X45" s="536"/>
-      <c r="Y45" s="536"/>
-      <c r="Z45" s="537"/>
-      <c r="AA45" s="541"/>
-      <c r="AB45" s="542"/>
-      <c r="AC45" s="542"/>
-      <c r="AD45" s="543"/>
-      <c r="AE45" s="547"/>
-      <c r="AF45" s="548"/>
-      <c r="AG45" s="548"/>
-      <c r="AH45" s="548"/>
-      <c r="AI45" s="549"/>
-      <c r="AJ45" s="541"/>
-      <c r="AK45" s="542"/>
-      <c r="AL45" s="542"/>
-      <c r="AM45" s="543"/>
-      <c r="AN45" s="547"/>
-      <c r="AO45" s="548"/>
-      <c r="AP45" s="548"/>
-      <c r="AQ45" s="548"/>
-      <c r="AR45" s="549"/>
-      <c r="AS45" s="541"/>
-      <c r="AT45" s="542"/>
-      <c r="AU45" s="542"/>
-      <c r="AV45" s="543"/>
+      <c r="B45" s="512"/>
+      <c r="C45" s="513"/>
+      <c r="D45" s="517"/>
+      <c r="E45" s="518"/>
+      <c r="F45" s="518"/>
+      <c r="G45" s="518"/>
+      <c r="H45" s="519"/>
+      <c r="I45" s="523"/>
+      <c r="J45" s="524"/>
+      <c r="K45" s="524"/>
+      <c r="L45" s="524"/>
+      <c r="M45" s="524"/>
+      <c r="N45" s="524"/>
+      <c r="O45" s="524"/>
+      <c r="P45" s="524"/>
+      <c r="Q45" s="524"/>
+      <c r="R45" s="524"/>
+      <c r="S45" s="524"/>
+      <c r="T45" s="524"/>
+      <c r="U45" s="524"/>
+      <c r="V45" s="524"/>
+      <c r="W45" s="524"/>
+      <c r="X45" s="524"/>
+      <c r="Y45" s="524"/>
+      <c r="Z45" s="525"/>
+      <c r="AA45" s="529"/>
+      <c r="AB45" s="530"/>
+      <c r="AC45" s="530"/>
+      <c r="AD45" s="531"/>
+      <c r="AE45" s="535"/>
+      <c r="AF45" s="536"/>
+      <c r="AG45" s="536"/>
+      <c r="AH45" s="536"/>
+      <c r="AI45" s="537"/>
+      <c r="AJ45" s="529"/>
+      <c r="AK45" s="530"/>
+      <c r="AL45" s="530"/>
+      <c r="AM45" s="531"/>
+      <c r="AN45" s="535"/>
+      <c r="AO45" s="536"/>
+      <c r="AP45" s="536"/>
+      <c r="AQ45" s="536"/>
+      <c r="AR45" s="537"/>
+      <c r="AS45" s="529"/>
+      <c r="AT45" s="530"/>
+      <c r="AU45" s="530"/>
+      <c r="AV45" s="531"/>
       <c r="AW45" s="242"/>
     </row>
     <row r="46" spans="1:49">
       <c r="A46" s="105"/>
-      <c r="B46" s="450"/>
-      <c r="C46" s="451"/>
-      <c r="D46" s="452"/>
-      <c r="E46" s="453"/>
-      <c r="F46" s="453"/>
-      <c r="G46" s="453"/>
-      <c r="H46" s="454"/>
-      <c r="I46" s="455"/>
-      <c r="J46" s="456"/>
-      <c r="K46" s="456"/>
-      <c r="L46" s="456"/>
-      <c r="M46" s="456"/>
-      <c r="N46" s="456"/>
-      <c r="O46" s="456"/>
-      <c r="P46" s="456"/>
-      <c r="Q46" s="456"/>
-      <c r="R46" s="456"/>
-      <c r="S46" s="456"/>
-      <c r="T46" s="456"/>
-      <c r="U46" s="456"/>
-      <c r="V46" s="456"/>
-      <c r="W46" s="456"/>
-      <c r="X46" s="456"/>
-      <c r="Y46" s="456"/>
-      <c r="Z46" s="457"/>
-      <c r="AA46" s="458"/>
-      <c r="AB46" s="459"/>
-      <c r="AC46" s="459"/>
-      <c r="AD46" s="460"/>
-      <c r="AE46" s="452"/>
-      <c r="AF46" s="453"/>
-      <c r="AG46" s="453"/>
-      <c r="AH46" s="453"/>
-      <c r="AI46" s="454"/>
-      <c r="AJ46" s="458"/>
-      <c r="AK46" s="459"/>
-      <c r="AL46" s="459"/>
-      <c r="AM46" s="460"/>
-      <c r="AN46" s="452"/>
-      <c r="AO46" s="453"/>
-      <c r="AP46" s="453"/>
-      <c r="AQ46" s="453"/>
-      <c r="AR46" s="454"/>
-      <c r="AS46" s="458"/>
-      <c r="AT46" s="459"/>
-      <c r="AU46" s="459"/>
-      <c r="AV46" s="460"/>
+      <c r="B46" s="538"/>
+      <c r="C46" s="539"/>
+      <c r="D46" s="540"/>
+      <c r="E46" s="541"/>
+      <c r="F46" s="541"/>
+      <c r="G46" s="541"/>
+      <c r="H46" s="542"/>
+      <c r="I46" s="543"/>
+      <c r="J46" s="544"/>
+      <c r="K46" s="544"/>
+      <c r="L46" s="544"/>
+      <c r="M46" s="544"/>
+      <c r="N46" s="544"/>
+      <c r="O46" s="544"/>
+      <c r="P46" s="544"/>
+      <c r="Q46" s="544"/>
+      <c r="R46" s="544"/>
+      <c r="S46" s="544"/>
+      <c r="T46" s="544"/>
+      <c r="U46" s="544"/>
+      <c r="V46" s="544"/>
+      <c r="W46" s="544"/>
+      <c r="X46" s="544"/>
+      <c r="Y46" s="544"/>
+      <c r="Z46" s="545"/>
+      <c r="AA46" s="546"/>
+      <c r="AB46" s="547"/>
+      <c r="AC46" s="547"/>
+      <c r="AD46" s="548"/>
+      <c r="AE46" s="540"/>
+      <c r="AF46" s="541"/>
+      <c r="AG46" s="541"/>
+      <c r="AH46" s="541"/>
+      <c r="AI46" s="542"/>
+      <c r="AJ46" s="546"/>
+      <c r="AK46" s="547"/>
+      <c r="AL46" s="547"/>
+      <c r="AM46" s="548"/>
+      <c r="AN46" s="540"/>
+      <c r="AO46" s="541"/>
+      <c r="AP46" s="541"/>
+      <c r="AQ46" s="541"/>
+      <c r="AR46" s="542"/>
+      <c r="AS46" s="546"/>
+      <c r="AT46" s="547"/>
+      <c r="AU46" s="547"/>
+      <c r="AV46" s="548"/>
       <c r="AW46" s="242"/>
     </row>
     <row r="47" spans="1:49">
       <c r="A47" s="105"/>
-      <c r="B47" s="450"/>
-      <c r="C47" s="451"/>
-      <c r="D47" s="452"/>
-      <c r="E47" s="453"/>
-      <c r="F47" s="453"/>
-      <c r="G47" s="453"/>
-      <c r="H47" s="454"/>
-      <c r="I47" s="455"/>
-      <c r="J47" s="456"/>
-      <c r="K47" s="456"/>
-      <c r="L47" s="456"/>
-      <c r="M47" s="456"/>
-      <c r="N47" s="456"/>
-      <c r="O47" s="456"/>
-      <c r="P47" s="456"/>
-      <c r="Q47" s="456"/>
-      <c r="R47" s="456"/>
-      <c r="S47" s="456"/>
-      <c r="T47" s="456"/>
-      <c r="U47" s="456"/>
-      <c r="V47" s="456"/>
-      <c r="W47" s="456"/>
-      <c r="X47" s="456"/>
-      <c r="Y47" s="456"/>
-      <c r="Z47" s="457"/>
-      <c r="AA47" s="458"/>
-      <c r="AB47" s="459"/>
-      <c r="AC47" s="459"/>
-      <c r="AD47" s="460"/>
-      <c r="AE47" s="452"/>
-      <c r="AF47" s="453"/>
-      <c r="AG47" s="453"/>
-      <c r="AH47" s="453"/>
-      <c r="AI47" s="454"/>
-      <c r="AJ47" s="458"/>
-      <c r="AK47" s="459"/>
-      <c r="AL47" s="459"/>
-      <c r="AM47" s="460"/>
-      <c r="AN47" s="452"/>
-      <c r="AO47" s="453"/>
-      <c r="AP47" s="453"/>
-      <c r="AQ47" s="453"/>
-      <c r="AR47" s="454"/>
-      <c r="AS47" s="458"/>
-      <c r="AT47" s="459"/>
-      <c r="AU47" s="459"/>
-      <c r="AV47" s="460"/>
+      <c r="B47" s="538"/>
+      <c r="C47" s="539"/>
+      <c r="D47" s="540"/>
+      <c r="E47" s="541"/>
+      <c r="F47" s="541"/>
+      <c r="G47" s="541"/>
+      <c r="H47" s="542"/>
+      <c r="I47" s="543"/>
+      <c r="J47" s="544"/>
+      <c r="K47" s="544"/>
+      <c r="L47" s="544"/>
+      <c r="M47" s="544"/>
+      <c r="N47" s="544"/>
+      <c r="O47" s="544"/>
+      <c r="P47" s="544"/>
+      <c r="Q47" s="544"/>
+      <c r="R47" s="544"/>
+      <c r="S47" s="544"/>
+      <c r="T47" s="544"/>
+      <c r="U47" s="544"/>
+      <c r="V47" s="544"/>
+      <c r="W47" s="544"/>
+      <c r="X47" s="544"/>
+      <c r="Y47" s="544"/>
+      <c r="Z47" s="545"/>
+      <c r="AA47" s="546"/>
+      <c r="AB47" s="547"/>
+      <c r="AC47" s="547"/>
+      <c r="AD47" s="548"/>
+      <c r="AE47" s="540"/>
+      <c r="AF47" s="541"/>
+      <c r="AG47" s="541"/>
+      <c r="AH47" s="541"/>
+      <c r="AI47" s="542"/>
+      <c r="AJ47" s="546"/>
+      <c r="AK47" s="547"/>
+      <c r="AL47" s="547"/>
+      <c r="AM47" s="548"/>
+      <c r="AN47" s="540"/>
+      <c r="AO47" s="541"/>
+      <c r="AP47" s="541"/>
+      <c r="AQ47" s="541"/>
+      <c r="AR47" s="542"/>
+      <c r="AS47" s="546"/>
+      <c r="AT47" s="547"/>
+      <c r="AU47" s="547"/>
+      <c r="AV47" s="548"/>
       <c r="AW47" s="242"/>
     </row>
     <row r="48" spans="1:49">
       <c r="A48" s="105"/>
-      <c r="B48" s="472"/>
-      <c r="C48" s="473"/>
-      <c r="D48" s="474"/>
-      <c r="E48" s="475"/>
-      <c r="F48" s="475"/>
-      <c r="G48" s="475"/>
-      <c r="H48" s="476"/>
-      <c r="I48" s="477"/>
-      <c r="J48" s="478"/>
-      <c r="K48" s="478"/>
-      <c r="L48" s="478"/>
-      <c r="M48" s="478"/>
-      <c r="N48" s="478"/>
-      <c r="O48" s="478"/>
-      <c r="P48" s="478"/>
-      <c r="Q48" s="478"/>
-      <c r="R48" s="478"/>
-      <c r="S48" s="478"/>
-      <c r="T48" s="478"/>
-      <c r="U48" s="478"/>
-      <c r="V48" s="478"/>
-      <c r="W48" s="478"/>
-      <c r="X48" s="478"/>
-      <c r="Y48" s="478"/>
-      <c r="Z48" s="479"/>
-      <c r="AA48" s="480"/>
-      <c r="AB48" s="481"/>
-      <c r="AC48" s="481"/>
-      <c r="AD48" s="482"/>
-      <c r="AE48" s="474"/>
-      <c r="AF48" s="475"/>
-      <c r="AG48" s="475"/>
-      <c r="AH48" s="475"/>
-      <c r="AI48" s="476"/>
-      <c r="AJ48" s="480"/>
-      <c r="AK48" s="481"/>
-      <c r="AL48" s="481"/>
-      <c r="AM48" s="482"/>
-      <c r="AN48" s="474"/>
-      <c r="AO48" s="475"/>
-      <c r="AP48" s="475"/>
-      <c r="AQ48" s="475"/>
-      <c r="AR48" s="476"/>
-      <c r="AS48" s="480"/>
-      <c r="AT48" s="481"/>
-      <c r="AU48" s="481"/>
-      <c r="AV48" s="482"/>
+      <c r="B48" s="549"/>
+      <c r="C48" s="550"/>
+      <c r="D48" s="551"/>
+      <c r="E48" s="552"/>
+      <c r="F48" s="552"/>
+      <c r="G48" s="552"/>
+      <c r="H48" s="553"/>
+      <c r="I48" s="554"/>
+      <c r="J48" s="555"/>
+      <c r="K48" s="555"/>
+      <c r="L48" s="555"/>
+      <c r="M48" s="555"/>
+      <c r="N48" s="555"/>
+      <c r="O48" s="555"/>
+      <c r="P48" s="555"/>
+      <c r="Q48" s="555"/>
+      <c r="R48" s="555"/>
+      <c r="S48" s="555"/>
+      <c r="T48" s="555"/>
+      <c r="U48" s="555"/>
+      <c r="V48" s="555"/>
+      <c r="W48" s="555"/>
+      <c r="X48" s="555"/>
+      <c r="Y48" s="555"/>
+      <c r="Z48" s="556"/>
+      <c r="AA48" s="557"/>
+      <c r="AB48" s="558"/>
+      <c r="AC48" s="558"/>
+      <c r="AD48" s="559"/>
+      <c r="AE48" s="551"/>
+      <c r="AF48" s="552"/>
+      <c r="AG48" s="552"/>
+      <c r="AH48" s="552"/>
+      <c r="AI48" s="553"/>
+      <c r="AJ48" s="557"/>
+      <c r="AK48" s="558"/>
+      <c r="AL48" s="558"/>
+      <c r="AM48" s="559"/>
+      <c r="AN48" s="551"/>
+      <c r="AO48" s="552"/>
+      <c r="AP48" s="552"/>
+      <c r="AQ48" s="552"/>
+      <c r="AR48" s="553"/>
+      <c r="AS48" s="557"/>
+      <c r="AT48" s="558"/>
+      <c r="AU48" s="558"/>
+      <c r="AV48" s="559"/>
       <c r="AW48" s="242"/>
     </row>
     <row r="49" spans="1:49">
       <c r="A49" s="105"/>
-      <c r="B49" s="472"/>
-      <c r="C49" s="473"/>
-      <c r="D49" s="474"/>
-      <c r="E49" s="475"/>
-      <c r="F49" s="475"/>
-      <c r="G49" s="475"/>
-      <c r="H49" s="476"/>
-      <c r="I49" s="477"/>
-      <c r="J49" s="478"/>
-      <c r="K49" s="478"/>
-      <c r="L49" s="478"/>
-      <c r="M49" s="478"/>
-      <c r="N49" s="478"/>
-      <c r="O49" s="478"/>
-      <c r="P49" s="478"/>
-      <c r="Q49" s="478"/>
-      <c r="R49" s="478"/>
-      <c r="S49" s="478"/>
-      <c r="T49" s="478"/>
-      <c r="U49" s="478"/>
-      <c r="V49" s="478"/>
-      <c r="W49" s="478"/>
-      <c r="X49" s="478"/>
-      <c r="Y49" s="478"/>
-      <c r="Z49" s="479"/>
-      <c r="AA49" s="480"/>
-      <c r="AB49" s="481"/>
-      <c r="AC49" s="481"/>
-      <c r="AD49" s="482"/>
-      <c r="AE49" s="474"/>
-      <c r="AF49" s="475"/>
-      <c r="AG49" s="475"/>
-      <c r="AH49" s="475"/>
-      <c r="AI49" s="476"/>
-      <c r="AJ49" s="480"/>
-      <c r="AK49" s="481"/>
-      <c r="AL49" s="481"/>
-      <c r="AM49" s="482"/>
-      <c r="AN49" s="474"/>
-      <c r="AO49" s="475"/>
-      <c r="AP49" s="475"/>
-      <c r="AQ49" s="475"/>
-      <c r="AR49" s="476"/>
-      <c r="AS49" s="480"/>
-      <c r="AT49" s="481"/>
-      <c r="AU49" s="481"/>
-      <c r="AV49" s="482"/>
+      <c r="B49" s="549"/>
+      <c r="C49" s="550"/>
+      <c r="D49" s="551"/>
+      <c r="E49" s="552"/>
+      <c r="F49" s="552"/>
+      <c r="G49" s="552"/>
+      <c r="H49" s="553"/>
+      <c r="I49" s="554"/>
+      <c r="J49" s="555"/>
+      <c r="K49" s="555"/>
+      <c r="L49" s="555"/>
+      <c r="M49" s="555"/>
+      <c r="N49" s="555"/>
+      <c r="O49" s="555"/>
+      <c r="P49" s="555"/>
+      <c r="Q49" s="555"/>
+      <c r="R49" s="555"/>
+      <c r="S49" s="555"/>
+      <c r="T49" s="555"/>
+      <c r="U49" s="555"/>
+      <c r="V49" s="555"/>
+      <c r="W49" s="555"/>
+      <c r="X49" s="555"/>
+      <c r="Y49" s="555"/>
+      <c r="Z49" s="556"/>
+      <c r="AA49" s="557"/>
+      <c r="AB49" s="558"/>
+      <c r="AC49" s="558"/>
+      <c r="AD49" s="559"/>
+      <c r="AE49" s="551"/>
+      <c r="AF49" s="552"/>
+      <c r="AG49" s="552"/>
+      <c r="AH49" s="552"/>
+      <c r="AI49" s="553"/>
+      <c r="AJ49" s="557"/>
+      <c r="AK49" s="558"/>
+      <c r="AL49" s="558"/>
+      <c r="AM49" s="559"/>
+      <c r="AN49" s="551"/>
+      <c r="AO49" s="552"/>
+      <c r="AP49" s="552"/>
+      <c r="AQ49" s="552"/>
+      <c r="AR49" s="553"/>
+      <c r="AS49" s="557"/>
+      <c r="AT49" s="558"/>
+      <c r="AU49" s="558"/>
+      <c r="AV49" s="559"/>
       <c r="AW49" s="242"/>
     </row>
     <row r="50" spans="1:49">
       <c r="A50" s="105"/>
-      <c r="B50" s="472"/>
-      <c r="C50" s="473"/>
-      <c r="D50" s="474"/>
-      <c r="E50" s="475"/>
-      <c r="F50" s="475"/>
-      <c r="G50" s="475"/>
-      <c r="H50" s="476"/>
-      <c r="I50" s="477"/>
-      <c r="J50" s="478"/>
-      <c r="K50" s="478"/>
-      <c r="L50" s="478"/>
-      <c r="M50" s="478"/>
-      <c r="N50" s="478"/>
-      <c r="O50" s="478"/>
-      <c r="P50" s="478"/>
-      <c r="Q50" s="478"/>
-      <c r="R50" s="478"/>
-      <c r="S50" s="478"/>
-      <c r="T50" s="478"/>
-      <c r="U50" s="478"/>
-      <c r="V50" s="478"/>
-      <c r="W50" s="478"/>
-      <c r="X50" s="478"/>
-      <c r="Y50" s="478"/>
-      <c r="Z50" s="479"/>
-      <c r="AA50" s="480"/>
-      <c r="AB50" s="481"/>
-      <c r="AC50" s="481"/>
-      <c r="AD50" s="482"/>
-      <c r="AE50" s="474"/>
-      <c r="AF50" s="475"/>
-      <c r="AG50" s="475"/>
-      <c r="AH50" s="475"/>
-      <c r="AI50" s="476"/>
-      <c r="AJ50" s="480"/>
-      <c r="AK50" s="481"/>
-      <c r="AL50" s="481"/>
-      <c r="AM50" s="482"/>
-      <c r="AN50" s="474"/>
-      <c r="AO50" s="475"/>
-      <c r="AP50" s="475"/>
-      <c r="AQ50" s="475"/>
-      <c r="AR50" s="476"/>
-      <c r="AS50" s="480"/>
-      <c r="AT50" s="481"/>
-      <c r="AU50" s="481"/>
-      <c r="AV50" s="482"/>
+      <c r="B50" s="549"/>
+      <c r="C50" s="550"/>
+      <c r="D50" s="551"/>
+      <c r="E50" s="552"/>
+      <c r="F50" s="552"/>
+      <c r="G50" s="552"/>
+      <c r="H50" s="553"/>
+      <c r="I50" s="554"/>
+      <c r="J50" s="555"/>
+      <c r="K50" s="555"/>
+      <c r="L50" s="555"/>
+      <c r="M50" s="555"/>
+      <c r="N50" s="555"/>
+      <c r="O50" s="555"/>
+      <c r="P50" s="555"/>
+      <c r="Q50" s="555"/>
+      <c r="R50" s="555"/>
+      <c r="S50" s="555"/>
+      <c r="T50" s="555"/>
+      <c r="U50" s="555"/>
+      <c r="V50" s="555"/>
+      <c r="W50" s="555"/>
+      <c r="X50" s="555"/>
+      <c r="Y50" s="555"/>
+      <c r="Z50" s="556"/>
+      <c r="AA50" s="557"/>
+      <c r="AB50" s="558"/>
+      <c r="AC50" s="558"/>
+      <c r="AD50" s="559"/>
+      <c r="AE50" s="551"/>
+      <c r="AF50" s="552"/>
+      <c r="AG50" s="552"/>
+      <c r="AH50" s="552"/>
+      <c r="AI50" s="553"/>
+      <c r="AJ50" s="557"/>
+      <c r="AK50" s="558"/>
+      <c r="AL50" s="558"/>
+      <c r="AM50" s="559"/>
+      <c r="AN50" s="551"/>
+      <c r="AO50" s="552"/>
+      <c r="AP50" s="552"/>
+      <c r="AQ50" s="552"/>
+      <c r="AR50" s="553"/>
+      <c r="AS50" s="557"/>
+      <c r="AT50" s="558"/>
+      <c r="AU50" s="558"/>
+      <c r="AV50" s="559"/>
       <c r="AW50" s="242"/>
     </row>
     <row r="51" spans="1:49">
       <c r="A51" s="105"/>
-      <c r="B51" s="472"/>
-      <c r="C51" s="473"/>
-      <c r="D51" s="474"/>
-      <c r="E51" s="475"/>
-      <c r="F51" s="475"/>
-      <c r="G51" s="475"/>
-      <c r="H51" s="476"/>
-      <c r="I51" s="477"/>
-      <c r="J51" s="478"/>
-      <c r="K51" s="478"/>
-      <c r="L51" s="478"/>
-      <c r="M51" s="478"/>
-      <c r="N51" s="478"/>
-      <c r="O51" s="478"/>
-      <c r="P51" s="478"/>
-      <c r="Q51" s="478"/>
-      <c r="R51" s="478"/>
-      <c r="S51" s="478"/>
-      <c r="T51" s="478"/>
-      <c r="U51" s="478"/>
-      <c r="V51" s="478"/>
-      <c r="W51" s="478"/>
-      <c r="X51" s="478"/>
-      <c r="Y51" s="478"/>
-      <c r="Z51" s="479"/>
-      <c r="AA51" s="480"/>
-      <c r="AB51" s="481"/>
-      <c r="AC51" s="481"/>
-      <c r="AD51" s="482"/>
-      <c r="AE51" s="474"/>
-      <c r="AF51" s="475"/>
-      <c r="AG51" s="475"/>
-      <c r="AH51" s="475"/>
-      <c r="AI51" s="476"/>
-      <c r="AJ51" s="480"/>
-      <c r="AK51" s="481"/>
-      <c r="AL51" s="481"/>
-      <c r="AM51" s="482"/>
-      <c r="AN51" s="474"/>
-      <c r="AO51" s="475"/>
-      <c r="AP51" s="475"/>
-      <c r="AQ51" s="475"/>
-      <c r="AR51" s="476"/>
-      <c r="AS51" s="480"/>
-      <c r="AT51" s="481"/>
-      <c r="AU51" s="481"/>
-      <c r="AV51" s="482"/>
+      <c r="B51" s="549"/>
+      <c r="C51" s="550"/>
+      <c r="D51" s="551"/>
+      <c r="E51" s="552"/>
+      <c r="F51" s="552"/>
+      <c r="G51" s="552"/>
+      <c r="H51" s="553"/>
+      <c r="I51" s="554"/>
+      <c r="J51" s="555"/>
+      <c r="K51" s="555"/>
+      <c r="L51" s="555"/>
+      <c r="M51" s="555"/>
+      <c r="N51" s="555"/>
+      <c r="O51" s="555"/>
+      <c r="P51" s="555"/>
+      <c r="Q51" s="555"/>
+      <c r="R51" s="555"/>
+      <c r="S51" s="555"/>
+      <c r="T51" s="555"/>
+      <c r="U51" s="555"/>
+      <c r="V51" s="555"/>
+      <c r="W51" s="555"/>
+      <c r="X51" s="555"/>
+      <c r="Y51" s="555"/>
+      <c r="Z51" s="556"/>
+      <c r="AA51" s="557"/>
+      <c r="AB51" s="558"/>
+      <c r="AC51" s="558"/>
+      <c r="AD51" s="559"/>
+      <c r="AE51" s="551"/>
+      <c r="AF51" s="552"/>
+      <c r="AG51" s="552"/>
+      <c r="AH51" s="552"/>
+      <c r="AI51" s="553"/>
+      <c r="AJ51" s="557"/>
+      <c r="AK51" s="558"/>
+      <c r="AL51" s="558"/>
+      <c r="AM51" s="559"/>
+      <c r="AN51" s="551"/>
+      <c r="AO51" s="552"/>
+      <c r="AP51" s="552"/>
+      <c r="AQ51" s="552"/>
+      <c r="AR51" s="553"/>
+      <c r="AS51" s="557"/>
+      <c r="AT51" s="558"/>
+      <c r="AU51" s="558"/>
+      <c r="AV51" s="559"/>
       <c r="AW51" s="242"/>
     </row>
     <row r="52" spans="1:49">
       <c r="A52" s="105"/>
-      <c r="B52" s="450"/>
-      <c r="C52" s="451"/>
-      <c r="D52" s="452"/>
-      <c r="E52" s="453"/>
-      <c r="F52" s="453"/>
-      <c r="G52" s="453"/>
-      <c r="H52" s="454"/>
-      <c r="I52" s="455"/>
-      <c r="J52" s="456"/>
-      <c r="K52" s="456"/>
-      <c r="L52" s="456"/>
-      <c r="M52" s="456"/>
-      <c r="N52" s="456"/>
-      <c r="O52" s="456"/>
-      <c r="P52" s="456"/>
-      <c r="Q52" s="456"/>
-      <c r="R52" s="456"/>
-      <c r="S52" s="456"/>
-      <c r="T52" s="456"/>
-      <c r="U52" s="456"/>
-      <c r="V52" s="456"/>
-      <c r="W52" s="456"/>
-      <c r="X52" s="456"/>
-      <c r="Y52" s="456"/>
-      <c r="Z52" s="457"/>
-      <c r="AA52" s="458"/>
-      <c r="AB52" s="459"/>
-      <c r="AC52" s="459"/>
-      <c r="AD52" s="460"/>
-      <c r="AE52" s="452"/>
-      <c r="AF52" s="453"/>
-      <c r="AG52" s="453"/>
-      <c r="AH52" s="453"/>
-      <c r="AI52" s="454"/>
-      <c r="AJ52" s="458"/>
-      <c r="AK52" s="459"/>
-      <c r="AL52" s="459"/>
-      <c r="AM52" s="460"/>
-      <c r="AN52" s="452"/>
-      <c r="AO52" s="453"/>
-      <c r="AP52" s="453"/>
-      <c r="AQ52" s="453"/>
-      <c r="AR52" s="454"/>
-      <c r="AS52" s="458"/>
-      <c r="AT52" s="459"/>
-      <c r="AU52" s="459"/>
-      <c r="AV52" s="460"/>
+      <c r="B52" s="538"/>
+      <c r="C52" s="539"/>
+      <c r="D52" s="540"/>
+      <c r="E52" s="541"/>
+      <c r="F52" s="541"/>
+      <c r="G52" s="541"/>
+      <c r="H52" s="542"/>
+      <c r="I52" s="543"/>
+      <c r="J52" s="544"/>
+      <c r="K52" s="544"/>
+      <c r="L52" s="544"/>
+      <c r="M52" s="544"/>
+      <c r="N52" s="544"/>
+      <c r="O52" s="544"/>
+      <c r="P52" s="544"/>
+      <c r="Q52" s="544"/>
+      <c r="R52" s="544"/>
+      <c r="S52" s="544"/>
+      <c r="T52" s="544"/>
+      <c r="U52" s="544"/>
+      <c r="V52" s="544"/>
+      <c r="W52" s="544"/>
+      <c r="X52" s="544"/>
+      <c r="Y52" s="544"/>
+      <c r="Z52" s="545"/>
+      <c r="AA52" s="546"/>
+      <c r="AB52" s="547"/>
+      <c r="AC52" s="547"/>
+      <c r="AD52" s="548"/>
+      <c r="AE52" s="540"/>
+      <c r="AF52" s="541"/>
+      <c r="AG52" s="541"/>
+      <c r="AH52" s="541"/>
+      <c r="AI52" s="542"/>
+      <c r="AJ52" s="546"/>
+      <c r="AK52" s="547"/>
+      <c r="AL52" s="547"/>
+      <c r="AM52" s="548"/>
+      <c r="AN52" s="540"/>
+      <c r="AO52" s="541"/>
+      <c r="AP52" s="541"/>
+      <c r="AQ52" s="541"/>
+      <c r="AR52" s="542"/>
+      <c r="AS52" s="546"/>
+      <c r="AT52" s="547"/>
+      <c r="AU52" s="547"/>
+      <c r="AV52" s="548"/>
       <c r="AW52" s="242"/>
     </row>
     <row r="53" spans="1:49">
       <c r="A53" s="105"/>
-      <c r="B53" s="450"/>
-      <c r="C53" s="451"/>
-      <c r="D53" s="452"/>
-      <c r="E53" s="453"/>
-      <c r="F53" s="453"/>
-      <c r="G53" s="453"/>
-      <c r="H53" s="454"/>
-      <c r="I53" s="455"/>
-      <c r="J53" s="456"/>
-      <c r="K53" s="456"/>
-      <c r="L53" s="456"/>
-      <c r="M53" s="456"/>
-      <c r="N53" s="456"/>
-      <c r="O53" s="456"/>
-      <c r="P53" s="456"/>
-      <c r="Q53" s="456"/>
-      <c r="R53" s="456"/>
-      <c r="S53" s="456"/>
-      <c r="T53" s="456"/>
-      <c r="U53" s="456"/>
-      <c r="V53" s="456"/>
-      <c r="W53" s="456"/>
-      <c r="X53" s="456"/>
-      <c r="Y53" s="456"/>
-      <c r="Z53" s="457"/>
-      <c r="AA53" s="458"/>
-      <c r="AB53" s="459"/>
-      <c r="AC53" s="459"/>
-      <c r="AD53" s="460"/>
-      <c r="AE53" s="452"/>
-      <c r="AF53" s="453"/>
-      <c r="AG53" s="453"/>
-      <c r="AH53" s="453"/>
-      <c r="AI53" s="454"/>
-      <c r="AJ53" s="458"/>
-      <c r="AK53" s="459"/>
-      <c r="AL53" s="459"/>
-      <c r="AM53" s="460"/>
-      <c r="AN53" s="452"/>
-      <c r="AO53" s="453"/>
-      <c r="AP53" s="453"/>
-      <c r="AQ53" s="453"/>
-      <c r="AR53" s="454"/>
-      <c r="AS53" s="458"/>
-      <c r="AT53" s="459"/>
-      <c r="AU53" s="459"/>
-      <c r="AV53" s="460"/>
+      <c r="B53" s="538"/>
+      <c r="C53" s="539"/>
+      <c r="D53" s="540"/>
+      <c r="E53" s="541"/>
+      <c r="F53" s="541"/>
+      <c r="G53" s="541"/>
+      <c r="H53" s="542"/>
+      <c r="I53" s="543"/>
+      <c r="J53" s="544"/>
+      <c r="K53" s="544"/>
+      <c r="L53" s="544"/>
+      <c r="M53" s="544"/>
+      <c r="N53" s="544"/>
+      <c r="O53" s="544"/>
+      <c r="P53" s="544"/>
+      <c r="Q53" s="544"/>
+      <c r="R53" s="544"/>
+      <c r="S53" s="544"/>
+      <c r="T53" s="544"/>
+      <c r="U53" s="544"/>
+      <c r="V53" s="544"/>
+      <c r="W53" s="544"/>
+      <c r="X53" s="544"/>
+      <c r="Y53" s="544"/>
+      <c r="Z53" s="545"/>
+      <c r="AA53" s="546"/>
+      <c r="AB53" s="547"/>
+      <c r="AC53" s="547"/>
+      <c r="AD53" s="548"/>
+      <c r="AE53" s="540"/>
+      <c r="AF53" s="541"/>
+      <c r="AG53" s="541"/>
+      <c r="AH53" s="541"/>
+      <c r="AI53" s="542"/>
+      <c r="AJ53" s="546"/>
+      <c r="AK53" s="547"/>
+      <c r="AL53" s="547"/>
+      <c r="AM53" s="548"/>
+      <c r="AN53" s="540"/>
+      <c r="AO53" s="541"/>
+      <c r="AP53" s="541"/>
+      <c r="AQ53" s="541"/>
+      <c r="AR53" s="542"/>
+      <c r="AS53" s="546"/>
+      <c r="AT53" s="547"/>
+      <c r="AU53" s="547"/>
+      <c r="AV53" s="548"/>
       <c r="AW53" s="242"/>
     </row>
     <row r="54" spans="1:49">
       <c r="A54" s="105"/>
-      <c r="B54" s="450"/>
-      <c r="C54" s="451"/>
-      <c r="D54" s="452"/>
-      <c r="E54" s="453"/>
-      <c r="F54" s="453"/>
-      <c r="G54" s="453"/>
-      <c r="H54" s="454"/>
-      <c r="I54" s="455"/>
-      <c r="J54" s="456"/>
-      <c r="K54" s="456"/>
-      <c r="L54" s="456"/>
-      <c r="M54" s="456"/>
-      <c r="N54" s="456"/>
-      <c r="O54" s="456"/>
-      <c r="P54" s="456"/>
-      <c r="Q54" s="456"/>
-      <c r="R54" s="456"/>
-      <c r="S54" s="456"/>
-      <c r="T54" s="456"/>
-      <c r="U54" s="456"/>
-      <c r="V54" s="456"/>
-      <c r="W54" s="456"/>
-      <c r="X54" s="456"/>
-      <c r="Y54" s="456"/>
-      <c r="Z54" s="457"/>
-      <c r="AA54" s="458"/>
-      <c r="AB54" s="459"/>
-      <c r="AC54" s="459"/>
-      <c r="AD54" s="460"/>
-      <c r="AE54" s="452"/>
-      <c r="AF54" s="453"/>
-      <c r="AG54" s="453"/>
-      <c r="AH54" s="453"/>
-      <c r="AI54" s="454"/>
-      <c r="AJ54" s="458"/>
-      <c r="AK54" s="459"/>
-      <c r="AL54" s="459"/>
-      <c r="AM54" s="460"/>
-      <c r="AN54" s="452"/>
-      <c r="AO54" s="453"/>
-      <c r="AP54" s="453"/>
-      <c r="AQ54" s="453"/>
-      <c r="AR54" s="454"/>
-      <c r="AS54" s="458"/>
-      <c r="AT54" s="459"/>
-      <c r="AU54" s="459"/>
-      <c r="AV54" s="460"/>
+      <c r="B54" s="538"/>
+      <c r="C54" s="539"/>
+      <c r="D54" s="540"/>
+      <c r="E54" s="541"/>
+      <c r="F54" s="541"/>
+      <c r="G54" s="541"/>
+      <c r="H54" s="542"/>
+      <c r="I54" s="543"/>
+      <c r="J54" s="544"/>
+      <c r="K54" s="544"/>
+      <c r="L54" s="544"/>
+      <c r="M54" s="544"/>
+      <c r="N54" s="544"/>
+      <c r="O54" s="544"/>
+      <c r="P54" s="544"/>
+      <c r="Q54" s="544"/>
+      <c r="R54" s="544"/>
+      <c r="S54" s="544"/>
+      <c r="T54" s="544"/>
+      <c r="U54" s="544"/>
+      <c r="V54" s="544"/>
+      <c r="W54" s="544"/>
+      <c r="X54" s="544"/>
+      <c r="Y54" s="544"/>
+      <c r="Z54" s="545"/>
+      <c r="AA54" s="546"/>
+      <c r="AB54" s="547"/>
+      <c r="AC54" s="547"/>
+      <c r="AD54" s="548"/>
+      <c r="AE54" s="540"/>
+      <c r="AF54" s="541"/>
+      <c r="AG54" s="541"/>
+      <c r="AH54" s="541"/>
+      <c r="AI54" s="542"/>
+      <c r="AJ54" s="546"/>
+      <c r="AK54" s="547"/>
+      <c r="AL54" s="547"/>
+      <c r="AM54" s="548"/>
+      <c r="AN54" s="540"/>
+      <c r="AO54" s="541"/>
+      <c r="AP54" s="541"/>
+      <c r="AQ54" s="541"/>
+      <c r="AR54" s="542"/>
+      <c r="AS54" s="546"/>
+      <c r="AT54" s="547"/>
+      <c r="AU54" s="547"/>
+      <c r="AV54" s="548"/>
       <c r="AW54" s="242"/>
     </row>
     <row r="55" spans="1:49">
       <c r="A55" s="105"/>
-      <c r="B55" s="450"/>
-      <c r="C55" s="451"/>
-      <c r="D55" s="452"/>
-      <c r="E55" s="453"/>
-      <c r="F55" s="453"/>
-      <c r="G55" s="453"/>
-      <c r="H55" s="454"/>
-      <c r="I55" s="455"/>
-      <c r="J55" s="456"/>
-      <c r="K55" s="456"/>
-      <c r="L55" s="456"/>
-      <c r="M55" s="456"/>
-      <c r="N55" s="456"/>
-      <c r="O55" s="456"/>
-      <c r="P55" s="456"/>
-      <c r="Q55" s="456"/>
-      <c r="R55" s="456"/>
-      <c r="S55" s="456"/>
-      <c r="T55" s="456"/>
-      <c r="U55" s="456"/>
-      <c r="V55" s="456"/>
-      <c r="W55" s="456"/>
-      <c r="X55" s="456"/>
-      <c r="Y55" s="456"/>
-      <c r="Z55" s="457"/>
-      <c r="AA55" s="458"/>
-      <c r="AB55" s="459"/>
-      <c r="AC55" s="459"/>
-      <c r="AD55" s="460"/>
-      <c r="AE55" s="452"/>
-      <c r="AF55" s="453"/>
-      <c r="AG55" s="453"/>
-      <c r="AH55" s="453"/>
-      <c r="AI55" s="454"/>
-      <c r="AJ55" s="458"/>
-      <c r="AK55" s="459"/>
-      <c r="AL55" s="459"/>
-      <c r="AM55" s="460"/>
-      <c r="AN55" s="452"/>
-      <c r="AO55" s="453"/>
-      <c r="AP55" s="453"/>
-      <c r="AQ55" s="453"/>
-      <c r="AR55" s="454"/>
-      <c r="AS55" s="458"/>
-      <c r="AT55" s="459"/>
-      <c r="AU55" s="459"/>
-      <c r="AV55" s="460"/>
+      <c r="B55" s="538"/>
+      <c r="C55" s="539"/>
+      <c r="D55" s="540"/>
+      <c r="E55" s="541"/>
+      <c r="F55" s="541"/>
+      <c r="G55" s="541"/>
+      <c r="H55" s="542"/>
+      <c r="I55" s="543"/>
+      <c r="J55" s="544"/>
+      <c r="K55" s="544"/>
+      <c r="L55" s="544"/>
+      <c r="M55" s="544"/>
+      <c r="N55" s="544"/>
+      <c r="O55" s="544"/>
+      <c r="P55" s="544"/>
+      <c r="Q55" s="544"/>
+      <c r="R55" s="544"/>
+      <c r="S55" s="544"/>
+      <c r="T55" s="544"/>
+      <c r="U55" s="544"/>
+      <c r="V55" s="544"/>
+      <c r="W55" s="544"/>
+      <c r="X55" s="544"/>
+      <c r="Y55" s="544"/>
+      <c r="Z55" s="545"/>
+      <c r="AA55" s="546"/>
+      <c r="AB55" s="547"/>
+      <c r="AC55" s="547"/>
+      <c r="AD55" s="548"/>
+      <c r="AE55" s="540"/>
+      <c r="AF55" s="541"/>
+      <c r="AG55" s="541"/>
+      <c r="AH55" s="541"/>
+      <c r="AI55" s="542"/>
+      <c r="AJ55" s="546"/>
+      <c r="AK55" s="547"/>
+      <c r="AL55" s="547"/>
+      <c r="AM55" s="548"/>
+      <c r="AN55" s="540"/>
+      <c r="AO55" s="541"/>
+      <c r="AP55" s="541"/>
+      <c r="AQ55" s="541"/>
+      <c r="AR55" s="542"/>
+      <c r="AS55" s="546"/>
+      <c r="AT55" s="547"/>
+      <c r="AU55" s="547"/>
+      <c r="AV55" s="548"/>
       <c r="AW55" s="242"/>
     </row>
     <row r="56" spans="1:49">
       <c r="A56" s="105"/>
-      <c r="B56" s="450"/>
-      <c r="C56" s="451"/>
-      <c r="D56" s="452"/>
-      <c r="E56" s="453"/>
-      <c r="F56" s="453"/>
-      <c r="G56" s="453"/>
-      <c r="H56" s="454"/>
-      <c r="I56" s="455"/>
-      <c r="J56" s="456"/>
-      <c r="K56" s="456"/>
-      <c r="L56" s="456"/>
-      <c r="M56" s="456"/>
-      <c r="N56" s="456"/>
-      <c r="O56" s="456"/>
-      <c r="P56" s="456"/>
-      <c r="Q56" s="456"/>
-      <c r="R56" s="456"/>
-      <c r="S56" s="456"/>
-      <c r="T56" s="456"/>
-      <c r="U56" s="456"/>
-      <c r="V56" s="456"/>
-      <c r="W56" s="456"/>
-      <c r="X56" s="456"/>
-      <c r="Y56" s="456"/>
-      <c r="Z56" s="457"/>
-      <c r="AA56" s="458"/>
-      <c r="AB56" s="459"/>
-      <c r="AC56" s="459"/>
-      <c r="AD56" s="460"/>
-      <c r="AE56" s="452"/>
-      <c r="AF56" s="453"/>
-      <c r="AG56" s="453"/>
-      <c r="AH56" s="453"/>
-      <c r="AI56" s="454"/>
-      <c r="AJ56" s="458"/>
-      <c r="AK56" s="459"/>
-      <c r="AL56" s="459"/>
-      <c r="AM56" s="460"/>
-      <c r="AN56" s="452"/>
-      <c r="AO56" s="453"/>
-      <c r="AP56" s="453"/>
-      <c r="AQ56" s="453"/>
-      <c r="AR56" s="454"/>
-      <c r="AS56" s="458"/>
-      <c r="AT56" s="459"/>
-      <c r="AU56" s="459"/>
-      <c r="AV56" s="460"/>
+      <c r="B56" s="538"/>
+      <c r="C56" s="539"/>
+      <c r="D56" s="540"/>
+      <c r="E56" s="541"/>
+      <c r="F56" s="541"/>
+      <c r="G56" s="541"/>
+      <c r="H56" s="542"/>
+      <c r="I56" s="543"/>
+      <c r="J56" s="544"/>
+      <c r="K56" s="544"/>
+      <c r="L56" s="544"/>
+      <c r="M56" s="544"/>
+      <c r="N56" s="544"/>
+      <c r="O56" s="544"/>
+      <c r="P56" s="544"/>
+      <c r="Q56" s="544"/>
+      <c r="R56" s="544"/>
+      <c r="S56" s="544"/>
+      <c r="T56" s="544"/>
+      <c r="U56" s="544"/>
+      <c r="V56" s="544"/>
+      <c r="W56" s="544"/>
+      <c r="X56" s="544"/>
+      <c r="Y56" s="544"/>
+      <c r="Z56" s="545"/>
+      <c r="AA56" s="546"/>
+      <c r="AB56" s="547"/>
+      <c r="AC56" s="547"/>
+      <c r="AD56" s="548"/>
+      <c r="AE56" s="540"/>
+      <c r="AF56" s="541"/>
+      <c r="AG56" s="541"/>
+      <c r="AH56" s="541"/>
+      <c r="AI56" s="542"/>
+      <c r="AJ56" s="546"/>
+      <c r="AK56" s="547"/>
+      <c r="AL56" s="547"/>
+      <c r="AM56" s="548"/>
+      <c r="AN56" s="540"/>
+      <c r="AO56" s="541"/>
+      <c r="AP56" s="541"/>
+      <c r="AQ56" s="541"/>
+      <c r="AR56" s="542"/>
+      <c r="AS56" s="546"/>
+      <c r="AT56" s="547"/>
+      <c r="AU56" s="547"/>
+      <c r="AV56" s="548"/>
       <c r="AW56" s="242"/>
     </row>
     <row r="57" spans="1:49">
       <c r="A57" s="105"/>
-      <c r="B57" s="450"/>
-      <c r="C57" s="451"/>
-      <c r="D57" s="452"/>
-      <c r="E57" s="453"/>
-      <c r="F57" s="453"/>
-      <c r="G57" s="453"/>
-      <c r="H57" s="454"/>
-      <c r="I57" s="455"/>
-      <c r="J57" s="456"/>
-      <c r="K57" s="456"/>
-      <c r="L57" s="456"/>
-      <c r="M57" s="456"/>
-      <c r="N57" s="456"/>
-      <c r="O57" s="456"/>
-      <c r="P57" s="456"/>
-      <c r="Q57" s="456"/>
-      <c r="R57" s="456"/>
-      <c r="S57" s="456"/>
-      <c r="T57" s="456"/>
-      <c r="U57" s="456"/>
-      <c r="V57" s="456"/>
-      <c r="W57" s="456"/>
-      <c r="X57" s="456"/>
-      <c r="Y57" s="456"/>
-      <c r="Z57" s="457"/>
-      <c r="AA57" s="458"/>
-      <c r="AB57" s="459"/>
-      <c r="AC57" s="459"/>
-      <c r="AD57" s="460"/>
-      <c r="AE57" s="452"/>
-      <c r="AF57" s="453"/>
-      <c r="AG57" s="453"/>
-      <c r="AH57" s="453"/>
-      <c r="AI57" s="454"/>
-      <c r="AJ57" s="458"/>
-      <c r="AK57" s="459"/>
-      <c r="AL57" s="459"/>
-      <c r="AM57" s="460"/>
-      <c r="AN57" s="452"/>
-      <c r="AO57" s="453"/>
-      <c r="AP57" s="453"/>
-      <c r="AQ57" s="453"/>
-      <c r="AR57" s="454"/>
-      <c r="AS57" s="458"/>
-      <c r="AT57" s="459"/>
-      <c r="AU57" s="459"/>
-      <c r="AV57" s="460"/>
+      <c r="B57" s="538"/>
+      <c r="C57" s="539"/>
+      <c r="D57" s="540"/>
+      <c r="E57" s="541"/>
+      <c r="F57" s="541"/>
+      <c r="G57" s="541"/>
+      <c r="H57" s="542"/>
+      <c r="I57" s="543"/>
+      <c r="J57" s="544"/>
+      <c r="K57" s="544"/>
+      <c r="L57" s="544"/>
+      <c r="M57" s="544"/>
+      <c r="N57" s="544"/>
+      <c r="O57" s="544"/>
+      <c r="P57" s="544"/>
+      <c r="Q57" s="544"/>
+      <c r="R57" s="544"/>
+      <c r="S57" s="544"/>
+      <c r="T57" s="544"/>
+      <c r="U57" s="544"/>
+      <c r="V57" s="544"/>
+      <c r="W57" s="544"/>
+      <c r="X57" s="544"/>
+      <c r="Y57" s="544"/>
+      <c r="Z57" s="545"/>
+      <c r="AA57" s="546"/>
+      <c r="AB57" s="547"/>
+      <c r="AC57" s="547"/>
+      <c r="AD57" s="548"/>
+      <c r="AE57" s="540"/>
+      <c r="AF57" s="541"/>
+      <c r="AG57" s="541"/>
+      <c r="AH57" s="541"/>
+      <c r="AI57" s="542"/>
+      <c r="AJ57" s="546"/>
+      <c r="AK57" s="547"/>
+      <c r="AL57" s="547"/>
+      <c r="AM57" s="548"/>
+      <c r="AN57" s="540"/>
+      <c r="AO57" s="541"/>
+      <c r="AP57" s="541"/>
+      <c r="AQ57" s="541"/>
+      <c r="AR57" s="542"/>
+      <c r="AS57" s="546"/>
+      <c r="AT57" s="547"/>
+      <c r="AU57" s="547"/>
+      <c r="AV57" s="548"/>
       <c r="AW57" s="242"/>
     </row>
     <row r="58" spans="1:49">
       <c r="A58" s="105"/>
-      <c r="B58" s="450"/>
-      <c r="C58" s="451"/>
-      <c r="D58" s="452"/>
-      <c r="E58" s="453"/>
-      <c r="F58" s="453"/>
-      <c r="G58" s="453"/>
-      <c r="H58" s="454"/>
-      <c r="I58" s="455"/>
-      <c r="J58" s="456"/>
-      <c r="K58" s="456"/>
-      <c r="L58" s="456"/>
-      <c r="M58" s="456"/>
-      <c r="N58" s="456"/>
-      <c r="O58" s="456"/>
-      <c r="P58" s="456"/>
-      <c r="Q58" s="456"/>
-      <c r="R58" s="456"/>
-      <c r="S58" s="456"/>
-      <c r="T58" s="456"/>
-      <c r="U58" s="456"/>
-      <c r="V58" s="456"/>
-      <c r="W58" s="456"/>
-      <c r="X58" s="456"/>
-      <c r="Y58" s="456"/>
-      <c r="Z58" s="457"/>
-      <c r="AA58" s="458"/>
-      <c r="AB58" s="459"/>
-      <c r="AC58" s="459"/>
-      <c r="AD58" s="460"/>
-      <c r="AE58" s="452"/>
-      <c r="AF58" s="453"/>
-      <c r="AG58" s="453"/>
-      <c r="AH58" s="453"/>
-      <c r="AI58" s="454"/>
-      <c r="AJ58" s="458"/>
-      <c r="AK58" s="459"/>
-      <c r="AL58" s="459"/>
-      <c r="AM58" s="460"/>
-      <c r="AN58" s="452"/>
-      <c r="AO58" s="453"/>
-      <c r="AP58" s="453"/>
-      <c r="AQ58" s="453"/>
-      <c r="AR58" s="454"/>
-      <c r="AS58" s="458"/>
-      <c r="AT58" s="459"/>
-      <c r="AU58" s="459"/>
-      <c r="AV58" s="460"/>
+      <c r="B58" s="538"/>
+      <c r="C58" s="539"/>
+      <c r="D58" s="540"/>
+      <c r="E58" s="541"/>
+      <c r="F58" s="541"/>
+      <c r="G58" s="541"/>
+      <c r="H58" s="542"/>
+      <c r="I58" s="543"/>
+      <c r="J58" s="544"/>
+      <c r="K58" s="544"/>
+      <c r="L58" s="544"/>
+      <c r="M58" s="544"/>
+      <c r="N58" s="544"/>
+      <c r="O58" s="544"/>
+      <c r="P58" s="544"/>
+      <c r="Q58" s="544"/>
+      <c r="R58" s="544"/>
+      <c r="S58" s="544"/>
+      <c r="T58" s="544"/>
+      <c r="U58" s="544"/>
+      <c r="V58" s="544"/>
+      <c r="W58" s="544"/>
+      <c r="X58" s="544"/>
+      <c r="Y58" s="544"/>
+      <c r="Z58" s="545"/>
+      <c r="AA58" s="546"/>
+      <c r="AB58" s="547"/>
+      <c r="AC58" s="547"/>
+      <c r="AD58" s="548"/>
+      <c r="AE58" s="540"/>
+      <c r="AF58" s="541"/>
+      <c r="AG58" s="541"/>
+      <c r="AH58" s="541"/>
+      <c r="AI58" s="542"/>
+      <c r="AJ58" s="546"/>
+      <c r="AK58" s="547"/>
+      <c r="AL58" s="547"/>
+      <c r="AM58" s="548"/>
+      <c r="AN58" s="540"/>
+      <c r="AO58" s="541"/>
+      <c r="AP58" s="541"/>
+      <c r="AQ58" s="541"/>
+      <c r="AR58" s="542"/>
+      <c r="AS58" s="546"/>
+      <c r="AT58" s="547"/>
+      <c r="AU58" s="547"/>
+      <c r="AV58" s="548"/>
       <c r="AW58" s="242"/>
     </row>
     <row r="59" spans="1:49">
       <c r="A59" s="105"/>
-      <c r="B59" s="450"/>
-      <c r="C59" s="451"/>
-      <c r="D59" s="452"/>
-      <c r="E59" s="453"/>
-      <c r="F59" s="453"/>
-      <c r="G59" s="453"/>
-      <c r="H59" s="454"/>
-      <c r="I59" s="455"/>
-      <c r="J59" s="456"/>
-      <c r="K59" s="456"/>
-      <c r="L59" s="456"/>
-      <c r="M59" s="456"/>
-      <c r="N59" s="456"/>
-      <c r="O59" s="456"/>
-      <c r="P59" s="456"/>
-      <c r="Q59" s="456"/>
-      <c r="R59" s="456"/>
-      <c r="S59" s="456"/>
-      <c r="T59" s="456"/>
-      <c r="U59" s="456"/>
-      <c r="V59" s="456"/>
-      <c r="W59" s="456"/>
-      <c r="X59" s="456"/>
-      <c r="Y59" s="456"/>
-      <c r="Z59" s="457"/>
-      <c r="AA59" s="458"/>
-      <c r="AB59" s="459"/>
-      <c r="AC59" s="459"/>
-      <c r="AD59" s="460"/>
-      <c r="AE59" s="452"/>
-      <c r="AF59" s="453"/>
-      <c r="AG59" s="453"/>
-      <c r="AH59" s="453"/>
-      <c r="AI59" s="454"/>
-      <c r="AJ59" s="458"/>
-      <c r="AK59" s="459"/>
-      <c r="AL59" s="459"/>
-      <c r="AM59" s="460"/>
-      <c r="AN59" s="452"/>
-      <c r="AO59" s="453"/>
-      <c r="AP59" s="453"/>
-      <c r="AQ59" s="453"/>
-      <c r="AR59" s="454"/>
-      <c r="AS59" s="458"/>
-      <c r="AT59" s="459"/>
-      <c r="AU59" s="459"/>
-      <c r="AV59" s="460"/>
+      <c r="B59" s="538"/>
+      <c r="C59" s="539"/>
+      <c r="D59" s="540"/>
+      <c r="E59" s="541"/>
+      <c r="F59" s="541"/>
+      <c r="G59" s="541"/>
+      <c r="H59" s="542"/>
+      <c r="I59" s="543"/>
+      <c r="J59" s="544"/>
+      <c r="K59" s="544"/>
+      <c r="L59" s="544"/>
+      <c r="M59" s="544"/>
+      <c r="N59" s="544"/>
+      <c r="O59" s="544"/>
+      <c r="P59" s="544"/>
+      <c r="Q59" s="544"/>
+      <c r="R59" s="544"/>
+      <c r="S59" s="544"/>
+      <c r="T59" s="544"/>
+      <c r="U59" s="544"/>
+      <c r="V59" s="544"/>
+      <c r="W59" s="544"/>
+      <c r="X59" s="544"/>
+      <c r="Y59" s="544"/>
+      <c r="Z59" s="545"/>
+      <c r="AA59" s="546"/>
+      <c r="AB59" s="547"/>
+      <c r="AC59" s="547"/>
+      <c r="AD59" s="548"/>
+      <c r="AE59" s="540"/>
+      <c r="AF59" s="541"/>
+      <c r="AG59" s="541"/>
+      <c r="AH59" s="541"/>
+      <c r="AI59" s="542"/>
+      <c r="AJ59" s="546"/>
+      <c r="AK59" s="547"/>
+      <c r="AL59" s="547"/>
+      <c r="AM59" s="548"/>
+      <c r="AN59" s="540"/>
+      <c r="AO59" s="541"/>
+      <c r="AP59" s="541"/>
+      <c r="AQ59" s="541"/>
+      <c r="AR59" s="542"/>
+      <c r="AS59" s="546"/>
+      <c r="AT59" s="547"/>
+      <c r="AU59" s="547"/>
+      <c r="AV59" s="548"/>
       <c r="AW59" s="242"/>
     </row>
     <row r="60" spans="1:49">
       <c r="A60" s="105"/>
-      <c r="B60" s="450"/>
-      <c r="C60" s="451"/>
-      <c r="D60" s="452"/>
-      <c r="E60" s="453"/>
-      <c r="F60" s="453"/>
-      <c r="G60" s="453"/>
-      <c r="H60" s="454"/>
-      <c r="I60" s="455"/>
-      <c r="J60" s="456"/>
-      <c r="K60" s="456"/>
-      <c r="L60" s="456"/>
-      <c r="M60" s="456"/>
-      <c r="N60" s="456"/>
-      <c r="O60" s="456"/>
-      <c r="P60" s="456"/>
-      <c r="Q60" s="456"/>
-      <c r="R60" s="456"/>
-      <c r="S60" s="456"/>
-      <c r="T60" s="456"/>
-      <c r="U60" s="456"/>
-      <c r="V60" s="456"/>
-      <c r="W60" s="456"/>
-      <c r="X60" s="456"/>
-      <c r="Y60" s="456"/>
-      <c r="Z60" s="457"/>
-      <c r="AA60" s="458"/>
-      <c r="AB60" s="459"/>
-      <c r="AC60" s="459"/>
-      <c r="AD60" s="460"/>
-      <c r="AE60" s="452"/>
-      <c r="AF60" s="453"/>
-      <c r="AG60" s="453"/>
-      <c r="AH60" s="453"/>
-      <c r="AI60" s="454"/>
-      <c r="AJ60" s="458"/>
-      <c r="AK60" s="459"/>
-      <c r="AL60" s="459"/>
-      <c r="AM60" s="460"/>
-      <c r="AN60" s="452"/>
-      <c r="AO60" s="453"/>
-      <c r="AP60" s="453"/>
-      <c r="AQ60" s="453"/>
-      <c r="AR60" s="454"/>
-      <c r="AS60" s="458"/>
-      <c r="AT60" s="459"/>
-      <c r="AU60" s="459"/>
-      <c r="AV60" s="460"/>
+      <c r="B60" s="538"/>
+      <c r="C60" s="539"/>
+      <c r="D60" s="540"/>
+      <c r="E60" s="541"/>
+      <c r="F60" s="541"/>
+      <c r="G60" s="541"/>
+      <c r="H60" s="542"/>
+      <c r="I60" s="543"/>
+      <c r="J60" s="544"/>
+      <c r="K60" s="544"/>
+      <c r="L60" s="544"/>
+      <c r="M60" s="544"/>
+      <c r="N60" s="544"/>
+      <c r="O60" s="544"/>
+      <c r="P60" s="544"/>
+      <c r="Q60" s="544"/>
+      <c r="R60" s="544"/>
+      <c r="S60" s="544"/>
+      <c r="T60" s="544"/>
+      <c r="U60" s="544"/>
+      <c r="V60" s="544"/>
+      <c r="W60" s="544"/>
+      <c r="X60" s="544"/>
+      <c r="Y60" s="544"/>
+      <c r="Z60" s="545"/>
+      <c r="AA60" s="546"/>
+      <c r="AB60" s="547"/>
+      <c r="AC60" s="547"/>
+      <c r="AD60" s="548"/>
+      <c r="AE60" s="540"/>
+      <c r="AF60" s="541"/>
+      <c r="AG60" s="541"/>
+      <c r="AH60" s="541"/>
+      <c r="AI60" s="542"/>
+      <c r="AJ60" s="546"/>
+      <c r="AK60" s="547"/>
+      <c r="AL60" s="547"/>
+      <c r="AM60" s="548"/>
+      <c r="AN60" s="540"/>
+      <c r="AO60" s="541"/>
+      <c r="AP60" s="541"/>
+      <c r="AQ60" s="541"/>
+      <c r="AR60" s="542"/>
+      <c r="AS60" s="546"/>
+      <c r="AT60" s="547"/>
+      <c r="AU60" s="547"/>
+      <c r="AV60" s="548"/>
       <c r="AW60" s="242"/>
     </row>
     <row r="61" spans="1:49">
       <c r="A61" s="105"/>
-      <c r="B61" s="450"/>
-      <c r="C61" s="451"/>
-      <c r="D61" s="452"/>
-      <c r="E61" s="453"/>
-      <c r="F61" s="453"/>
-      <c r="G61" s="453"/>
-      <c r="H61" s="454"/>
-      <c r="I61" s="455"/>
-      <c r="J61" s="456"/>
-      <c r="K61" s="456"/>
-      <c r="L61" s="456"/>
-      <c r="M61" s="456"/>
-      <c r="N61" s="456"/>
-      <c r="O61" s="456"/>
-      <c r="P61" s="456"/>
-      <c r="Q61" s="456"/>
-      <c r="R61" s="456"/>
-      <c r="S61" s="456"/>
-      <c r="T61" s="456"/>
-      <c r="U61" s="456"/>
-      <c r="V61" s="456"/>
-      <c r="W61" s="456"/>
-      <c r="X61" s="456"/>
-      <c r="Y61" s="456"/>
-      <c r="Z61" s="457"/>
-      <c r="AA61" s="458"/>
-      <c r="AB61" s="459"/>
-      <c r="AC61" s="459"/>
-      <c r="AD61" s="460"/>
-      <c r="AE61" s="452"/>
-      <c r="AF61" s="453"/>
-      <c r="AG61" s="453"/>
-      <c r="AH61" s="453"/>
-      <c r="AI61" s="454"/>
-      <c r="AJ61" s="458"/>
-      <c r="AK61" s="459"/>
-      <c r="AL61" s="459"/>
-      <c r="AM61" s="460"/>
-      <c r="AN61" s="452"/>
-      <c r="AO61" s="453"/>
-      <c r="AP61" s="453"/>
-      <c r="AQ61" s="453"/>
-      <c r="AR61" s="454"/>
-      <c r="AS61" s="458"/>
-      <c r="AT61" s="459"/>
-      <c r="AU61" s="459"/>
-      <c r="AV61" s="460"/>
+      <c r="B61" s="538"/>
+      <c r="C61" s="539"/>
+      <c r="D61" s="540"/>
+      <c r="E61" s="541"/>
+      <c r="F61" s="541"/>
+      <c r="G61" s="541"/>
+      <c r="H61" s="542"/>
+      <c r="I61" s="543"/>
+      <c r="J61" s="544"/>
+      <c r="K61" s="544"/>
+      <c r="L61" s="544"/>
+      <c r="M61" s="544"/>
+      <c r="N61" s="544"/>
+      <c r="O61" s="544"/>
+      <c r="P61" s="544"/>
+      <c r="Q61" s="544"/>
+      <c r="R61" s="544"/>
+      <c r="S61" s="544"/>
+      <c r="T61" s="544"/>
+      <c r="U61" s="544"/>
+      <c r="V61" s="544"/>
+      <c r="W61" s="544"/>
+      <c r="X61" s="544"/>
+      <c r="Y61" s="544"/>
+      <c r="Z61" s="545"/>
+      <c r="AA61" s="546"/>
+      <c r="AB61" s="547"/>
+      <c r="AC61" s="547"/>
+      <c r="AD61" s="548"/>
+      <c r="AE61" s="540"/>
+      <c r="AF61" s="541"/>
+      <c r="AG61" s="541"/>
+      <c r="AH61" s="541"/>
+      <c r="AI61" s="542"/>
+      <c r="AJ61" s="546"/>
+      <c r="AK61" s="547"/>
+      <c r="AL61" s="547"/>
+      <c r="AM61" s="548"/>
+      <c r="AN61" s="540"/>
+      <c r="AO61" s="541"/>
+      <c r="AP61" s="541"/>
+      <c r="AQ61" s="541"/>
+      <c r="AR61" s="542"/>
+      <c r="AS61" s="546"/>
+      <c r="AT61" s="547"/>
+      <c r="AU61" s="547"/>
+      <c r="AV61" s="548"/>
       <c r="AW61" s="242"/>
     </row>
     <row r="62" spans="1:49">
       <c r="A62" s="105"/>
-      <c r="B62" s="450"/>
-      <c r="C62" s="451"/>
-      <c r="D62" s="452"/>
-      <c r="E62" s="453"/>
-      <c r="F62" s="453"/>
-      <c r="G62" s="453"/>
-      <c r="H62" s="454"/>
-      <c r="I62" s="455"/>
-      <c r="J62" s="456"/>
-      <c r="K62" s="456"/>
-      <c r="L62" s="456"/>
-      <c r="M62" s="456"/>
-      <c r="N62" s="456"/>
-      <c r="O62" s="456"/>
-      <c r="P62" s="456"/>
-      <c r="Q62" s="456"/>
-      <c r="R62" s="456"/>
-      <c r="S62" s="456"/>
-      <c r="T62" s="456"/>
-      <c r="U62" s="456"/>
-      <c r="V62" s="456"/>
-      <c r="W62" s="456"/>
-      <c r="X62" s="456"/>
-      <c r="Y62" s="456"/>
-      <c r="Z62" s="457"/>
-      <c r="AA62" s="458"/>
-      <c r="AB62" s="459"/>
-      <c r="AC62" s="459"/>
-      <c r="AD62" s="460"/>
-      <c r="AE62" s="452"/>
-      <c r="AF62" s="453"/>
-      <c r="AG62" s="453"/>
-      <c r="AH62" s="453"/>
-      <c r="AI62" s="454"/>
-      <c r="AJ62" s="458"/>
-      <c r="AK62" s="459"/>
-      <c r="AL62" s="459"/>
-      <c r="AM62" s="460"/>
-      <c r="AN62" s="452"/>
-      <c r="AO62" s="453"/>
-      <c r="AP62" s="453"/>
-      <c r="AQ62" s="453"/>
-      <c r="AR62" s="454"/>
-      <c r="AS62" s="458"/>
-      <c r="AT62" s="459"/>
-      <c r="AU62" s="459"/>
-      <c r="AV62" s="460"/>
+      <c r="B62" s="538"/>
+      <c r="C62" s="539"/>
+      <c r="D62" s="540"/>
+      <c r="E62" s="541"/>
+      <c r="F62" s="541"/>
+      <c r="G62" s="541"/>
+      <c r="H62" s="542"/>
+      <c r="I62" s="543"/>
+      <c r="J62" s="544"/>
+      <c r="K62" s="544"/>
+      <c r="L62" s="544"/>
+      <c r="M62" s="544"/>
+      <c r="N62" s="544"/>
+      <c r="O62" s="544"/>
+      <c r="P62" s="544"/>
+      <c r="Q62" s="544"/>
+      <c r="R62" s="544"/>
+      <c r="S62" s="544"/>
+      <c r="T62" s="544"/>
+      <c r="U62" s="544"/>
+      <c r="V62" s="544"/>
+      <c r="W62" s="544"/>
+      <c r="X62" s="544"/>
+      <c r="Y62" s="544"/>
+      <c r="Z62" s="545"/>
+      <c r="AA62" s="546"/>
+      <c r="AB62" s="547"/>
+      <c r="AC62" s="547"/>
+      <c r="AD62" s="548"/>
+      <c r="AE62" s="540"/>
+      <c r="AF62" s="541"/>
+      <c r="AG62" s="541"/>
+      <c r="AH62" s="541"/>
+      <c r="AI62" s="542"/>
+      <c r="AJ62" s="546"/>
+      <c r="AK62" s="547"/>
+      <c r="AL62" s="547"/>
+      <c r="AM62" s="548"/>
+      <c r="AN62" s="540"/>
+      <c r="AO62" s="541"/>
+      <c r="AP62" s="541"/>
+      <c r="AQ62" s="541"/>
+      <c r="AR62" s="542"/>
+      <c r="AS62" s="546"/>
+      <c r="AT62" s="547"/>
+      <c r="AU62" s="547"/>
+      <c r="AV62" s="548"/>
       <c r="AW62" s="242"/>
     </row>
     <row r="63" spans="1:49">
       <c r="A63" s="105"/>
-      <c r="B63" s="450"/>
-      <c r="C63" s="451"/>
-      <c r="D63" s="452"/>
-      <c r="E63" s="453"/>
-      <c r="F63" s="453"/>
-      <c r="G63" s="453"/>
-      <c r="H63" s="454"/>
-      <c r="I63" s="455"/>
-      <c r="J63" s="456"/>
-      <c r="K63" s="456"/>
-      <c r="L63" s="456"/>
-      <c r="M63" s="456"/>
-      <c r="N63" s="456"/>
-      <c r="O63" s="456"/>
-      <c r="P63" s="456"/>
-      <c r="Q63" s="456"/>
-      <c r="R63" s="456"/>
-      <c r="S63" s="456"/>
-      <c r="T63" s="456"/>
-      <c r="U63" s="456"/>
-      <c r="V63" s="456"/>
-      <c r="W63" s="456"/>
-      <c r="X63" s="456"/>
-      <c r="Y63" s="456"/>
-      <c r="Z63" s="457"/>
-      <c r="AA63" s="458"/>
-      <c r="AB63" s="459"/>
-      <c r="AC63" s="459"/>
-      <c r="AD63" s="460"/>
-      <c r="AE63" s="452"/>
-      <c r="AF63" s="453"/>
-      <c r="AG63" s="453"/>
-      <c r="AH63" s="453"/>
-      <c r="AI63" s="454"/>
-      <c r="AJ63" s="458"/>
-      <c r="AK63" s="459"/>
-      <c r="AL63" s="459"/>
-      <c r="AM63" s="460"/>
-      <c r="AN63" s="452"/>
-      <c r="AO63" s="453"/>
-      <c r="AP63" s="453"/>
-      <c r="AQ63" s="453"/>
-      <c r="AR63" s="454"/>
-      <c r="AS63" s="458"/>
-      <c r="AT63" s="459"/>
-      <c r="AU63" s="459"/>
-      <c r="AV63" s="460"/>
+      <c r="B63" s="538"/>
+      <c r="C63" s="539"/>
+      <c r="D63" s="540"/>
+      <c r="E63" s="541"/>
+      <c r="F63" s="541"/>
+      <c r="G63" s="541"/>
+      <c r="H63" s="542"/>
+      <c r="I63" s="543"/>
+      <c r="J63" s="544"/>
+      <c r="K63" s="544"/>
+      <c r="L63" s="544"/>
+      <c r="M63" s="544"/>
+      <c r="N63" s="544"/>
+      <c r="O63" s="544"/>
+      <c r="P63" s="544"/>
+      <c r="Q63" s="544"/>
+      <c r="R63" s="544"/>
+      <c r="S63" s="544"/>
+      <c r="T63" s="544"/>
+      <c r="U63" s="544"/>
+      <c r="V63" s="544"/>
+      <c r="W63" s="544"/>
+      <c r="X63" s="544"/>
+      <c r="Y63" s="544"/>
+      <c r="Z63" s="545"/>
+      <c r="AA63" s="546"/>
+      <c r="AB63" s="547"/>
+      <c r="AC63" s="547"/>
+      <c r="AD63" s="548"/>
+      <c r="AE63" s="540"/>
+      <c r="AF63" s="541"/>
+      <c r="AG63" s="541"/>
+      <c r="AH63" s="541"/>
+      <c r="AI63" s="542"/>
+      <c r="AJ63" s="546"/>
+      <c r="AK63" s="547"/>
+      <c r="AL63" s="547"/>
+      <c r="AM63" s="548"/>
+      <c r="AN63" s="540"/>
+      <c r="AO63" s="541"/>
+      <c r="AP63" s="541"/>
+      <c r="AQ63" s="541"/>
+      <c r="AR63" s="542"/>
+      <c r="AS63" s="546"/>
+      <c r="AT63" s="547"/>
+      <c r="AU63" s="547"/>
+      <c r="AV63" s="548"/>
       <c r="AW63" s="242"/>
     </row>
     <row r="64" spans="1:49">
       <c r="A64" s="105"/>
-      <c r="B64" s="450"/>
-      <c r="C64" s="451"/>
-      <c r="D64" s="452"/>
-      <c r="E64" s="453"/>
-      <c r="F64" s="453"/>
-      <c r="G64" s="453"/>
-      <c r="H64" s="454"/>
-      <c r="I64" s="455"/>
-      <c r="J64" s="456"/>
-      <c r="K64" s="456"/>
-      <c r="L64" s="456"/>
-      <c r="M64" s="456"/>
-      <c r="N64" s="456"/>
-      <c r="O64" s="456"/>
-      <c r="P64" s="456"/>
-      <c r="Q64" s="456"/>
-      <c r="R64" s="456"/>
-      <c r="S64" s="456"/>
-      <c r="T64" s="456"/>
-      <c r="U64" s="456"/>
-      <c r="V64" s="456"/>
-      <c r="W64" s="456"/>
-      <c r="X64" s="456"/>
-      <c r="Y64" s="456"/>
-      <c r="Z64" s="457"/>
-      <c r="AA64" s="458"/>
-      <c r="AB64" s="459"/>
-      <c r="AC64" s="459"/>
-      <c r="AD64" s="460"/>
-      <c r="AE64" s="452"/>
-      <c r="AF64" s="453"/>
-      <c r="AG64" s="453"/>
-      <c r="AH64" s="453"/>
-      <c r="AI64" s="454"/>
-      <c r="AJ64" s="458"/>
-      <c r="AK64" s="459"/>
-      <c r="AL64" s="459"/>
-      <c r="AM64" s="460"/>
-      <c r="AN64" s="452"/>
-      <c r="AO64" s="453"/>
-      <c r="AP64" s="453"/>
-      <c r="AQ64" s="453"/>
-      <c r="AR64" s="454"/>
-      <c r="AS64" s="458"/>
-      <c r="AT64" s="459"/>
-      <c r="AU64" s="459"/>
-      <c r="AV64" s="460"/>
+      <c r="B64" s="538"/>
+      <c r="C64" s="539"/>
+      <c r="D64" s="540"/>
+      <c r="E64" s="541"/>
+      <c r="F64" s="541"/>
+      <c r="G64" s="541"/>
+      <c r="H64" s="542"/>
+      <c r="I64" s="543"/>
+      <c r="J64" s="544"/>
+      <c r="K64" s="544"/>
+      <c r="L64" s="544"/>
+      <c r="M64" s="544"/>
+      <c r="N64" s="544"/>
+      <c r="O64" s="544"/>
+      <c r="P64" s="544"/>
+      <c r="Q64" s="544"/>
+      <c r="R64" s="544"/>
+      <c r="S64" s="544"/>
+      <c r="T64" s="544"/>
+      <c r="U64" s="544"/>
+      <c r="V64" s="544"/>
+      <c r="W64" s="544"/>
+      <c r="X64" s="544"/>
+      <c r="Y64" s="544"/>
+      <c r="Z64" s="545"/>
+      <c r="AA64" s="546"/>
+      <c r="AB64" s="547"/>
+      <c r="AC64" s="547"/>
+      <c r="AD64" s="548"/>
+      <c r="AE64" s="540"/>
+      <c r="AF64" s="541"/>
+      <c r="AG64" s="541"/>
+      <c r="AH64" s="541"/>
+      <c r="AI64" s="542"/>
+      <c r="AJ64" s="546"/>
+      <c r="AK64" s="547"/>
+      <c r="AL64" s="547"/>
+      <c r="AM64" s="548"/>
+      <c r="AN64" s="540"/>
+      <c r="AO64" s="541"/>
+      <c r="AP64" s="541"/>
+      <c r="AQ64" s="541"/>
+      <c r="AR64" s="542"/>
+      <c r="AS64" s="546"/>
+      <c r="AT64" s="547"/>
+      <c r="AU64" s="547"/>
+      <c r="AV64" s="548"/>
       <c r="AW64" s="242"/>
     </row>
     <row r="65" spans="1:49">
       <c r="A65" s="105"/>
-      <c r="B65" s="461"/>
-      <c r="C65" s="462"/>
-      <c r="D65" s="463"/>
-      <c r="E65" s="464"/>
-      <c r="F65" s="464"/>
-      <c r="G65" s="464"/>
-      <c r="H65" s="465"/>
-      <c r="I65" s="466"/>
-      <c r="J65" s="467"/>
-      <c r="K65" s="467"/>
-      <c r="L65" s="467"/>
-      <c r="M65" s="467"/>
-      <c r="N65" s="467"/>
-      <c r="O65" s="467"/>
-      <c r="P65" s="467"/>
-      <c r="Q65" s="467"/>
-      <c r="R65" s="467"/>
-      <c r="S65" s="467"/>
-      <c r="T65" s="467"/>
-      <c r="U65" s="467"/>
-      <c r="V65" s="467"/>
-      <c r="W65" s="467"/>
-      <c r="X65" s="467"/>
-      <c r="Y65" s="467"/>
-      <c r="Z65" s="468"/>
-      <c r="AA65" s="469"/>
-      <c r="AB65" s="470"/>
-      <c r="AC65" s="470"/>
-      <c r="AD65" s="471"/>
-      <c r="AE65" s="463"/>
-      <c r="AF65" s="464"/>
-      <c r="AG65" s="464"/>
-      <c r="AH65" s="464"/>
-      <c r="AI65" s="465"/>
-      <c r="AJ65" s="469"/>
-      <c r="AK65" s="470"/>
-      <c r="AL65" s="470"/>
-      <c r="AM65" s="471"/>
-      <c r="AN65" s="463"/>
-      <c r="AO65" s="464"/>
-      <c r="AP65" s="464"/>
-      <c r="AQ65" s="464"/>
-      <c r="AR65" s="465"/>
-      <c r="AS65" s="469"/>
-      <c r="AT65" s="470"/>
-      <c r="AU65" s="470"/>
-      <c r="AV65" s="471"/>
+      <c r="B65" s="560"/>
+      <c r="C65" s="561"/>
+      <c r="D65" s="562"/>
+      <c r="E65" s="563"/>
+      <c r="F65" s="563"/>
+      <c r="G65" s="563"/>
+      <c r="H65" s="564"/>
+      <c r="I65" s="565"/>
+      <c r="J65" s="566"/>
+      <c r="K65" s="566"/>
+      <c r="L65" s="566"/>
+      <c r="M65" s="566"/>
+      <c r="N65" s="566"/>
+      <c r="O65" s="566"/>
+      <c r="P65" s="566"/>
+      <c r="Q65" s="566"/>
+      <c r="R65" s="566"/>
+      <c r="S65" s="566"/>
+      <c r="T65" s="566"/>
+      <c r="U65" s="566"/>
+      <c r="V65" s="566"/>
+      <c r="W65" s="566"/>
+      <c r="X65" s="566"/>
+      <c r="Y65" s="566"/>
+      <c r="Z65" s="567"/>
+      <c r="AA65" s="568"/>
+      <c r="AB65" s="569"/>
+      <c r="AC65" s="569"/>
+      <c r="AD65" s="570"/>
+      <c r="AE65" s="562"/>
+      <c r="AF65" s="563"/>
+      <c r="AG65" s="563"/>
+      <c r="AH65" s="563"/>
+      <c r="AI65" s="564"/>
+      <c r="AJ65" s="568"/>
+      <c r="AK65" s="569"/>
+      <c r="AL65" s="569"/>
+      <c r="AM65" s="570"/>
+      <c r="AN65" s="562"/>
+      <c r="AO65" s="563"/>
+      <c r="AP65" s="563"/>
+      <c r="AQ65" s="563"/>
+      <c r="AR65" s="564"/>
+      <c r="AS65" s="568"/>
+      <c r="AT65" s="569"/>
+      <c r="AU65" s="569"/>
+      <c r="AV65" s="570"/>
       <c r="AW65" s="242"/>
     </row>
     <row r="66" spans="1:49" ht="15" customHeight="1" thickBot="1">
@@ -9997,67 +9997,67 @@
       <c r="AW66" s="242"/>
     </row>
     <row r="67" spans="1:49" ht="15" thickTop="1">
-      <c r="A67" s="396" t="s">
+      <c r="A67" s="383" t="s">
         <v>0</v>
       </c>
-      <c r="B67" s="397"/>
-      <c r="C67" s="397"/>
-      <c r="D67" s="397"/>
-      <c r="E67" s="397"/>
-      <c r="F67" s="397"/>
-      <c r="G67" s="397"/>
-      <c r="H67" s="397"/>
-      <c r="I67" s="398"/>
-      <c r="J67" s="405" t="s">
+      <c r="B67" s="384"/>
+      <c r="C67" s="384"/>
+      <c r="D67" s="384"/>
+      <c r="E67" s="384"/>
+      <c r="F67" s="384"/>
+      <c r="G67" s="384"/>
+      <c r="H67" s="384"/>
+      <c r="I67" s="438"/>
+      <c r="J67" s="441" t="s">
         <v>1</v>
       </c>
-      <c r="K67" s="406"/>
-      <c r="L67" s="406"/>
-      <c r="M67" s="406"/>
-      <c r="N67" s="406"/>
-      <c r="O67" s="407"/>
-      <c r="P67" s="414" t="s">
+      <c r="K67" s="393"/>
+      <c r="L67" s="393"/>
+      <c r="M67" s="393"/>
+      <c r="N67" s="393"/>
+      <c r="O67" s="394"/>
+      <c r="P67" s="392" t="s">
         <v>2</v>
       </c>
-      <c r="Q67" s="406"/>
-      <c r="R67" s="406"/>
-      <c r="S67" s="406"/>
-      <c r="T67" s="406"/>
-      <c r="U67" s="407"/>
-      <c r="V67" s="417" t="s">
+      <c r="Q67" s="393"/>
+      <c r="R67" s="393"/>
+      <c r="S67" s="393"/>
+      <c r="T67" s="393"/>
+      <c r="U67" s="394"/>
+      <c r="V67" s="407" t="s">
         <v>3</v>
       </c>
-      <c r="W67" s="418"/>
-      <c r="X67" s="418"/>
-      <c r="Y67" s="418"/>
-      <c r="Z67" s="419"/>
-      <c r="AA67" s="423" t="s">
+      <c r="W67" s="408"/>
+      <c r="X67" s="408"/>
+      <c r="Y67" s="408"/>
+      <c r="Z67" s="409"/>
+      <c r="AA67" s="413" t="s">
         <v>65</v>
       </c>
-      <c r="AB67" s="406"/>
-      <c r="AC67" s="406"/>
-      <c r="AD67" s="406"/>
-      <c r="AE67" s="406"/>
-      <c r="AF67" s="406"/>
-      <c r="AG67" s="406"/>
-      <c r="AH67" s="406"/>
-      <c r="AI67" s="406"/>
-      <c r="AJ67" s="406"/>
-      <c r="AK67" s="406"/>
-      <c r="AL67" s="407"/>
-      <c r="AM67" s="427" t="s">
+      <c r="AB67" s="393"/>
+      <c r="AC67" s="393"/>
+      <c r="AD67" s="393"/>
+      <c r="AE67" s="393"/>
+      <c r="AF67" s="393"/>
+      <c r="AG67" s="393"/>
+      <c r="AH67" s="393"/>
+      <c r="AI67" s="393"/>
+      <c r="AJ67" s="393"/>
+      <c r="AK67" s="393"/>
+      <c r="AL67" s="394"/>
+      <c r="AM67" s="415" t="s">
         <v>4</v>
       </c>
-      <c r="AN67" s="428"/>
-      <c r="AO67" s="429" t="s">
+      <c r="AN67" s="416"/>
+      <c r="AO67" s="421" t="s">
         <v>151</v>
       </c>
-      <c r="AP67" s="430"/>
-      <c r="AQ67" s="431"/>
-      <c r="AR67" s="427" t="s">
+      <c r="AP67" s="422"/>
+      <c r="AQ67" s="423"/>
+      <c r="AR67" s="415" t="s">
         <v>5</v>
       </c>
-      <c r="AS67" s="428"/>
+      <c r="AS67" s="416"/>
       <c r="AT67" s="432">
         <v>45056</v>
       </c>
@@ -10066,118 +10066,118 @@
       <c r="AW67" s="434"/>
     </row>
     <row r="68" spans="1:49">
-      <c r="A68" s="399"/>
-      <c r="B68" s="400"/>
-      <c r="C68" s="400"/>
-      <c r="D68" s="400"/>
-      <c r="E68" s="400"/>
-      <c r="F68" s="400"/>
-      <c r="G68" s="400"/>
-      <c r="H68" s="400"/>
-      <c r="I68" s="401"/>
-      <c r="J68" s="408"/>
-      <c r="K68" s="409"/>
-      <c r="L68" s="409"/>
-      <c r="M68" s="409"/>
-      <c r="N68" s="409"/>
-      <c r="O68" s="410"/>
-      <c r="P68" s="415"/>
-      <c r="Q68" s="409"/>
-      <c r="R68" s="409"/>
-      <c r="S68" s="409"/>
-      <c r="T68" s="409"/>
-      <c r="U68" s="410"/>
-      <c r="V68" s="420"/>
-      <c r="W68" s="421"/>
-      <c r="X68" s="421"/>
-      <c r="Y68" s="421"/>
-      <c r="Z68" s="422"/>
-      <c r="AA68" s="424"/>
-      <c r="AB68" s="425"/>
-      <c r="AC68" s="425"/>
-      <c r="AD68" s="425"/>
-      <c r="AE68" s="425"/>
-      <c r="AF68" s="425"/>
-      <c r="AG68" s="425"/>
-      <c r="AH68" s="425"/>
-      <c r="AI68" s="425"/>
-      <c r="AJ68" s="425"/>
-      <c r="AK68" s="425"/>
-      <c r="AL68" s="426"/>
-      <c r="AM68" s="435" t="s">
+      <c r="A68" s="386"/>
+      <c r="B68" s="387"/>
+      <c r="C68" s="387"/>
+      <c r="D68" s="387"/>
+      <c r="E68" s="387"/>
+      <c r="F68" s="387"/>
+      <c r="G68" s="387"/>
+      <c r="H68" s="387"/>
+      <c r="I68" s="439"/>
+      <c r="J68" s="414"/>
+      <c r="K68" s="396"/>
+      <c r="L68" s="396"/>
+      <c r="M68" s="396"/>
+      <c r="N68" s="396"/>
+      <c r="O68" s="397"/>
+      <c r="P68" s="395"/>
+      <c r="Q68" s="396"/>
+      <c r="R68" s="396"/>
+      <c r="S68" s="396"/>
+      <c r="T68" s="396"/>
+      <c r="U68" s="397"/>
+      <c r="V68" s="443"/>
+      <c r="W68" s="444"/>
+      <c r="X68" s="444"/>
+      <c r="Y68" s="444"/>
+      <c r="Z68" s="445"/>
+      <c r="AA68" s="446"/>
+      <c r="AB68" s="447"/>
+      <c r="AC68" s="447"/>
+      <c r="AD68" s="447"/>
+      <c r="AE68" s="447"/>
+      <c r="AF68" s="447"/>
+      <c r="AG68" s="447"/>
+      <c r="AH68" s="447"/>
+      <c r="AI68" s="447"/>
+      <c r="AJ68" s="447"/>
+      <c r="AK68" s="447"/>
+      <c r="AL68" s="448"/>
+      <c r="AM68" s="424" t="s">
         <v>6</v>
       </c>
-      <c r="AN68" s="436"/>
-      <c r="AO68" s="437"/>
-      <c r="AP68" s="438"/>
-      <c r="AQ68" s="439"/>
-      <c r="AR68" s="435" t="s">
+      <c r="AN68" s="425"/>
+      <c r="AO68" s="426"/>
+      <c r="AP68" s="427"/>
+      <c r="AQ68" s="428"/>
+      <c r="AR68" s="424" t="s">
         <v>7</v>
       </c>
-      <c r="AS68" s="436"/>
-      <c r="AT68" s="440"/>
-      <c r="AU68" s="441"/>
-      <c r="AV68" s="441"/>
-      <c r="AW68" s="442"/>
+      <c r="AS68" s="425"/>
+      <c r="AT68" s="429"/>
+      <c r="AU68" s="430"/>
+      <c r="AV68" s="430"/>
+      <c r="AW68" s="431"/>
     </row>
     <row r="69" spans="1:49" ht="15" customHeight="1" thickBot="1">
-      <c r="A69" s="402"/>
-      <c r="B69" s="403"/>
-      <c r="C69" s="403"/>
-      <c r="D69" s="403"/>
-      <c r="E69" s="403"/>
-      <c r="F69" s="403"/>
-      <c r="G69" s="403"/>
-      <c r="H69" s="403"/>
-      <c r="I69" s="404"/>
-      <c r="J69" s="411"/>
-      <c r="K69" s="412"/>
-      <c r="L69" s="412"/>
-      <c r="M69" s="412"/>
-      <c r="N69" s="412"/>
-      <c r="O69" s="413"/>
-      <c r="P69" s="416"/>
-      <c r="Q69" s="412"/>
-      <c r="R69" s="412"/>
-      <c r="S69" s="412"/>
-      <c r="T69" s="412"/>
-      <c r="U69" s="413"/>
-      <c r="V69" s="443" t="s">
+      <c r="A69" s="389"/>
+      <c r="B69" s="390"/>
+      <c r="C69" s="390"/>
+      <c r="D69" s="390"/>
+      <c r="E69" s="390"/>
+      <c r="F69" s="390"/>
+      <c r="G69" s="390"/>
+      <c r="H69" s="390"/>
+      <c r="I69" s="440"/>
+      <c r="J69" s="442"/>
+      <c r="K69" s="399"/>
+      <c r="L69" s="399"/>
+      <c r="M69" s="399"/>
+      <c r="N69" s="399"/>
+      <c r="O69" s="400"/>
+      <c r="P69" s="398"/>
+      <c r="Q69" s="399"/>
+      <c r="R69" s="399"/>
+      <c r="S69" s="399"/>
+      <c r="T69" s="399"/>
+      <c r="U69" s="400"/>
+      <c r="V69" s="404" t="s">
         <v>8</v>
       </c>
-      <c r="W69" s="444"/>
-      <c r="X69" s="444"/>
-      <c r="Y69" s="444"/>
-      <c r="Z69" s="445"/>
-      <c r="AA69" s="393" t="s">
+      <c r="W69" s="405"/>
+      <c r="X69" s="405"/>
+      <c r="Y69" s="405"/>
+      <c r="Z69" s="406"/>
+      <c r="AA69" s="401" t="s">
         <v>74</v>
       </c>
-      <c r="AB69" s="394"/>
-      <c r="AC69" s="394"/>
-      <c r="AD69" s="394"/>
-      <c r="AE69" s="394"/>
-      <c r="AF69" s="394"/>
-      <c r="AG69" s="446"/>
-      <c r="AH69" s="447" t="s">
+      <c r="AB69" s="402"/>
+      <c r="AC69" s="402"/>
+      <c r="AD69" s="402"/>
+      <c r="AE69" s="402"/>
+      <c r="AF69" s="402"/>
+      <c r="AG69" s="403"/>
+      <c r="AH69" s="417" t="s">
         <v>9</v>
       </c>
-      <c r="AI69" s="448"/>
-      <c r="AJ69" s="448"/>
-      <c r="AK69" s="448"/>
-      <c r="AL69" s="449"/>
-      <c r="AM69" s="393" t="s">
+      <c r="AI69" s="418"/>
+      <c r="AJ69" s="418"/>
+      <c r="AK69" s="418"/>
+      <c r="AL69" s="419"/>
+      <c r="AM69" s="401" t="s">
         <v>67</v>
       </c>
-      <c r="AN69" s="394"/>
-      <c r="AO69" s="394"/>
-      <c r="AP69" s="394"/>
-      <c r="AQ69" s="394"/>
-      <c r="AR69" s="394"/>
-      <c r="AS69" s="394"/>
-      <c r="AT69" s="394"/>
-      <c r="AU69" s="394"/>
-      <c r="AV69" s="394"/>
-      <c r="AW69" s="395"/>
+      <c r="AN69" s="402"/>
+      <c r="AO69" s="402"/>
+      <c r="AP69" s="402"/>
+      <c r="AQ69" s="402"/>
+      <c r="AR69" s="402"/>
+      <c r="AS69" s="402"/>
+      <c r="AT69" s="402"/>
+      <c r="AU69" s="402"/>
+      <c r="AV69" s="402"/>
+      <c r="AW69" s="420"/>
     </row>
     <row r="70" spans="1:49" ht="15" thickTop="1">
       <c r="A70" s="242"/>
@@ -11440,67 +11440,67 @@
       <c r="AW99" s="242"/>
     </row>
     <row r="100" spans="1:49" ht="15" thickTop="1">
-      <c r="A100" s="396" t="s">
+      <c r="A100" s="383" t="s">
         <v>0</v>
       </c>
-      <c r="B100" s="397"/>
-      <c r="C100" s="397"/>
-      <c r="D100" s="397"/>
-      <c r="E100" s="397"/>
-      <c r="F100" s="397"/>
-      <c r="G100" s="397"/>
-      <c r="H100" s="397"/>
-      <c r="I100" s="398"/>
-      <c r="J100" s="405" t="s">
+      <c r="B100" s="384"/>
+      <c r="C100" s="384"/>
+      <c r="D100" s="384"/>
+      <c r="E100" s="384"/>
+      <c r="F100" s="384"/>
+      <c r="G100" s="384"/>
+      <c r="H100" s="384"/>
+      <c r="I100" s="438"/>
+      <c r="J100" s="441" t="s">
         <v>1</v>
       </c>
-      <c r="K100" s="406"/>
-      <c r="L100" s="406"/>
-      <c r="M100" s="406"/>
-      <c r="N100" s="406"/>
-      <c r="O100" s="407"/>
-      <c r="P100" s="414" t="s">
+      <c r="K100" s="393"/>
+      <c r="L100" s="393"/>
+      <c r="M100" s="393"/>
+      <c r="N100" s="393"/>
+      <c r="O100" s="394"/>
+      <c r="P100" s="392" t="s">
         <v>2</v>
       </c>
-      <c r="Q100" s="406"/>
-      <c r="R100" s="406"/>
-      <c r="S100" s="406"/>
-      <c r="T100" s="406"/>
-      <c r="U100" s="407"/>
-      <c r="V100" s="417" t="s">
+      <c r="Q100" s="393"/>
+      <c r="R100" s="393"/>
+      <c r="S100" s="393"/>
+      <c r="T100" s="393"/>
+      <c r="U100" s="394"/>
+      <c r="V100" s="407" t="s">
         <v>3</v>
       </c>
-      <c r="W100" s="418"/>
-      <c r="X100" s="418"/>
-      <c r="Y100" s="418"/>
-      <c r="Z100" s="419"/>
-      <c r="AA100" s="423" t="s">
+      <c r="W100" s="408"/>
+      <c r="X100" s="408"/>
+      <c r="Y100" s="408"/>
+      <c r="Z100" s="409"/>
+      <c r="AA100" s="413" t="s">
         <v>65</v>
       </c>
-      <c r="AB100" s="406"/>
-      <c r="AC100" s="406"/>
-      <c r="AD100" s="406"/>
-      <c r="AE100" s="406"/>
-      <c r="AF100" s="406"/>
-      <c r="AG100" s="406"/>
-      <c r="AH100" s="406"/>
-      <c r="AI100" s="406"/>
-      <c r="AJ100" s="406"/>
-      <c r="AK100" s="406"/>
-      <c r="AL100" s="407"/>
-      <c r="AM100" s="427" t="s">
+      <c r="AB100" s="393"/>
+      <c r="AC100" s="393"/>
+      <c r="AD100" s="393"/>
+      <c r="AE100" s="393"/>
+      <c r="AF100" s="393"/>
+      <c r="AG100" s="393"/>
+      <c r="AH100" s="393"/>
+      <c r="AI100" s="393"/>
+      <c r="AJ100" s="393"/>
+      <c r="AK100" s="393"/>
+      <c r="AL100" s="394"/>
+      <c r="AM100" s="415" t="s">
         <v>4</v>
       </c>
-      <c r="AN100" s="428"/>
-      <c r="AO100" s="429" t="s">
+      <c r="AN100" s="416"/>
+      <c r="AO100" s="421" t="s">
         <v>151</v>
       </c>
-      <c r="AP100" s="430"/>
-      <c r="AQ100" s="431"/>
-      <c r="AR100" s="427" t="s">
+      <c r="AP100" s="422"/>
+      <c r="AQ100" s="423"/>
+      <c r="AR100" s="415" t="s">
         <v>5</v>
       </c>
-      <c r="AS100" s="428"/>
+      <c r="AS100" s="416"/>
       <c r="AT100" s="432">
         <v>45056</v>
       </c>
@@ -11509,118 +11509,118 @@
       <c r="AW100" s="434"/>
     </row>
     <row r="101" spans="1:49">
-      <c r="A101" s="399"/>
-      <c r="B101" s="400"/>
-      <c r="C101" s="400"/>
-      <c r="D101" s="400"/>
-      <c r="E101" s="400"/>
-      <c r="F101" s="400"/>
-      <c r="G101" s="400"/>
-      <c r="H101" s="400"/>
-      <c r="I101" s="401"/>
-      <c r="J101" s="408"/>
-      <c r="K101" s="409"/>
-      <c r="L101" s="409"/>
-      <c r="M101" s="409"/>
-      <c r="N101" s="409"/>
-      <c r="O101" s="410"/>
-      <c r="P101" s="415"/>
-      <c r="Q101" s="409"/>
-      <c r="R101" s="409"/>
-      <c r="S101" s="409"/>
-      <c r="T101" s="409"/>
-      <c r="U101" s="410"/>
-      <c r="V101" s="420"/>
-      <c r="W101" s="421"/>
-      <c r="X101" s="421"/>
-      <c r="Y101" s="421"/>
-      <c r="Z101" s="422"/>
-      <c r="AA101" s="424"/>
-      <c r="AB101" s="425"/>
-      <c r="AC101" s="425"/>
-      <c r="AD101" s="425"/>
-      <c r="AE101" s="425"/>
-      <c r="AF101" s="425"/>
-      <c r="AG101" s="425"/>
-      <c r="AH101" s="425"/>
-      <c r="AI101" s="425"/>
-      <c r="AJ101" s="425"/>
-      <c r="AK101" s="425"/>
-      <c r="AL101" s="426"/>
-      <c r="AM101" s="435" t="s">
+      <c r="A101" s="386"/>
+      <c r="B101" s="387"/>
+      <c r="C101" s="387"/>
+      <c r="D101" s="387"/>
+      <c r="E101" s="387"/>
+      <c r="F101" s="387"/>
+      <c r="G101" s="387"/>
+      <c r="H101" s="387"/>
+      <c r="I101" s="439"/>
+      <c r="J101" s="414"/>
+      <c r="K101" s="396"/>
+      <c r="L101" s="396"/>
+      <c r="M101" s="396"/>
+      <c r="N101" s="396"/>
+      <c r="O101" s="397"/>
+      <c r="P101" s="395"/>
+      <c r="Q101" s="396"/>
+      <c r="R101" s="396"/>
+      <c r="S101" s="396"/>
+      <c r="T101" s="396"/>
+      <c r="U101" s="397"/>
+      <c r="V101" s="443"/>
+      <c r="W101" s="444"/>
+      <c r="X101" s="444"/>
+      <c r="Y101" s="444"/>
+      <c r="Z101" s="445"/>
+      <c r="AA101" s="446"/>
+      <c r="AB101" s="447"/>
+      <c r="AC101" s="447"/>
+      <c r="AD101" s="447"/>
+      <c r="AE101" s="447"/>
+      <c r="AF101" s="447"/>
+      <c r="AG101" s="447"/>
+      <c r="AH101" s="447"/>
+      <c r="AI101" s="447"/>
+      <c r="AJ101" s="447"/>
+      <c r="AK101" s="447"/>
+      <c r="AL101" s="448"/>
+      <c r="AM101" s="424" t="s">
         <v>6</v>
       </c>
-      <c r="AN101" s="436"/>
-      <c r="AO101" s="437"/>
-      <c r="AP101" s="438"/>
-      <c r="AQ101" s="439"/>
-      <c r="AR101" s="435" t="s">
+      <c r="AN101" s="425"/>
+      <c r="AO101" s="426"/>
+      <c r="AP101" s="427"/>
+      <c r="AQ101" s="428"/>
+      <c r="AR101" s="424" t="s">
         <v>7</v>
       </c>
-      <c r="AS101" s="436"/>
-      <c r="AT101" s="440"/>
-      <c r="AU101" s="441"/>
-      <c r="AV101" s="441"/>
-      <c r="AW101" s="442"/>
+      <c r="AS101" s="425"/>
+      <c r="AT101" s="429"/>
+      <c r="AU101" s="430"/>
+      <c r="AV101" s="430"/>
+      <c r="AW101" s="431"/>
     </row>
     <row r="102" spans="1:49" ht="15" thickBot="1">
-      <c r="A102" s="402"/>
-      <c r="B102" s="403"/>
-      <c r="C102" s="403"/>
-      <c r="D102" s="403"/>
-      <c r="E102" s="403"/>
-      <c r="F102" s="403"/>
-      <c r="G102" s="403"/>
-      <c r="H102" s="403"/>
-      <c r="I102" s="404"/>
-      <c r="J102" s="411"/>
-      <c r="K102" s="412"/>
-      <c r="L102" s="412"/>
-      <c r="M102" s="412"/>
-      <c r="N102" s="412"/>
-      <c r="O102" s="413"/>
-      <c r="P102" s="416"/>
-      <c r="Q102" s="412"/>
-      <c r="R102" s="412"/>
-      <c r="S102" s="412"/>
-      <c r="T102" s="412"/>
-      <c r="U102" s="413"/>
-      <c r="V102" s="443" t="s">
+      <c r="A102" s="389"/>
+      <c r="B102" s="390"/>
+      <c r="C102" s="390"/>
+      <c r="D102" s="390"/>
+      <c r="E102" s="390"/>
+      <c r="F102" s="390"/>
+      <c r="G102" s="390"/>
+      <c r="H102" s="390"/>
+      <c r="I102" s="440"/>
+      <c r="J102" s="442"/>
+      <c r="K102" s="399"/>
+      <c r="L102" s="399"/>
+      <c r="M102" s="399"/>
+      <c r="N102" s="399"/>
+      <c r="O102" s="400"/>
+      <c r="P102" s="398"/>
+      <c r="Q102" s="399"/>
+      <c r="R102" s="399"/>
+      <c r="S102" s="399"/>
+      <c r="T102" s="399"/>
+      <c r="U102" s="400"/>
+      <c r="V102" s="404" t="s">
         <v>8</v>
       </c>
-      <c r="W102" s="444"/>
-      <c r="X102" s="444"/>
-      <c r="Y102" s="444"/>
-      <c r="Z102" s="445"/>
-      <c r="AA102" s="393" t="s">
+      <c r="W102" s="405"/>
+      <c r="X102" s="405"/>
+      <c r="Y102" s="405"/>
+      <c r="Z102" s="406"/>
+      <c r="AA102" s="401" t="s">
         <v>74</v>
       </c>
-      <c r="AB102" s="394"/>
-      <c r="AC102" s="394"/>
-      <c r="AD102" s="394"/>
-      <c r="AE102" s="394"/>
-      <c r="AF102" s="394"/>
-      <c r="AG102" s="446"/>
-      <c r="AH102" s="447" t="s">
+      <c r="AB102" s="402"/>
+      <c r="AC102" s="402"/>
+      <c r="AD102" s="402"/>
+      <c r="AE102" s="402"/>
+      <c r="AF102" s="402"/>
+      <c r="AG102" s="403"/>
+      <c r="AH102" s="417" t="s">
         <v>9</v>
       </c>
-      <c r="AI102" s="448"/>
-      <c r="AJ102" s="448"/>
-      <c r="AK102" s="448"/>
-      <c r="AL102" s="449"/>
-      <c r="AM102" s="393" t="s">
+      <c r="AI102" s="418"/>
+      <c r="AJ102" s="418"/>
+      <c r="AK102" s="418"/>
+      <c r="AL102" s="419"/>
+      <c r="AM102" s="401" t="s">
         <v>67</v>
       </c>
-      <c r="AN102" s="394"/>
-      <c r="AO102" s="394"/>
-      <c r="AP102" s="394"/>
-      <c r="AQ102" s="394"/>
-      <c r="AR102" s="394"/>
-      <c r="AS102" s="394"/>
-      <c r="AT102" s="394"/>
-      <c r="AU102" s="394"/>
-      <c r="AV102" s="394"/>
-      <c r="AW102" s="395"/>
+      <c r="AN102" s="402"/>
+      <c r="AO102" s="402"/>
+      <c r="AP102" s="402"/>
+      <c r="AQ102" s="402"/>
+      <c r="AR102" s="402"/>
+      <c r="AS102" s="402"/>
+      <c r="AT102" s="402"/>
+      <c r="AU102" s="402"/>
+      <c r="AV102" s="402"/>
+      <c r="AW102" s="420"/>
     </row>
     <row r="103" spans="1:49" ht="15" thickTop="1">
       <c r="A103" s="242"/>
@@ -12525,35 +12525,35 @@
       <c r="T123" s="10"/>
       <c r="U123" s="9"/>
       <c r="V123" s="10"/>
-      <c r="W123" s="383" t="s">
+      <c r="W123" s="571" t="s">
         <v>39</v>
       </c>
-      <c r="X123" s="384"/>
-      <c r="Y123" s="383" t="s">
+      <c r="X123" s="572"/>
+      <c r="Y123" s="571" t="s">
         <v>40</v>
       </c>
-      <c r="Z123" s="385"/>
-      <c r="AA123" s="385"/>
-      <c r="AB123" s="385"/>
-      <c r="AC123" s="385"/>
-      <c r="AD123" s="385"/>
-      <c r="AE123" s="385"/>
-      <c r="AF123" s="385"/>
-      <c r="AG123" s="385"/>
-      <c r="AH123" s="385"/>
-      <c r="AI123" s="385"/>
-      <c r="AJ123" s="385"/>
-      <c r="AK123" s="385"/>
-      <c r="AL123" s="385"/>
-      <c r="AM123" s="385"/>
-      <c r="AN123" s="385"/>
-      <c r="AO123" s="385"/>
-      <c r="AP123" s="385"/>
-      <c r="AQ123" s="385"/>
-      <c r="AR123" s="385"/>
-      <c r="AS123" s="385"/>
-      <c r="AT123" s="385"/>
-      <c r="AU123" s="384"/>
+      <c r="Z123" s="573"/>
+      <c r="AA123" s="573"/>
+      <c r="AB123" s="573"/>
+      <c r="AC123" s="573"/>
+      <c r="AD123" s="573"/>
+      <c r="AE123" s="573"/>
+      <c r="AF123" s="573"/>
+      <c r="AG123" s="573"/>
+      <c r="AH123" s="573"/>
+      <c r="AI123" s="573"/>
+      <c r="AJ123" s="573"/>
+      <c r="AK123" s="573"/>
+      <c r="AL123" s="573"/>
+      <c r="AM123" s="573"/>
+      <c r="AN123" s="573"/>
+      <c r="AO123" s="573"/>
+      <c r="AP123" s="573"/>
+      <c r="AQ123" s="573"/>
+      <c r="AR123" s="573"/>
+      <c r="AS123" s="573"/>
+      <c r="AT123" s="573"/>
+      <c r="AU123" s="572"/>
       <c r="AV123" s="36"/>
       <c r="AW123" s="242"/>
     </row>
@@ -12588,10 +12588,10 @@
       <c r="T124" s="55"/>
       <c r="U124" s="49"/>
       <c r="V124" s="50"/>
-      <c r="W124" s="386" t="s">
+      <c r="W124" s="574" t="s">
         <v>42</v>
       </c>
-      <c r="X124" s="387"/>
+      <c r="X124" s="575"/>
       <c r="Y124" s="285"/>
       <c r="Z124" s="52"/>
       <c r="AA124" s="52"/>
@@ -12649,10 +12649,10 @@
       <c r="T125" s="60"/>
       <c r="U125" s="63"/>
       <c r="V125" s="58"/>
-      <c r="W125" s="388" t="s">
+      <c r="W125" s="576" t="s">
         <v>209</v>
       </c>
-      <c r="X125" s="389"/>
+      <c r="X125" s="577"/>
       <c r="Y125" s="286"/>
       <c r="Z125" s="60"/>
       <c r="AA125" s="60"/>
@@ -12704,8 +12704,8 @@
       <c r="T126" s="65"/>
       <c r="U126" s="332"/>
       <c r="V126" s="329"/>
-      <c r="W126" s="390"/>
-      <c r="X126" s="391"/>
+      <c r="W126" s="578"/>
+      <c r="X126" s="579"/>
       <c r="Y126" s="333"/>
       <c r="Z126" s="65"/>
       <c r="AA126" s="65"/>
@@ -13492,8 +13492,8 @@
       <c r="U145" s="326"/>
       <c r="V145" s="325"/>
       <c r="W145" s="325"/>
-      <c r="X145" s="392"/>
-      <c r="Y145" s="392"/>
+      <c r="X145" s="580"/>
+      <c r="Y145" s="580"/>
       <c r="Z145" s="326"/>
       <c r="AA145" s="326"/>
       <c r="AB145" s="326"/>
@@ -14085,164 +14085,6 @@
     </row>
   </sheetData>
   <mergeCells count="182">
-    <mergeCell ref="A1:I3"/>
-    <mergeCell ref="J1:O3"/>
-    <mergeCell ref="P1:U3"/>
-    <mergeCell ref="AA3:AG3"/>
-    <mergeCell ref="V3:Z3"/>
-    <mergeCell ref="V1:Z2"/>
-    <mergeCell ref="AA1:AL2"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="AH3:AL3"/>
-    <mergeCell ref="AM3:AW3"/>
-    <mergeCell ref="AO1:AQ1"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AO2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AW2"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="B6:AV10"/>
-    <mergeCell ref="B12:AV15"/>
-    <mergeCell ref="A34:I36"/>
-    <mergeCell ref="J34:O36"/>
-    <mergeCell ref="P34:U36"/>
-    <mergeCell ref="V34:Z35"/>
-    <mergeCell ref="AA34:AL35"/>
-    <mergeCell ref="AM34:AN34"/>
-    <mergeCell ref="AO34:AQ34"/>
-    <mergeCell ref="AR34:AS34"/>
-    <mergeCell ref="AT34:AW34"/>
-    <mergeCell ref="AM35:AN35"/>
-    <mergeCell ref="AO35:AQ35"/>
-    <mergeCell ref="AR35:AS35"/>
-    <mergeCell ref="AT35:AW35"/>
-    <mergeCell ref="V36:Z36"/>
-    <mergeCell ref="AA36:AG36"/>
-    <mergeCell ref="AH36:AL36"/>
-    <mergeCell ref="AM36:AW36"/>
-    <mergeCell ref="B40:C41"/>
-    <mergeCell ref="D40:H41"/>
-    <mergeCell ref="I40:Z41"/>
-    <mergeCell ref="AA40:AD41"/>
-    <mergeCell ref="AE40:AM40"/>
-    <mergeCell ref="AN40:AV40"/>
-    <mergeCell ref="AE41:AI41"/>
-    <mergeCell ref="AJ41:AM41"/>
-    <mergeCell ref="AN41:AR41"/>
-    <mergeCell ref="AS41:AV41"/>
-    <mergeCell ref="B42:C43"/>
-    <mergeCell ref="D42:H43"/>
-    <mergeCell ref="I42:Z43"/>
-    <mergeCell ref="AA42:AD43"/>
-    <mergeCell ref="AE42:AI43"/>
-    <mergeCell ref="AJ42:AM43"/>
-    <mergeCell ref="AN42:AR43"/>
-    <mergeCell ref="AS42:AV43"/>
-    <mergeCell ref="B44:C45"/>
-    <mergeCell ref="D44:H45"/>
-    <mergeCell ref="I44:Z45"/>
-    <mergeCell ref="AA44:AD45"/>
-    <mergeCell ref="AE44:AI45"/>
-    <mergeCell ref="AJ44:AM45"/>
-    <mergeCell ref="AN44:AR45"/>
-    <mergeCell ref="AS44:AV45"/>
-    <mergeCell ref="B46:C47"/>
-    <mergeCell ref="D46:H47"/>
-    <mergeCell ref="I46:Z47"/>
-    <mergeCell ref="AA46:AD47"/>
-    <mergeCell ref="AE46:AI47"/>
-    <mergeCell ref="AJ46:AM47"/>
-    <mergeCell ref="AN46:AR47"/>
-    <mergeCell ref="AS46:AV47"/>
-    <mergeCell ref="B48:C49"/>
-    <mergeCell ref="D48:H49"/>
-    <mergeCell ref="I48:Z49"/>
-    <mergeCell ref="AA48:AD49"/>
-    <mergeCell ref="AE48:AI49"/>
-    <mergeCell ref="AJ48:AM49"/>
-    <mergeCell ref="AN48:AR49"/>
-    <mergeCell ref="AS48:AV49"/>
-    <mergeCell ref="B50:C51"/>
-    <mergeCell ref="D50:H51"/>
-    <mergeCell ref="I50:Z51"/>
-    <mergeCell ref="AA50:AD51"/>
-    <mergeCell ref="AE50:AI51"/>
-    <mergeCell ref="AJ50:AM51"/>
-    <mergeCell ref="AN50:AR51"/>
-    <mergeCell ref="AS50:AV51"/>
-    <mergeCell ref="B52:C53"/>
-    <mergeCell ref="D52:H53"/>
-    <mergeCell ref="I52:Z53"/>
-    <mergeCell ref="AA52:AD53"/>
-    <mergeCell ref="AE52:AI53"/>
-    <mergeCell ref="AJ52:AM53"/>
-    <mergeCell ref="AN52:AR53"/>
-    <mergeCell ref="AS52:AV53"/>
-    <mergeCell ref="B54:C55"/>
-    <mergeCell ref="D54:H55"/>
-    <mergeCell ref="I54:Z55"/>
-    <mergeCell ref="AA54:AD55"/>
-    <mergeCell ref="AE54:AI55"/>
-    <mergeCell ref="AJ54:AM55"/>
-    <mergeCell ref="AN54:AR55"/>
-    <mergeCell ref="AS54:AV55"/>
-    <mergeCell ref="B56:C57"/>
-    <mergeCell ref="D56:H57"/>
-    <mergeCell ref="I56:Z57"/>
-    <mergeCell ref="AA56:AD57"/>
-    <mergeCell ref="AE56:AI57"/>
-    <mergeCell ref="AJ56:AM57"/>
-    <mergeCell ref="AN56:AR57"/>
-    <mergeCell ref="AS56:AV57"/>
-    <mergeCell ref="B58:C59"/>
-    <mergeCell ref="D58:H59"/>
-    <mergeCell ref="I58:Z59"/>
-    <mergeCell ref="AA58:AD59"/>
-    <mergeCell ref="AE58:AI59"/>
-    <mergeCell ref="AJ58:AM59"/>
-    <mergeCell ref="AN58:AR59"/>
-    <mergeCell ref="AS58:AV59"/>
-    <mergeCell ref="B60:C61"/>
-    <mergeCell ref="D60:H61"/>
-    <mergeCell ref="I60:Z61"/>
-    <mergeCell ref="AA60:AD61"/>
-    <mergeCell ref="AE60:AI61"/>
-    <mergeCell ref="AJ60:AM61"/>
-    <mergeCell ref="AN60:AR61"/>
-    <mergeCell ref="AS60:AV61"/>
-    <mergeCell ref="B62:C63"/>
-    <mergeCell ref="D62:H63"/>
-    <mergeCell ref="I62:Z63"/>
-    <mergeCell ref="AA62:AD63"/>
-    <mergeCell ref="AE62:AI63"/>
-    <mergeCell ref="AJ62:AM63"/>
-    <mergeCell ref="AN62:AR63"/>
-    <mergeCell ref="AS62:AV63"/>
-    <mergeCell ref="B64:C65"/>
-    <mergeCell ref="D64:H65"/>
-    <mergeCell ref="I64:Z65"/>
-    <mergeCell ref="AA64:AD65"/>
-    <mergeCell ref="AE64:AI65"/>
-    <mergeCell ref="AJ64:AM65"/>
-    <mergeCell ref="AN64:AR65"/>
-    <mergeCell ref="AS64:AV65"/>
-    <mergeCell ref="A67:I69"/>
-    <mergeCell ref="J67:O69"/>
-    <mergeCell ref="P67:U69"/>
-    <mergeCell ref="V67:Z68"/>
-    <mergeCell ref="AA67:AL68"/>
-    <mergeCell ref="AM67:AN67"/>
-    <mergeCell ref="AO67:AQ67"/>
-    <mergeCell ref="AR67:AS67"/>
-    <mergeCell ref="AT67:AW67"/>
-    <mergeCell ref="AM68:AN68"/>
-    <mergeCell ref="AO68:AQ68"/>
-    <mergeCell ref="AR68:AS68"/>
-    <mergeCell ref="AT68:AW68"/>
-    <mergeCell ref="V69:Z69"/>
-    <mergeCell ref="AA69:AG69"/>
-    <mergeCell ref="AH69:AL69"/>
     <mergeCell ref="W123:X123"/>
     <mergeCell ref="Y123:AU123"/>
     <mergeCell ref="W124:X124"/>
@@ -14267,6 +14109,164 @@
     <mergeCell ref="AA102:AG102"/>
     <mergeCell ref="AH102:AL102"/>
     <mergeCell ref="AM102:AW102"/>
+    <mergeCell ref="A67:I69"/>
+    <mergeCell ref="J67:O69"/>
+    <mergeCell ref="P67:U69"/>
+    <mergeCell ref="V67:Z68"/>
+    <mergeCell ref="AA67:AL68"/>
+    <mergeCell ref="AM67:AN67"/>
+    <mergeCell ref="AO67:AQ67"/>
+    <mergeCell ref="AR67:AS67"/>
+    <mergeCell ref="AT67:AW67"/>
+    <mergeCell ref="AM68:AN68"/>
+    <mergeCell ref="AO68:AQ68"/>
+    <mergeCell ref="AR68:AS68"/>
+    <mergeCell ref="AT68:AW68"/>
+    <mergeCell ref="V69:Z69"/>
+    <mergeCell ref="AA69:AG69"/>
+    <mergeCell ref="AH69:AL69"/>
+    <mergeCell ref="B62:C63"/>
+    <mergeCell ref="D62:H63"/>
+    <mergeCell ref="I62:Z63"/>
+    <mergeCell ref="AA62:AD63"/>
+    <mergeCell ref="AE62:AI63"/>
+    <mergeCell ref="AJ62:AM63"/>
+    <mergeCell ref="AN62:AR63"/>
+    <mergeCell ref="AS62:AV63"/>
+    <mergeCell ref="B64:C65"/>
+    <mergeCell ref="D64:H65"/>
+    <mergeCell ref="I64:Z65"/>
+    <mergeCell ref="AA64:AD65"/>
+    <mergeCell ref="AE64:AI65"/>
+    <mergeCell ref="AJ64:AM65"/>
+    <mergeCell ref="AN64:AR65"/>
+    <mergeCell ref="AS64:AV65"/>
+    <mergeCell ref="B58:C59"/>
+    <mergeCell ref="D58:H59"/>
+    <mergeCell ref="I58:Z59"/>
+    <mergeCell ref="AA58:AD59"/>
+    <mergeCell ref="AE58:AI59"/>
+    <mergeCell ref="AJ58:AM59"/>
+    <mergeCell ref="AN58:AR59"/>
+    <mergeCell ref="AS58:AV59"/>
+    <mergeCell ref="B60:C61"/>
+    <mergeCell ref="D60:H61"/>
+    <mergeCell ref="I60:Z61"/>
+    <mergeCell ref="AA60:AD61"/>
+    <mergeCell ref="AE60:AI61"/>
+    <mergeCell ref="AJ60:AM61"/>
+    <mergeCell ref="AN60:AR61"/>
+    <mergeCell ref="AS60:AV61"/>
+    <mergeCell ref="B54:C55"/>
+    <mergeCell ref="D54:H55"/>
+    <mergeCell ref="I54:Z55"/>
+    <mergeCell ref="AA54:AD55"/>
+    <mergeCell ref="AE54:AI55"/>
+    <mergeCell ref="AJ54:AM55"/>
+    <mergeCell ref="AN54:AR55"/>
+    <mergeCell ref="AS54:AV55"/>
+    <mergeCell ref="B56:C57"/>
+    <mergeCell ref="D56:H57"/>
+    <mergeCell ref="I56:Z57"/>
+    <mergeCell ref="AA56:AD57"/>
+    <mergeCell ref="AE56:AI57"/>
+    <mergeCell ref="AJ56:AM57"/>
+    <mergeCell ref="AN56:AR57"/>
+    <mergeCell ref="AS56:AV57"/>
+    <mergeCell ref="B50:C51"/>
+    <mergeCell ref="D50:H51"/>
+    <mergeCell ref="I50:Z51"/>
+    <mergeCell ref="AA50:AD51"/>
+    <mergeCell ref="AE50:AI51"/>
+    <mergeCell ref="AJ50:AM51"/>
+    <mergeCell ref="AN50:AR51"/>
+    <mergeCell ref="AS50:AV51"/>
+    <mergeCell ref="B52:C53"/>
+    <mergeCell ref="D52:H53"/>
+    <mergeCell ref="I52:Z53"/>
+    <mergeCell ref="AA52:AD53"/>
+    <mergeCell ref="AE52:AI53"/>
+    <mergeCell ref="AJ52:AM53"/>
+    <mergeCell ref="AN52:AR53"/>
+    <mergeCell ref="AS52:AV53"/>
+    <mergeCell ref="B46:C47"/>
+    <mergeCell ref="D46:H47"/>
+    <mergeCell ref="I46:Z47"/>
+    <mergeCell ref="AA46:AD47"/>
+    <mergeCell ref="AE46:AI47"/>
+    <mergeCell ref="AJ46:AM47"/>
+    <mergeCell ref="AN46:AR47"/>
+    <mergeCell ref="AS46:AV47"/>
+    <mergeCell ref="B48:C49"/>
+    <mergeCell ref="D48:H49"/>
+    <mergeCell ref="I48:Z49"/>
+    <mergeCell ref="AA48:AD49"/>
+    <mergeCell ref="AE48:AI49"/>
+    <mergeCell ref="AJ48:AM49"/>
+    <mergeCell ref="AN48:AR49"/>
+    <mergeCell ref="AS48:AV49"/>
+    <mergeCell ref="B42:C43"/>
+    <mergeCell ref="D42:H43"/>
+    <mergeCell ref="I42:Z43"/>
+    <mergeCell ref="AA42:AD43"/>
+    <mergeCell ref="AE42:AI43"/>
+    <mergeCell ref="AJ42:AM43"/>
+    <mergeCell ref="AN42:AR43"/>
+    <mergeCell ref="AS42:AV43"/>
+    <mergeCell ref="B44:C45"/>
+    <mergeCell ref="D44:H45"/>
+    <mergeCell ref="I44:Z45"/>
+    <mergeCell ref="AA44:AD45"/>
+    <mergeCell ref="AE44:AI45"/>
+    <mergeCell ref="AJ44:AM45"/>
+    <mergeCell ref="AN44:AR45"/>
+    <mergeCell ref="AS44:AV45"/>
+    <mergeCell ref="B40:C41"/>
+    <mergeCell ref="D40:H41"/>
+    <mergeCell ref="I40:Z41"/>
+    <mergeCell ref="AA40:AD41"/>
+    <mergeCell ref="AE40:AM40"/>
+    <mergeCell ref="AN40:AV40"/>
+    <mergeCell ref="AE41:AI41"/>
+    <mergeCell ref="AJ41:AM41"/>
+    <mergeCell ref="AN41:AR41"/>
+    <mergeCell ref="AS41:AV41"/>
+    <mergeCell ref="B6:AV10"/>
+    <mergeCell ref="B12:AV15"/>
+    <mergeCell ref="A34:I36"/>
+    <mergeCell ref="J34:O36"/>
+    <mergeCell ref="P34:U36"/>
+    <mergeCell ref="V34:Z35"/>
+    <mergeCell ref="AA34:AL35"/>
+    <mergeCell ref="AM34:AN34"/>
+    <mergeCell ref="AO34:AQ34"/>
+    <mergeCell ref="AR34:AS34"/>
+    <mergeCell ref="AT34:AW34"/>
+    <mergeCell ref="AM35:AN35"/>
+    <mergeCell ref="AO35:AQ35"/>
+    <mergeCell ref="AR35:AS35"/>
+    <mergeCell ref="AT35:AW35"/>
+    <mergeCell ref="V36:Z36"/>
+    <mergeCell ref="AA36:AG36"/>
+    <mergeCell ref="AH36:AL36"/>
+    <mergeCell ref="AM36:AW36"/>
+    <mergeCell ref="A1:I3"/>
+    <mergeCell ref="J1:O3"/>
+    <mergeCell ref="P1:U3"/>
+    <mergeCell ref="AA3:AG3"/>
+    <mergeCell ref="V3:Z3"/>
+    <mergeCell ref="V1:Z2"/>
+    <mergeCell ref="AA1:AL2"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="AH3:AL3"/>
+    <mergeCell ref="AM3:AW3"/>
+    <mergeCell ref="AO1:AQ1"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AO2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AW2"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AW1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -14281,8 +14281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW209"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A137" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AI48" sqref="AI48"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A141" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AM168" sqref="AM168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -14338,67 +14338,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" ht="15" thickTop="1">
-      <c r="A1" s="396" t="s">
+      <c r="A1" s="383" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="397"/>
-      <c r="C1" s="397"/>
-      <c r="D1" s="397"/>
-      <c r="E1" s="397"/>
-      <c r="F1" s="397"/>
-      <c r="G1" s="397"/>
-      <c r="H1" s="397"/>
-      <c r="I1" s="575"/>
-      <c r="J1" s="414" t="s">
+      <c r="B1" s="384"/>
+      <c r="C1" s="384"/>
+      <c r="D1" s="384"/>
+      <c r="E1" s="384"/>
+      <c r="F1" s="384"/>
+      <c r="G1" s="384"/>
+      <c r="H1" s="384"/>
+      <c r="I1" s="385"/>
+      <c r="J1" s="392" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="406"/>
-      <c r="L1" s="406"/>
-      <c r="M1" s="406"/>
-      <c r="N1" s="406"/>
-      <c r="O1" s="407"/>
-      <c r="P1" s="414" t="s">
+      <c r="K1" s="393"/>
+      <c r="L1" s="393"/>
+      <c r="M1" s="393"/>
+      <c r="N1" s="393"/>
+      <c r="O1" s="394"/>
+      <c r="P1" s="392" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="406"/>
-      <c r="R1" s="406"/>
-      <c r="S1" s="406"/>
-      <c r="T1" s="406"/>
-      <c r="U1" s="407"/>
-      <c r="V1" s="417" t="s">
+      <c r="Q1" s="393"/>
+      <c r="R1" s="393"/>
+      <c r="S1" s="393"/>
+      <c r="T1" s="393"/>
+      <c r="U1" s="394"/>
+      <c r="V1" s="407" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="418"/>
-      <c r="X1" s="418"/>
-      <c r="Y1" s="418"/>
-      <c r="Z1" s="419"/>
-      <c r="AA1" s="423" t="s">
+      <c r="W1" s="408"/>
+      <c r="X1" s="408"/>
+      <c r="Y1" s="408"/>
+      <c r="Z1" s="409"/>
+      <c r="AA1" s="413" t="s">
         <v>65</v>
       </c>
-      <c r="AB1" s="406"/>
-      <c r="AC1" s="406"/>
-      <c r="AD1" s="406"/>
-      <c r="AE1" s="406"/>
-      <c r="AF1" s="406"/>
-      <c r="AG1" s="406"/>
-      <c r="AH1" s="406"/>
-      <c r="AI1" s="406"/>
-      <c r="AJ1" s="406"/>
-      <c r="AK1" s="406"/>
-      <c r="AL1" s="407"/>
-      <c r="AM1" s="427" t="s">
+      <c r="AB1" s="393"/>
+      <c r="AC1" s="393"/>
+      <c r="AD1" s="393"/>
+      <c r="AE1" s="393"/>
+      <c r="AF1" s="393"/>
+      <c r="AG1" s="393"/>
+      <c r="AH1" s="393"/>
+      <c r="AI1" s="393"/>
+      <c r="AJ1" s="393"/>
+      <c r="AK1" s="393"/>
+      <c r="AL1" s="394"/>
+      <c r="AM1" s="415" t="s">
         <v>4</v>
       </c>
-      <c r="AN1" s="428"/>
-      <c r="AO1" s="429" t="s">
+      <c r="AN1" s="416"/>
+      <c r="AO1" s="421" t="s">
         <v>161</v>
       </c>
-      <c r="AP1" s="430"/>
-      <c r="AQ1" s="431"/>
-      <c r="AR1" s="427" t="s">
+      <c r="AP1" s="422"/>
+      <c r="AQ1" s="423"/>
+      <c r="AR1" s="415" t="s">
         <v>5</v>
       </c>
-      <c r="AS1" s="428"/>
+      <c r="AS1" s="416"/>
       <c r="AT1" s="432">
         <v>45056</v>
       </c>
@@ -14407,118 +14407,118 @@
       <c r="AW1" s="434"/>
     </row>
     <row r="2" spans="1:49">
-      <c r="A2" s="399"/>
-      <c r="B2" s="400"/>
-      <c r="C2" s="400"/>
-      <c r="D2" s="400"/>
-      <c r="E2" s="400"/>
-      <c r="F2" s="400"/>
-      <c r="G2" s="400"/>
-      <c r="H2" s="400"/>
-      <c r="I2" s="576"/>
-      <c r="J2" s="415"/>
-      <c r="K2" s="620"/>
-      <c r="L2" s="620"/>
-      <c r="M2" s="620"/>
-      <c r="N2" s="620"/>
-      <c r="O2" s="410"/>
-      <c r="P2" s="415"/>
-      <c r="Q2" s="620"/>
-      <c r="R2" s="620"/>
-      <c r="S2" s="620"/>
-      <c r="T2" s="620"/>
-      <c r="U2" s="410"/>
-      <c r="V2" s="578"/>
-      <c r="W2" s="621"/>
-      <c r="X2" s="621"/>
-      <c r="Y2" s="621"/>
-      <c r="Z2" s="580"/>
-      <c r="AA2" s="408"/>
-      <c r="AB2" s="620"/>
-      <c r="AC2" s="620"/>
-      <c r="AD2" s="620"/>
-      <c r="AE2" s="620"/>
-      <c r="AF2" s="620"/>
-      <c r="AG2" s="620"/>
-      <c r="AH2" s="620"/>
-      <c r="AI2" s="620"/>
-      <c r="AJ2" s="620"/>
-      <c r="AK2" s="620"/>
-      <c r="AL2" s="410"/>
-      <c r="AM2" s="435" t="s">
+      <c r="A2" s="386"/>
+      <c r="B2" s="387"/>
+      <c r="C2" s="387"/>
+      <c r="D2" s="387"/>
+      <c r="E2" s="387"/>
+      <c r="F2" s="387"/>
+      <c r="G2" s="387"/>
+      <c r="H2" s="387"/>
+      <c r="I2" s="388"/>
+      <c r="J2" s="395"/>
+      <c r="K2" s="599"/>
+      <c r="L2" s="599"/>
+      <c r="M2" s="599"/>
+      <c r="N2" s="599"/>
+      <c r="O2" s="397"/>
+      <c r="P2" s="395"/>
+      <c r="Q2" s="599"/>
+      <c r="R2" s="599"/>
+      <c r="S2" s="599"/>
+      <c r="T2" s="599"/>
+      <c r="U2" s="397"/>
+      <c r="V2" s="410"/>
+      <c r="W2" s="600"/>
+      <c r="X2" s="600"/>
+      <c r="Y2" s="600"/>
+      <c r="Z2" s="412"/>
+      <c r="AA2" s="414"/>
+      <c r="AB2" s="599"/>
+      <c r="AC2" s="599"/>
+      <c r="AD2" s="599"/>
+      <c r="AE2" s="599"/>
+      <c r="AF2" s="599"/>
+      <c r="AG2" s="599"/>
+      <c r="AH2" s="599"/>
+      <c r="AI2" s="599"/>
+      <c r="AJ2" s="599"/>
+      <c r="AK2" s="599"/>
+      <c r="AL2" s="397"/>
+      <c r="AM2" s="424" t="s">
         <v>6</v>
       </c>
-      <c r="AN2" s="436"/>
-      <c r="AO2" s="437"/>
-      <c r="AP2" s="438"/>
-      <c r="AQ2" s="439"/>
-      <c r="AR2" s="435" t="s">
+      <c r="AN2" s="425"/>
+      <c r="AO2" s="426"/>
+      <c r="AP2" s="427"/>
+      <c r="AQ2" s="428"/>
+      <c r="AR2" s="424" t="s">
         <v>7</v>
       </c>
-      <c r="AS2" s="436"/>
-      <c r="AT2" s="440"/>
-      <c r="AU2" s="441"/>
-      <c r="AV2" s="441"/>
-      <c r="AW2" s="442"/>
+      <c r="AS2" s="425"/>
+      <c r="AT2" s="429"/>
+      <c r="AU2" s="430"/>
+      <c r="AV2" s="430"/>
+      <c r="AW2" s="431"/>
     </row>
     <row r="3" spans="1:49" ht="15" thickBot="1">
-      <c r="A3" s="402"/>
-      <c r="B3" s="403"/>
-      <c r="C3" s="403"/>
-      <c r="D3" s="403"/>
-      <c r="E3" s="403"/>
-      <c r="F3" s="403"/>
-      <c r="G3" s="403"/>
-      <c r="H3" s="403"/>
-      <c r="I3" s="577"/>
-      <c r="J3" s="416"/>
-      <c r="K3" s="412"/>
-      <c r="L3" s="412"/>
-      <c r="M3" s="412"/>
-      <c r="N3" s="412"/>
-      <c r="O3" s="413"/>
-      <c r="P3" s="416"/>
-      <c r="Q3" s="412"/>
-      <c r="R3" s="412"/>
-      <c r="S3" s="412"/>
-      <c r="T3" s="412"/>
-      <c r="U3" s="413"/>
-      <c r="V3" s="443" t="s">
+      <c r="A3" s="389"/>
+      <c r="B3" s="390"/>
+      <c r="C3" s="390"/>
+      <c r="D3" s="390"/>
+      <c r="E3" s="390"/>
+      <c r="F3" s="390"/>
+      <c r="G3" s="390"/>
+      <c r="H3" s="390"/>
+      <c r="I3" s="391"/>
+      <c r="J3" s="398"/>
+      <c r="K3" s="399"/>
+      <c r="L3" s="399"/>
+      <c r="M3" s="399"/>
+      <c r="N3" s="399"/>
+      <c r="O3" s="400"/>
+      <c r="P3" s="398"/>
+      <c r="Q3" s="399"/>
+      <c r="R3" s="399"/>
+      <c r="S3" s="399"/>
+      <c r="T3" s="399"/>
+      <c r="U3" s="400"/>
+      <c r="V3" s="404" t="s">
         <v>8</v>
       </c>
-      <c r="W3" s="444"/>
-      <c r="X3" s="444"/>
-      <c r="Y3" s="444"/>
-      <c r="Z3" s="445"/>
-      <c r="AA3" s="393" t="s">
+      <c r="W3" s="405"/>
+      <c r="X3" s="405"/>
+      <c r="Y3" s="405"/>
+      <c r="Z3" s="406"/>
+      <c r="AA3" s="401" t="s">
         <v>74</v>
       </c>
-      <c r="AB3" s="394"/>
-      <c r="AC3" s="394"/>
-      <c r="AD3" s="394"/>
-      <c r="AE3" s="394"/>
-      <c r="AF3" s="394"/>
-      <c r="AG3" s="446"/>
-      <c r="AH3" s="447" t="s">
+      <c r="AB3" s="402"/>
+      <c r="AC3" s="402"/>
+      <c r="AD3" s="402"/>
+      <c r="AE3" s="402"/>
+      <c r="AF3" s="402"/>
+      <c r="AG3" s="403"/>
+      <c r="AH3" s="417" t="s">
         <v>9</v>
       </c>
-      <c r="AI3" s="448"/>
-      <c r="AJ3" s="448"/>
-      <c r="AK3" s="448"/>
-      <c r="AL3" s="449"/>
-      <c r="AM3" s="393" t="s">
+      <c r="AI3" s="418"/>
+      <c r="AJ3" s="418"/>
+      <c r="AK3" s="418"/>
+      <c r="AL3" s="419"/>
+      <c r="AM3" s="401" t="s">
         <v>67</v>
       </c>
-      <c r="AN3" s="394"/>
-      <c r="AO3" s="394"/>
-      <c r="AP3" s="394"/>
-      <c r="AQ3" s="394"/>
-      <c r="AR3" s="394"/>
-      <c r="AS3" s="394"/>
-      <c r="AT3" s="394"/>
-      <c r="AU3" s="394"/>
-      <c r="AV3" s="394"/>
-      <c r="AW3" s="395"/>
+      <c r="AN3" s="402"/>
+      <c r="AO3" s="402"/>
+      <c r="AP3" s="402"/>
+      <c r="AQ3" s="402"/>
+      <c r="AR3" s="402"/>
+      <c r="AS3" s="402"/>
+      <c r="AT3" s="402"/>
+      <c r="AU3" s="402"/>
+      <c r="AV3" s="402"/>
+      <c r="AW3" s="420"/>
     </row>
     <row r="4" spans="1:49" ht="15" thickTop="1"/>
     <row r="5" spans="1:49">
@@ -15041,67 +15041,67 @@
     </row>
     <row r="33" spans="1:49" ht="15" thickBot="1"/>
     <row r="34" spans="1:49" ht="15" customHeight="1" thickTop="1">
-      <c r="A34" s="617" t="s">
+      <c r="A34" s="596" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="397"/>
-      <c r="C34" s="397"/>
-      <c r="D34" s="397"/>
-      <c r="E34" s="397"/>
-      <c r="F34" s="397"/>
-      <c r="G34" s="397"/>
-      <c r="H34" s="397"/>
-      <c r="I34" s="575"/>
-      <c r="J34" s="414" t="s">
+      <c r="B34" s="384"/>
+      <c r="C34" s="384"/>
+      <c r="D34" s="384"/>
+      <c r="E34" s="384"/>
+      <c r="F34" s="384"/>
+      <c r="G34" s="384"/>
+      <c r="H34" s="384"/>
+      <c r="I34" s="385"/>
+      <c r="J34" s="392" t="s">
         <v>1</v>
       </c>
-      <c r="K34" s="406"/>
-      <c r="L34" s="406"/>
-      <c r="M34" s="406"/>
-      <c r="N34" s="406"/>
-      <c r="O34" s="407"/>
-      <c r="P34" s="414" t="s">
+      <c r="K34" s="393"/>
+      <c r="L34" s="393"/>
+      <c r="M34" s="393"/>
+      <c r="N34" s="393"/>
+      <c r="O34" s="394"/>
+      <c r="P34" s="392" t="s">
         <v>2</v>
       </c>
-      <c r="Q34" s="406"/>
-      <c r="R34" s="406"/>
-      <c r="S34" s="406"/>
-      <c r="T34" s="406"/>
-      <c r="U34" s="407"/>
-      <c r="V34" s="417" t="s">
+      <c r="Q34" s="393"/>
+      <c r="R34" s="393"/>
+      <c r="S34" s="393"/>
+      <c r="T34" s="393"/>
+      <c r="U34" s="394"/>
+      <c r="V34" s="407" t="s">
         <v>3</v>
       </c>
-      <c r="W34" s="418"/>
-      <c r="X34" s="418"/>
-      <c r="Y34" s="418"/>
-      <c r="Z34" s="419"/>
-      <c r="AA34" s="423" t="s">
+      <c r="W34" s="408"/>
+      <c r="X34" s="408"/>
+      <c r="Y34" s="408"/>
+      <c r="Z34" s="409"/>
+      <c r="AA34" s="413" t="s">
         <v>65</v>
       </c>
-      <c r="AB34" s="406"/>
-      <c r="AC34" s="406"/>
-      <c r="AD34" s="406"/>
-      <c r="AE34" s="406"/>
-      <c r="AF34" s="406"/>
-      <c r="AG34" s="406"/>
-      <c r="AH34" s="406"/>
-      <c r="AI34" s="406"/>
-      <c r="AJ34" s="406"/>
-      <c r="AK34" s="406"/>
-      <c r="AL34" s="407"/>
-      <c r="AM34" s="427" t="s">
+      <c r="AB34" s="393"/>
+      <c r="AC34" s="393"/>
+      <c r="AD34" s="393"/>
+      <c r="AE34" s="393"/>
+      <c r="AF34" s="393"/>
+      <c r="AG34" s="393"/>
+      <c r="AH34" s="393"/>
+      <c r="AI34" s="393"/>
+      <c r="AJ34" s="393"/>
+      <c r="AK34" s="393"/>
+      <c r="AL34" s="394"/>
+      <c r="AM34" s="415" t="s">
         <v>4</v>
       </c>
-      <c r="AN34" s="428"/>
-      <c r="AO34" s="429" t="s">
+      <c r="AN34" s="416"/>
+      <c r="AO34" s="421" t="s">
         <v>151</v>
       </c>
-      <c r="AP34" s="430"/>
-      <c r="AQ34" s="431"/>
-      <c r="AR34" s="427" t="s">
+      <c r="AP34" s="422"/>
+      <c r="AQ34" s="423"/>
+      <c r="AR34" s="415" t="s">
         <v>5</v>
       </c>
-      <c r="AS34" s="428"/>
+      <c r="AS34" s="416"/>
       <c r="AT34" s="432">
         <v>45056</v>
       </c>
@@ -15110,118 +15110,118 @@
       <c r="AW34" s="434"/>
     </row>
     <row r="35" spans="1:49">
-      <c r="A35" s="618"/>
-      <c r="B35" s="619"/>
-      <c r="C35" s="619"/>
-      <c r="D35" s="619"/>
-      <c r="E35" s="619"/>
-      <c r="F35" s="619"/>
-      <c r="G35" s="619"/>
-      <c r="H35" s="619"/>
-      <c r="I35" s="576"/>
-      <c r="J35" s="415"/>
-      <c r="K35" s="620"/>
-      <c r="L35" s="620"/>
-      <c r="M35" s="620"/>
-      <c r="N35" s="620"/>
-      <c r="O35" s="410"/>
-      <c r="P35" s="415"/>
-      <c r="Q35" s="620"/>
-      <c r="R35" s="620"/>
-      <c r="S35" s="620"/>
-      <c r="T35" s="620"/>
-      <c r="U35" s="410"/>
-      <c r="V35" s="578"/>
-      <c r="W35" s="621"/>
-      <c r="X35" s="621"/>
-      <c r="Y35" s="621"/>
-      <c r="Z35" s="580"/>
-      <c r="AA35" s="408"/>
-      <c r="AB35" s="620"/>
-      <c r="AC35" s="620"/>
-      <c r="AD35" s="620"/>
-      <c r="AE35" s="620"/>
-      <c r="AF35" s="620"/>
-      <c r="AG35" s="620"/>
-      <c r="AH35" s="620"/>
-      <c r="AI35" s="620"/>
-      <c r="AJ35" s="620"/>
-      <c r="AK35" s="620"/>
-      <c r="AL35" s="410"/>
-      <c r="AM35" s="435" t="s">
+      <c r="A35" s="597"/>
+      <c r="B35" s="598"/>
+      <c r="C35" s="598"/>
+      <c r="D35" s="598"/>
+      <c r="E35" s="598"/>
+      <c r="F35" s="598"/>
+      <c r="G35" s="598"/>
+      <c r="H35" s="598"/>
+      <c r="I35" s="388"/>
+      <c r="J35" s="395"/>
+      <c r="K35" s="599"/>
+      <c r="L35" s="599"/>
+      <c r="M35" s="599"/>
+      <c r="N35" s="599"/>
+      <c r="O35" s="397"/>
+      <c r="P35" s="395"/>
+      <c r="Q35" s="599"/>
+      <c r="R35" s="599"/>
+      <c r="S35" s="599"/>
+      <c r="T35" s="599"/>
+      <c r="U35" s="397"/>
+      <c r="V35" s="410"/>
+      <c r="W35" s="600"/>
+      <c r="X35" s="600"/>
+      <c r="Y35" s="600"/>
+      <c r="Z35" s="412"/>
+      <c r="AA35" s="414"/>
+      <c r="AB35" s="599"/>
+      <c r="AC35" s="599"/>
+      <c r="AD35" s="599"/>
+      <c r="AE35" s="599"/>
+      <c r="AF35" s="599"/>
+      <c r="AG35" s="599"/>
+      <c r="AH35" s="599"/>
+      <c r="AI35" s="599"/>
+      <c r="AJ35" s="599"/>
+      <c r="AK35" s="599"/>
+      <c r="AL35" s="397"/>
+      <c r="AM35" s="424" t="s">
         <v>6</v>
       </c>
-      <c r="AN35" s="436"/>
-      <c r="AO35" s="437"/>
-      <c r="AP35" s="438"/>
-      <c r="AQ35" s="439"/>
-      <c r="AR35" s="435" t="s">
+      <c r="AN35" s="425"/>
+      <c r="AO35" s="426"/>
+      <c r="AP35" s="427"/>
+      <c r="AQ35" s="428"/>
+      <c r="AR35" s="424" t="s">
         <v>7</v>
       </c>
-      <c r="AS35" s="436"/>
-      <c r="AT35" s="440"/>
-      <c r="AU35" s="441"/>
-      <c r="AV35" s="441"/>
-      <c r="AW35" s="442"/>
+      <c r="AS35" s="425"/>
+      <c r="AT35" s="429"/>
+      <c r="AU35" s="430"/>
+      <c r="AV35" s="430"/>
+      <c r="AW35" s="431"/>
     </row>
     <row r="36" spans="1:49" ht="15" thickBot="1">
-      <c r="A36" s="618"/>
-      <c r="B36" s="400"/>
-      <c r="C36" s="403"/>
-      <c r="D36" s="403"/>
-      <c r="E36" s="403"/>
-      <c r="F36" s="403"/>
-      <c r="G36" s="403"/>
-      <c r="H36" s="403"/>
-      <c r="I36" s="577"/>
-      <c r="J36" s="416"/>
-      <c r="K36" s="412"/>
-      <c r="L36" s="412"/>
-      <c r="M36" s="412"/>
-      <c r="N36" s="412"/>
-      <c r="O36" s="413"/>
-      <c r="P36" s="416"/>
-      <c r="Q36" s="412"/>
-      <c r="R36" s="412"/>
-      <c r="S36" s="412"/>
-      <c r="T36" s="412"/>
-      <c r="U36" s="413"/>
-      <c r="V36" s="443" t="s">
+      <c r="A36" s="597"/>
+      <c r="B36" s="387"/>
+      <c r="C36" s="390"/>
+      <c r="D36" s="390"/>
+      <c r="E36" s="390"/>
+      <c r="F36" s="390"/>
+      <c r="G36" s="390"/>
+      <c r="H36" s="390"/>
+      <c r="I36" s="391"/>
+      <c r="J36" s="398"/>
+      <c r="K36" s="399"/>
+      <c r="L36" s="399"/>
+      <c r="M36" s="399"/>
+      <c r="N36" s="399"/>
+      <c r="O36" s="400"/>
+      <c r="P36" s="398"/>
+      <c r="Q36" s="399"/>
+      <c r="R36" s="399"/>
+      <c r="S36" s="399"/>
+      <c r="T36" s="399"/>
+      <c r="U36" s="400"/>
+      <c r="V36" s="404" t="s">
         <v>8</v>
       </c>
-      <c r="W36" s="444"/>
-      <c r="X36" s="444"/>
-      <c r="Y36" s="444"/>
-      <c r="Z36" s="445"/>
-      <c r="AA36" s="393" t="s">
+      <c r="W36" s="405"/>
+      <c r="X36" s="405"/>
+      <c r="Y36" s="405"/>
+      <c r="Z36" s="406"/>
+      <c r="AA36" s="401" t="s">
         <v>74</v>
       </c>
-      <c r="AB36" s="394"/>
-      <c r="AC36" s="394"/>
-      <c r="AD36" s="394"/>
-      <c r="AE36" s="394"/>
-      <c r="AF36" s="394"/>
-      <c r="AG36" s="446"/>
-      <c r="AH36" s="447" t="s">
+      <c r="AB36" s="402"/>
+      <c r="AC36" s="402"/>
+      <c r="AD36" s="402"/>
+      <c r="AE36" s="402"/>
+      <c r="AF36" s="402"/>
+      <c r="AG36" s="403"/>
+      <c r="AH36" s="417" t="s">
         <v>9</v>
       </c>
-      <c r="AI36" s="448"/>
-      <c r="AJ36" s="448"/>
-      <c r="AK36" s="448"/>
-      <c r="AL36" s="449"/>
-      <c r="AM36" s="393" t="s">
+      <c r="AI36" s="418"/>
+      <c r="AJ36" s="418"/>
+      <c r="AK36" s="418"/>
+      <c r="AL36" s="419"/>
+      <c r="AM36" s="401" t="s">
         <v>67</v>
       </c>
-      <c r="AN36" s="394"/>
-      <c r="AO36" s="394"/>
-      <c r="AP36" s="394"/>
-      <c r="AQ36" s="394"/>
-      <c r="AR36" s="394"/>
-      <c r="AS36" s="394"/>
-      <c r="AT36" s="394"/>
-      <c r="AU36" s="394"/>
-      <c r="AV36" s="394"/>
-      <c r="AW36" s="574"/>
+      <c r="AN36" s="402"/>
+      <c r="AO36" s="402"/>
+      <c r="AP36" s="402"/>
+      <c r="AQ36" s="402"/>
+      <c r="AR36" s="402"/>
+      <c r="AS36" s="402"/>
+      <c r="AT36" s="402"/>
+      <c r="AU36" s="402"/>
+      <c r="AV36" s="402"/>
+      <c r="AW36" s="449"/>
     </row>
     <row r="37" spans="1:49" ht="15" thickTop="1">
       <c r="A37" s="277"/>
@@ -16562,20 +16562,20 @@
       </c>
       <c r="L61" s="15"/>
       <c r="M61" s="15"/>
-      <c r="N61" s="587" t="s">
+      <c r="N61" s="627" t="s">
         <v>210</v>
       </c>
-      <c r="O61" s="588"/>
-      <c r="P61" s="589"/>
-      <c r="Q61" s="584" t="s">
+      <c r="O61" s="628"/>
+      <c r="P61" s="629"/>
+      <c r="Q61" s="624" t="s">
         <v>102</v>
       </c>
-      <c r="R61" s="585"/>
-      <c r="S61" s="586"/>
-      <c r="T61" s="593" t="s">
+      <c r="R61" s="625"/>
+      <c r="S61" s="626"/>
+      <c r="T61" s="630" t="s">
         <v>103</v>
       </c>
-      <c r="U61" s="594"/>
+      <c r="U61" s="631"/>
       <c r="V61" s="13" t="s">
         <v>149</v>
       </c>
@@ -16628,20 +16628,20 @@
       </c>
       <c r="L62" s="20"/>
       <c r="M62" s="20"/>
-      <c r="N62" s="590" t="s">
+      <c r="N62" s="618" t="s">
         <v>210</v>
       </c>
-      <c r="O62" s="591"/>
-      <c r="P62" s="592"/>
-      <c r="Q62" s="581" t="s">
+      <c r="O62" s="619"/>
+      <c r="P62" s="620"/>
+      <c r="Q62" s="621" t="s">
         <v>102</v>
       </c>
-      <c r="R62" s="582"/>
-      <c r="S62" s="583"/>
-      <c r="T62" s="595" t="s">
+      <c r="R62" s="622"/>
+      <c r="S62" s="623"/>
+      <c r="T62" s="632" t="s">
         <v>103</v>
       </c>
-      <c r="U62" s="596"/>
+      <c r="U62" s="633"/>
       <c r="V62" s="18" t="s">
         <v>149</v>
       </c>
@@ -16694,20 +16694,20 @@
       </c>
       <c r="L63" s="20"/>
       <c r="M63" s="20"/>
-      <c r="N63" s="590">
+      <c r="N63" s="618">
         <v>10</v>
       </c>
-      <c r="O63" s="591"/>
-      <c r="P63" s="592"/>
-      <c r="Q63" s="581" t="s">
+      <c r="O63" s="619"/>
+      <c r="P63" s="620"/>
+      <c r="Q63" s="621" t="s">
         <v>102</v>
       </c>
-      <c r="R63" s="582"/>
-      <c r="S63" s="583"/>
-      <c r="T63" s="595" t="s">
+      <c r="R63" s="622"/>
+      <c r="S63" s="623"/>
+      <c r="T63" s="632" t="s">
         <v>103</v>
       </c>
-      <c r="U63" s="596"/>
+      <c r="U63" s="633"/>
       <c r="V63" s="18" t="s">
         <v>149</v>
       </c>
@@ -16760,20 +16760,20 @@
       </c>
       <c r="L64" s="26"/>
       <c r="M64" s="26"/>
-      <c r="N64" s="599">
+      <c r="N64" s="615">
         <v>12</v>
       </c>
-      <c r="O64" s="600"/>
-      <c r="P64" s="601"/>
-      <c r="Q64" s="581" t="s">
+      <c r="O64" s="616"/>
+      <c r="P64" s="617"/>
+      <c r="Q64" s="621" t="s">
         <v>102</v>
       </c>
-      <c r="R64" s="582"/>
-      <c r="S64" s="583"/>
-      <c r="T64" s="595" t="s">
+      <c r="R64" s="622"/>
+      <c r="S64" s="623"/>
+      <c r="T64" s="632" t="s">
         <v>103</v>
       </c>
-      <c r="U64" s="596"/>
+      <c r="U64" s="633"/>
       <c r="V64" s="24" t="s">
         <v>149</v>
       </c>
@@ -16831,15 +16831,15 @@
         <v>121</v>
       </c>
       <c r="P65" s="112"/>
-      <c r="Q65" s="581" t="s">
+      <c r="Q65" s="621" t="s">
         <v>102</v>
       </c>
-      <c r="R65" s="582"/>
-      <c r="S65" s="583"/>
-      <c r="T65" s="595" t="s">
+      <c r="R65" s="622"/>
+      <c r="S65" s="623"/>
+      <c r="T65" s="632" t="s">
         <v>103</v>
       </c>
-      <c r="U65" s="596"/>
+      <c r="U65" s="633"/>
       <c r="V65" s="24" t="s">
         <v>54</v>
       </c>
@@ -16892,20 +16892,20 @@
       </c>
       <c r="L66" s="26"/>
       <c r="M66" s="21"/>
-      <c r="N66" s="590" t="s">
+      <c r="N66" s="618" t="s">
         <v>210</v>
       </c>
-      <c r="O66" s="591"/>
-      <c r="P66" s="592"/>
-      <c r="Q66" s="581" t="s">
+      <c r="O66" s="619"/>
+      <c r="P66" s="620"/>
+      <c r="Q66" s="621" t="s">
         <v>102</v>
       </c>
-      <c r="R66" s="582"/>
-      <c r="S66" s="583"/>
-      <c r="T66" s="595" t="s">
+      <c r="R66" s="622"/>
+      <c r="S66" s="623"/>
+      <c r="T66" s="632" t="s">
         <v>103</v>
       </c>
-      <c r="U66" s="596"/>
+      <c r="U66" s="633"/>
       <c r="V66" s="24" t="s">
         <v>149</v>
       </c>
@@ -16958,20 +16958,20 @@
       </c>
       <c r="L67" s="309"/>
       <c r="M67" s="310"/>
-      <c r="N67" s="597" t="s">
+      <c r="N67" s="612" t="s">
         <v>153</v>
       </c>
-      <c r="O67" s="602"/>
-      <c r="P67" s="598"/>
-      <c r="Q67" s="597" t="s">
+      <c r="O67" s="613"/>
+      <c r="P67" s="614"/>
+      <c r="Q67" s="612" t="s">
         <v>102</v>
       </c>
-      <c r="R67" s="602"/>
-      <c r="S67" s="598"/>
-      <c r="T67" s="597" t="s">
+      <c r="R67" s="613"/>
+      <c r="S67" s="614"/>
+      <c r="T67" s="612" t="s">
         <v>103</v>
       </c>
-      <c r="U67" s="598"/>
+      <c r="U67" s="614"/>
       <c r="V67" s="309" t="s">
         <v>150</v>
       </c>
@@ -17012,67 +17012,67 @@
       <c r="C68" s="150">
         <v>8</v>
       </c>
-      <c r="D68" s="627" t="s">
+      <c r="D68" s="581" t="s">
         <v>105</v>
       </c>
-      <c r="E68" s="628"/>
-      <c r="F68" s="628"/>
-      <c r="G68" s="628"/>
-      <c r="H68" s="628"/>
-      <c r="I68" s="629"/>
-      <c r="J68" s="628" t="s">
+      <c r="E68" s="582"/>
+      <c r="F68" s="582"/>
+      <c r="G68" s="582"/>
+      <c r="H68" s="582"/>
+      <c r="I68" s="583"/>
+      <c r="J68" s="582" t="s">
         <v>106</v>
       </c>
-      <c r="K68" s="628"/>
-      <c r="L68" s="628"/>
-      <c r="M68" s="629"/>
-      <c r="N68" s="630" t="s">
+      <c r="K68" s="582"/>
+      <c r="L68" s="582"/>
+      <c r="M68" s="583"/>
+      <c r="N68" s="584" t="s">
         <v>153</v>
       </c>
-      <c r="O68" s="631"/>
-      <c r="P68" s="632"/>
-      <c r="Q68" s="631" t="s">
+      <c r="O68" s="585"/>
+      <c r="P68" s="586"/>
+      <c r="Q68" s="585" t="s">
         <v>102</v>
       </c>
-      <c r="R68" s="631"/>
-      <c r="S68" s="632"/>
-      <c r="T68" s="630" t="s">
+      <c r="R68" s="585"/>
+      <c r="S68" s="586"/>
+      <c r="T68" s="584" t="s">
         <v>103</v>
       </c>
-      <c r="U68" s="632"/>
-      <c r="V68" s="628" t="s">
+      <c r="U68" s="586"/>
+      <c r="V68" s="582" t="s">
         <v>150</v>
       </c>
-      <c r="W68" s="628"/>
-      <c r="X68" s="628"/>
-      <c r="Y68" s="629"/>
-      <c r="Z68" s="606" t="s">
+      <c r="W68" s="582"/>
+      <c r="X68" s="582"/>
+      <c r="Y68" s="583"/>
+      <c r="Z68" s="587" t="s">
         <v>107</v>
       </c>
-      <c r="AA68" s="607"/>
-      <c r="AB68" s="607"/>
-      <c r="AC68" s="608"/>
-      <c r="AD68" s="606" t="s">
+      <c r="AA68" s="588"/>
+      <c r="AB68" s="588"/>
+      <c r="AC68" s="589"/>
+      <c r="AD68" s="587" t="s">
         <v>109</v>
       </c>
-      <c r="AE68" s="607"/>
-      <c r="AF68" s="607"/>
-      <c r="AG68" s="607"/>
-      <c r="AH68" s="607"/>
-      <c r="AI68" s="607"/>
-      <c r="AJ68" s="607"/>
-      <c r="AK68" s="607"/>
-      <c r="AL68" s="607"/>
-      <c r="AM68" s="607"/>
-      <c r="AN68" s="607"/>
-      <c r="AO68" s="607"/>
-      <c r="AP68" s="607"/>
-      <c r="AQ68" s="607"/>
-      <c r="AR68" s="607"/>
-      <c r="AS68" s="607"/>
-      <c r="AT68" s="607"/>
-      <c r="AU68" s="607"/>
-      <c r="AV68" s="608"/>
+      <c r="AE68" s="588"/>
+      <c r="AF68" s="588"/>
+      <c r="AG68" s="588"/>
+      <c r="AH68" s="588"/>
+      <c r="AI68" s="588"/>
+      <c r="AJ68" s="588"/>
+      <c r="AK68" s="588"/>
+      <c r="AL68" s="588"/>
+      <c r="AM68" s="588"/>
+      <c r="AN68" s="588"/>
+      <c r="AO68" s="588"/>
+      <c r="AP68" s="588"/>
+      <c r="AQ68" s="588"/>
+      <c r="AR68" s="588"/>
+      <c r="AS68" s="588"/>
+      <c r="AT68" s="588"/>
+      <c r="AU68" s="588"/>
+      <c r="AV68" s="589"/>
       <c r="AW68" s="242"/>
     </row>
     <row r="69" spans="1:49" ht="15" thickBot="1">
@@ -17080,67 +17080,67 @@
       <c r="AW69" s="242"/>
     </row>
     <row r="70" spans="1:49" ht="15" thickTop="1">
-      <c r="A70" s="396" t="s">
+      <c r="A70" s="383" t="s">
         <v>0</v>
       </c>
-      <c r="B70" s="609"/>
-      <c r="C70" s="609"/>
-      <c r="D70" s="609"/>
-      <c r="E70" s="609"/>
-      <c r="F70" s="609"/>
-      <c r="G70" s="609"/>
-      <c r="H70" s="609"/>
-      <c r="I70" s="610"/>
-      <c r="J70" s="414" t="s">
+      <c r="B70" s="601"/>
+      <c r="C70" s="601"/>
+      <c r="D70" s="601"/>
+      <c r="E70" s="601"/>
+      <c r="F70" s="601"/>
+      <c r="G70" s="601"/>
+      <c r="H70" s="601"/>
+      <c r="I70" s="602"/>
+      <c r="J70" s="392" t="s">
         <v>1</v>
       </c>
-      <c r="K70" s="406"/>
-      <c r="L70" s="406"/>
-      <c r="M70" s="406"/>
-      <c r="N70" s="406"/>
-      <c r="O70" s="407"/>
-      <c r="P70" s="414" t="s">
+      <c r="K70" s="393"/>
+      <c r="L70" s="393"/>
+      <c r="M70" s="393"/>
+      <c r="N70" s="393"/>
+      <c r="O70" s="394"/>
+      <c r="P70" s="392" t="s">
         <v>2</v>
       </c>
-      <c r="Q70" s="406"/>
-      <c r="R70" s="406"/>
-      <c r="S70" s="406"/>
-      <c r="T70" s="406"/>
-      <c r="U70" s="407"/>
-      <c r="V70" s="417" t="s">
+      <c r="Q70" s="393"/>
+      <c r="R70" s="393"/>
+      <c r="S70" s="393"/>
+      <c r="T70" s="393"/>
+      <c r="U70" s="394"/>
+      <c r="V70" s="407" t="s">
         <v>3</v>
       </c>
-      <c r="W70" s="418"/>
-      <c r="X70" s="418"/>
-      <c r="Y70" s="418"/>
-      <c r="Z70" s="419"/>
-      <c r="AA70" s="423" t="s">
+      <c r="W70" s="408"/>
+      <c r="X70" s="408"/>
+      <c r="Y70" s="408"/>
+      <c r="Z70" s="409"/>
+      <c r="AA70" s="413" t="s">
         <v>65</v>
       </c>
-      <c r="AB70" s="406"/>
-      <c r="AC70" s="406"/>
-      <c r="AD70" s="406"/>
-      <c r="AE70" s="406"/>
-      <c r="AF70" s="406"/>
-      <c r="AG70" s="406"/>
-      <c r="AH70" s="406"/>
-      <c r="AI70" s="406"/>
-      <c r="AJ70" s="406"/>
-      <c r="AK70" s="406"/>
-      <c r="AL70" s="407"/>
-      <c r="AM70" s="427" t="s">
+      <c r="AB70" s="393"/>
+      <c r="AC70" s="393"/>
+      <c r="AD70" s="393"/>
+      <c r="AE70" s="393"/>
+      <c r="AF70" s="393"/>
+      <c r="AG70" s="393"/>
+      <c r="AH70" s="393"/>
+      <c r="AI70" s="393"/>
+      <c r="AJ70" s="393"/>
+      <c r="AK70" s="393"/>
+      <c r="AL70" s="394"/>
+      <c r="AM70" s="415" t="s">
         <v>4</v>
       </c>
-      <c r="AN70" s="428"/>
-      <c r="AO70" s="429" t="s">
+      <c r="AN70" s="416"/>
+      <c r="AO70" s="421" t="s">
         <v>151</v>
       </c>
-      <c r="AP70" s="430"/>
-      <c r="AQ70" s="431"/>
-      <c r="AR70" s="427" t="s">
+      <c r="AP70" s="422"/>
+      <c r="AQ70" s="423"/>
+      <c r="AR70" s="415" t="s">
         <v>5</v>
       </c>
-      <c r="AS70" s="428"/>
+      <c r="AS70" s="416"/>
       <c r="AT70" s="432">
         <v>45056</v>
       </c>
@@ -17149,118 +17149,118 @@
       <c r="AW70" s="434"/>
     </row>
     <row r="71" spans="1:49">
-      <c r="A71" s="611"/>
-      <c r="B71" s="612"/>
-      <c r="C71" s="612"/>
-      <c r="D71" s="612"/>
-      <c r="E71" s="612"/>
-      <c r="F71" s="612"/>
-      <c r="G71" s="612"/>
-      <c r="H71" s="612"/>
-      <c r="I71" s="613"/>
-      <c r="J71" s="415"/>
-      <c r="K71" s="409"/>
-      <c r="L71" s="409"/>
-      <c r="M71" s="409"/>
-      <c r="N71" s="409"/>
-      <c r="O71" s="410"/>
-      <c r="P71" s="415"/>
-      <c r="Q71" s="409"/>
-      <c r="R71" s="409"/>
-      <c r="S71" s="409"/>
-      <c r="T71" s="409"/>
-      <c r="U71" s="410"/>
-      <c r="V71" s="578"/>
-      <c r="W71" s="579"/>
-      <c r="X71" s="579"/>
-      <c r="Y71" s="579"/>
-      <c r="Z71" s="580"/>
-      <c r="AA71" s="408"/>
-      <c r="AB71" s="409"/>
-      <c r="AC71" s="409"/>
-      <c r="AD71" s="409"/>
-      <c r="AE71" s="409"/>
-      <c r="AF71" s="409"/>
-      <c r="AG71" s="409"/>
-      <c r="AH71" s="409"/>
-      <c r="AI71" s="409"/>
-      <c r="AJ71" s="409"/>
-      <c r="AK71" s="409"/>
-      <c r="AL71" s="410"/>
-      <c r="AM71" s="435" t="s">
+      <c r="A71" s="603"/>
+      <c r="B71" s="604"/>
+      <c r="C71" s="604"/>
+      <c r="D71" s="604"/>
+      <c r="E71" s="604"/>
+      <c r="F71" s="604"/>
+      <c r="G71" s="604"/>
+      <c r="H71" s="604"/>
+      <c r="I71" s="605"/>
+      <c r="J71" s="395"/>
+      <c r="K71" s="396"/>
+      <c r="L71" s="396"/>
+      <c r="M71" s="396"/>
+      <c r="N71" s="396"/>
+      <c r="O71" s="397"/>
+      <c r="P71" s="395"/>
+      <c r="Q71" s="396"/>
+      <c r="R71" s="396"/>
+      <c r="S71" s="396"/>
+      <c r="T71" s="396"/>
+      <c r="U71" s="397"/>
+      <c r="V71" s="410"/>
+      <c r="W71" s="411"/>
+      <c r="X71" s="411"/>
+      <c r="Y71" s="411"/>
+      <c r="Z71" s="412"/>
+      <c r="AA71" s="414"/>
+      <c r="AB71" s="396"/>
+      <c r="AC71" s="396"/>
+      <c r="AD71" s="396"/>
+      <c r="AE71" s="396"/>
+      <c r="AF71" s="396"/>
+      <c r="AG71" s="396"/>
+      <c r="AH71" s="396"/>
+      <c r="AI71" s="396"/>
+      <c r="AJ71" s="396"/>
+      <c r="AK71" s="396"/>
+      <c r="AL71" s="397"/>
+      <c r="AM71" s="424" t="s">
         <v>6</v>
       </c>
-      <c r="AN71" s="436"/>
-      <c r="AO71" s="437"/>
-      <c r="AP71" s="438"/>
-      <c r="AQ71" s="439"/>
-      <c r="AR71" s="435" t="s">
+      <c r="AN71" s="425"/>
+      <c r="AO71" s="426"/>
+      <c r="AP71" s="427"/>
+      <c r="AQ71" s="428"/>
+      <c r="AR71" s="424" t="s">
         <v>7</v>
       </c>
-      <c r="AS71" s="436"/>
-      <c r="AT71" s="440"/>
-      <c r="AU71" s="441"/>
-      <c r="AV71" s="441"/>
-      <c r="AW71" s="442"/>
+      <c r="AS71" s="425"/>
+      <c r="AT71" s="429"/>
+      <c r="AU71" s="430"/>
+      <c r="AV71" s="430"/>
+      <c r="AW71" s="431"/>
     </row>
     <row r="72" spans="1:49" ht="15" thickBot="1">
-      <c r="A72" s="614"/>
-      <c r="B72" s="615"/>
-      <c r="C72" s="615"/>
-      <c r="D72" s="615"/>
-      <c r="E72" s="615"/>
-      <c r="F72" s="615"/>
-      <c r="G72" s="615"/>
-      <c r="H72" s="615"/>
-      <c r="I72" s="616"/>
-      <c r="J72" s="416"/>
-      <c r="K72" s="412"/>
-      <c r="L72" s="412"/>
-      <c r="M72" s="412"/>
-      <c r="N72" s="412"/>
-      <c r="O72" s="413"/>
-      <c r="P72" s="416"/>
-      <c r="Q72" s="412"/>
-      <c r="R72" s="412"/>
-      <c r="S72" s="412"/>
-      <c r="T72" s="412"/>
-      <c r="U72" s="413"/>
-      <c r="V72" s="443" t="s">
+      <c r="A72" s="606"/>
+      <c r="B72" s="607"/>
+      <c r="C72" s="607"/>
+      <c r="D72" s="607"/>
+      <c r="E72" s="607"/>
+      <c r="F72" s="607"/>
+      <c r="G72" s="607"/>
+      <c r="H72" s="607"/>
+      <c r="I72" s="608"/>
+      <c r="J72" s="398"/>
+      <c r="K72" s="399"/>
+      <c r="L72" s="399"/>
+      <c r="M72" s="399"/>
+      <c r="N72" s="399"/>
+      <c r="O72" s="400"/>
+      <c r="P72" s="398"/>
+      <c r="Q72" s="399"/>
+      <c r="R72" s="399"/>
+      <c r="S72" s="399"/>
+      <c r="T72" s="399"/>
+      <c r="U72" s="400"/>
+      <c r="V72" s="404" t="s">
         <v>8</v>
       </c>
-      <c r="W72" s="444"/>
-      <c r="X72" s="444"/>
-      <c r="Y72" s="444"/>
-      <c r="Z72" s="445"/>
-      <c r="AA72" s="393" t="s">
+      <c r="W72" s="405"/>
+      <c r="X72" s="405"/>
+      <c r="Y72" s="405"/>
+      <c r="Z72" s="406"/>
+      <c r="AA72" s="401" t="s">
         <v>74</v>
       </c>
-      <c r="AB72" s="394"/>
-      <c r="AC72" s="394"/>
-      <c r="AD72" s="394"/>
-      <c r="AE72" s="394"/>
-      <c r="AF72" s="394"/>
-      <c r="AG72" s="446"/>
-      <c r="AH72" s="447" t="s">
+      <c r="AB72" s="402"/>
+      <c r="AC72" s="402"/>
+      <c r="AD72" s="402"/>
+      <c r="AE72" s="402"/>
+      <c r="AF72" s="402"/>
+      <c r="AG72" s="403"/>
+      <c r="AH72" s="417" t="s">
         <v>9</v>
       </c>
-      <c r="AI72" s="448"/>
-      <c r="AJ72" s="448"/>
-      <c r="AK72" s="448"/>
-      <c r="AL72" s="449"/>
-      <c r="AM72" s="393" t="s">
+      <c r="AI72" s="418"/>
+      <c r="AJ72" s="418"/>
+      <c r="AK72" s="418"/>
+      <c r="AL72" s="419"/>
+      <c r="AM72" s="401" t="s">
         <v>67</v>
       </c>
-      <c r="AN72" s="394"/>
-      <c r="AO72" s="394"/>
-      <c r="AP72" s="394"/>
-      <c r="AQ72" s="394"/>
-      <c r="AR72" s="394"/>
-      <c r="AS72" s="394"/>
-      <c r="AT72" s="394"/>
-      <c r="AU72" s="394"/>
-      <c r="AV72" s="394"/>
-      <c r="AW72" s="395"/>
+      <c r="AN72" s="402"/>
+      <c r="AO72" s="402"/>
+      <c r="AP72" s="402"/>
+      <c r="AQ72" s="402"/>
+      <c r="AR72" s="402"/>
+      <c r="AS72" s="402"/>
+      <c r="AT72" s="402"/>
+      <c r="AU72" s="402"/>
+      <c r="AV72" s="402"/>
+      <c r="AW72" s="420"/>
     </row>
     <row r="73" spans="1:49" ht="15" thickTop="1">
       <c r="A73" s="242"/>
@@ -18108,48 +18108,48 @@
       <c r="A100" s="242"/>
       <c r="B100" s="279"/>
       <c r="D100" s="154"/>
-      <c r="E100" s="623"/>
-      <c r="F100" s="623"/>
-      <c r="G100" s="623"/>
-      <c r="H100" s="623"/>
-      <c r="I100" s="623"/>
-      <c r="J100" s="623"/>
-      <c r="K100" s="623"/>
-      <c r="L100" s="623"/>
-      <c r="M100" s="623"/>
-      <c r="N100" s="623"/>
-      <c r="O100" s="623"/>
-      <c r="P100" s="623"/>
-      <c r="Q100" s="623"/>
-      <c r="R100" s="623"/>
-      <c r="S100" s="623"/>
-      <c r="T100" s="623"/>
-      <c r="U100" s="623"/>
-      <c r="V100" s="623"/>
-      <c r="W100" s="623"/>
-      <c r="X100" s="623"/>
-      <c r="Y100" s="623"/>
-      <c r="Z100" s="623"/>
-      <c r="AA100" s="623"/>
-      <c r="AB100" s="623"/>
-      <c r="AC100" s="623"/>
-      <c r="AD100" s="623"/>
-      <c r="AE100" s="623"/>
-      <c r="AF100" s="623"/>
-      <c r="AG100" s="623"/>
-      <c r="AH100" s="623"/>
-      <c r="AI100" s="625"/>
-      <c r="AJ100" s="625"/>
-      <c r="AK100" s="625"/>
-      <c r="AL100" s="625"/>
-      <c r="AM100" s="625"/>
-      <c r="AN100" s="625"/>
-      <c r="AO100" s="625"/>
-      <c r="AP100" s="625"/>
-      <c r="AQ100" s="625"/>
-      <c r="AR100" s="625"/>
-      <c r="AS100" s="625"/>
-      <c r="AT100" s="625"/>
+      <c r="E100" s="592"/>
+      <c r="F100" s="592"/>
+      <c r="G100" s="592"/>
+      <c r="H100" s="592"/>
+      <c r="I100" s="592"/>
+      <c r="J100" s="592"/>
+      <c r="K100" s="592"/>
+      <c r="L100" s="592"/>
+      <c r="M100" s="592"/>
+      <c r="N100" s="592"/>
+      <c r="O100" s="592"/>
+      <c r="P100" s="592"/>
+      <c r="Q100" s="592"/>
+      <c r="R100" s="592"/>
+      <c r="S100" s="592"/>
+      <c r="T100" s="592"/>
+      <c r="U100" s="592"/>
+      <c r="V100" s="592"/>
+      <c r="W100" s="592"/>
+      <c r="X100" s="592"/>
+      <c r="Y100" s="592"/>
+      <c r="Z100" s="592"/>
+      <c r="AA100" s="592"/>
+      <c r="AB100" s="592"/>
+      <c r="AC100" s="592"/>
+      <c r="AD100" s="592"/>
+      <c r="AE100" s="592"/>
+      <c r="AF100" s="592"/>
+      <c r="AG100" s="592"/>
+      <c r="AH100" s="592"/>
+      <c r="AI100" s="594"/>
+      <c r="AJ100" s="594"/>
+      <c r="AK100" s="594"/>
+      <c r="AL100" s="594"/>
+      <c r="AM100" s="594"/>
+      <c r="AN100" s="594"/>
+      <c r="AO100" s="594"/>
+      <c r="AP100" s="594"/>
+      <c r="AQ100" s="594"/>
+      <c r="AR100" s="594"/>
+      <c r="AS100" s="594"/>
+      <c r="AT100" s="594"/>
       <c r="AU100" s="5"/>
       <c r="AV100" s="281"/>
       <c r="AW100" s="242"/>
@@ -18159,48 +18159,48 @@
       <c r="B101" s="279"/>
       <c r="C101" s="39"/>
       <c r="D101" s="86"/>
-      <c r="E101" s="622"/>
-      <c r="F101" s="622"/>
-      <c r="G101" s="622"/>
-      <c r="H101" s="622"/>
-      <c r="I101" s="622"/>
-      <c r="J101" s="622"/>
-      <c r="K101" s="622"/>
-      <c r="L101" s="622"/>
-      <c r="M101" s="622"/>
-      <c r="N101" s="622"/>
-      <c r="O101" s="622"/>
-      <c r="P101" s="622"/>
-      <c r="Q101" s="622"/>
-      <c r="R101" s="622"/>
-      <c r="S101" s="622"/>
-      <c r="T101" s="622"/>
-      <c r="U101" s="622"/>
-      <c r="V101" s="622"/>
-      <c r="W101" s="622"/>
-      <c r="X101" s="622"/>
-      <c r="Y101" s="622"/>
-      <c r="Z101" s="622"/>
-      <c r="AA101" s="622"/>
-      <c r="AB101" s="622"/>
-      <c r="AC101" s="622"/>
-      <c r="AD101" s="622"/>
-      <c r="AE101" s="622"/>
-      <c r="AF101" s="622"/>
-      <c r="AG101" s="622"/>
-      <c r="AH101" s="622"/>
-      <c r="AI101" s="625"/>
-      <c r="AJ101" s="625"/>
-      <c r="AK101" s="625"/>
-      <c r="AL101" s="625"/>
-      <c r="AM101" s="625"/>
-      <c r="AN101" s="625"/>
-      <c r="AO101" s="625"/>
-      <c r="AP101" s="625"/>
-      <c r="AQ101" s="625"/>
-      <c r="AR101" s="625"/>
-      <c r="AS101" s="625"/>
-      <c r="AT101" s="625"/>
+      <c r="E101" s="591"/>
+      <c r="F101" s="591"/>
+      <c r="G101" s="591"/>
+      <c r="H101" s="591"/>
+      <c r="I101" s="591"/>
+      <c r="J101" s="591"/>
+      <c r="K101" s="591"/>
+      <c r="L101" s="591"/>
+      <c r="M101" s="591"/>
+      <c r="N101" s="591"/>
+      <c r="O101" s="591"/>
+      <c r="P101" s="591"/>
+      <c r="Q101" s="591"/>
+      <c r="R101" s="591"/>
+      <c r="S101" s="591"/>
+      <c r="T101" s="591"/>
+      <c r="U101" s="591"/>
+      <c r="V101" s="591"/>
+      <c r="W101" s="591"/>
+      <c r="X101" s="591"/>
+      <c r="Y101" s="591"/>
+      <c r="Z101" s="591"/>
+      <c r="AA101" s="591"/>
+      <c r="AB101" s="591"/>
+      <c r="AC101" s="591"/>
+      <c r="AD101" s="591"/>
+      <c r="AE101" s="591"/>
+      <c r="AF101" s="591"/>
+      <c r="AG101" s="591"/>
+      <c r="AH101" s="591"/>
+      <c r="AI101" s="594"/>
+      <c r="AJ101" s="594"/>
+      <c r="AK101" s="594"/>
+      <c r="AL101" s="594"/>
+      <c r="AM101" s="594"/>
+      <c r="AN101" s="594"/>
+      <c r="AO101" s="594"/>
+      <c r="AP101" s="594"/>
+      <c r="AQ101" s="594"/>
+      <c r="AR101" s="594"/>
+      <c r="AS101" s="594"/>
+      <c r="AT101" s="594"/>
       <c r="AU101" s="5"/>
       <c r="AV101" s="281"/>
       <c r="AW101" s="242"/>
@@ -18210,48 +18210,48 @@
       <c r="B102" s="279"/>
       <c r="C102" s="85"/>
       <c r="D102" s="36"/>
-      <c r="E102" s="622"/>
-      <c r="F102" s="622"/>
-      <c r="G102" s="622"/>
-      <c r="H102" s="622"/>
-      <c r="I102" s="622"/>
-      <c r="J102" s="622"/>
-      <c r="K102" s="622"/>
-      <c r="L102" s="622"/>
-      <c r="M102" s="624"/>
-      <c r="N102" s="624"/>
-      <c r="O102" s="624"/>
-      <c r="P102" s="624"/>
-      <c r="Q102" s="624"/>
-      <c r="R102" s="624"/>
-      <c r="S102" s="624"/>
-      <c r="T102" s="624"/>
-      <c r="U102" s="624"/>
-      <c r="V102" s="624"/>
-      <c r="W102" s="624"/>
-      <c r="X102" s="624"/>
-      <c r="Y102" s="624"/>
-      <c r="Z102" s="624"/>
-      <c r="AA102" s="624"/>
-      <c r="AB102" s="624"/>
-      <c r="AC102" s="624"/>
-      <c r="AD102" s="624"/>
-      <c r="AE102" s="624"/>
-      <c r="AF102" s="624"/>
-      <c r="AG102" s="624"/>
-      <c r="AH102" s="624"/>
-      <c r="AI102" s="626"/>
-      <c r="AJ102" s="626"/>
-      <c r="AK102" s="626"/>
-      <c r="AL102" s="626"/>
-      <c r="AM102" s="626"/>
-      <c r="AN102" s="626"/>
-      <c r="AO102" s="626"/>
-      <c r="AP102" s="626"/>
-      <c r="AQ102" s="626"/>
-      <c r="AR102" s="626"/>
-      <c r="AS102" s="626"/>
-      <c r="AT102" s="626"/>
+      <c r="E102" s="591"/>
+      <c r="F102" s="591"/>
+      <c r="G102" s="591"/>
+      <c r="H102" s="591"/>
+      <c r="I102" s="591"/>
+      <c r="J102" s="591"/>
+      <c r="K102" s="591"/>
+      <c r="L102" s="591"/>
+      <c r="M102" s="593"/>
+      <c r="N102" s="593"/>
+      <c r="O102" s="593"/>
+      <c r="P102" s="593"/>
+      <c r="Q102" s="593"/>
+      <c r="R102" s="593"/>
+      <c r="S102" s="593"/>
+      <c r="T102" s="593"/>
+      <c r="U102" s="593"/>
+      <c r="V102" s="593"/>
+      <c r="W102" s="593"/>
+      <c r="X102" s="593"/>
+      <c r="Y102" s="593"/>
+      <c r="Z102" s="593"/>
+      <c r="AA102" s="593"/>
+      <c r="AB102" s="593"/>
+      <c r="AC102" s="593"/>
+      <c r="AD102" s="593"/>
+      <c r="AE102" s="593"/>
+      <c r="AF102" s="593"/>
+      <c r="AG102" s="593"/>
+      <c r="AH102" s="593"/>
+      <c r="AI102" s="595"/>
+      <c r="AJ102" s="595"/>
+      <c r="AK102" s="595"/>
+      <c r="AL102" s="595"/>
+      <c r="AM102" s="595"/>
+      <c r="AN102" s="595"/>
+      <c r="AO102" s="595"/>
+      <c r="AP102" s="595"/>
+      <c r="AQ102" s="595"/>
+      <c r="AR102" s="595"/>
+      <c r="AS102" s="595"/>
+      <c r="AT102" s="595"/>
       <c r="AU102" s="5"/>
       <c r="AV102" s="281"/>
       <c r="AW102" s="242"/>
@@ -18409,67 +18409,67 @@
       <c r="AW105" s="242"/>
     </row>
     <row r="106" spans="1:49" ht="15" thickTop="1">
-      <c r="A106" s="396" t="s">
+      <c r="A106" s="383" t="s">
         <v>0</v>
       </c>
-      <c r="B106" s="397"/>
-      <c r="C106" s="397"/>
-      <c r="D106" s="397"/>
-      <c r="E106" s="397"/>
-      <c r="F106" s="397"/>
-      <c r="G106" s="397"/>
-      <c r="H106" s="397"/>
-      <c r="I106" s="575"/>
-      <c r="J106" s="414" t="s">
+      <c r="B106" s="384"/>
+      <c r="C106" s="384"/>
+      <c r="D106" s="384"/>
+      <c r="E106" s="384"/>
+      <c r="F106" s="384"/>
+      <c r="G106" s="384"/>
+      <c r="H106" s="384"/>
+      <c r="I106" s="385"/>
+      <c r="J106" s="392" t="s">
         <v>1</v>
       </c>
-      <c r="K106" s="406"/>
-      <c r="L106" s="406"/>
-      <c r="M106" s="406"/>
-      <c r="N106" s="406"/>
-      <c r="O106" s="407"/>
-      <c r="P106" s="414" t="s">
+      <c r="K106" s="393"/>
+      <c r="L106" s="393"/>
+      <c r="M106" s="393"/>
+      <c r="N106" s="393"/>
+      <c r="O106" s="394"/>
+      <c r="P106" s="392" t="s">
         <v>2</v>
       </c>
-      <c r="Q106" s="406"/>
-      <c r="R106" s="406"/>
-      <c r="S106" s="406"/>
-      <c r="T106" s="406"/>
-      <c r="U106" s="407"/>
-      <c r="V106" s="417" t="s">
+      <c r="Q106" s="393"/>
+      <c r="R106" s="393"/>
+      <c r="S106" s="393"/>
+      <c r="T106" s="393"/>
+      <c r="U106" s="394"/>
+      <c r="V106" s="407" t="s">
         <v>3</v>
       </c>
-      <c r="W106" s="418"/>
-      <c r="X106" s="418"/>
-      <c r="Y106" s="418"/>
-      <c r="Z106" s="419"/>
-      <c r="AA106" s="423" t="s">
+      <c r="W106" s="408"/>
+      <c r="X106" s="408"/>
+      <c r="Y106" s="408"/>
+      <c r="Z106" s="409"/>
+      <c r="AA106" s="413" t="s">
         <v>65</v>
       </c>
-      <c r="AB106" s="406"/>
-      <c r="AC106" s="406"/>
-      <c r="AD106" s="406"/>
-      <c r="AE106" s="406"/>
-      <c r="AF106" s="406"/>
-      <c r="AG106" s="406"/>
-      <c r="AH106" s="406"/>
-      <c r="AI106" s="406"/>
-      <c r="AJ106" s="406"/>
-      <c r="AK106" s="406"/>
-      <c r="AL106" s="407"/>
-      <c r="AM106" s="427" t="s">
+      <c r="AB106" s="393"/>
+      <c r="AC106" s="393"/>
+      <c r="AD106" s="393"/>
+      <c r="AE106" s="393"/>
+      <c r="AF106" s="393"/>
+      <c r="AG106" s="393"/>
+      <c r="AH106" s="393"/>
+      <c r="AI106" s="393"/>
+      <c r="AJ106" s="393"/>
+      <c r="AK106" s="393"/>
+      <c r="AL106" s="394"/>
+      <c r="AM106" s="415" t="s">
         <v>4</v>
       </c>
-      <c r="AN106" s="428"/>
-      <c r="AO106" s="429" t="s">
+      <c r="AN106" s="416"/>
+      <c r="AO106" s="421" t="s">
         <v>151</v>
       </c>
-      <c r="AP106" s="430"/>
-      <c r="AQ106" s="431"/>
-      <c r="AR106" s="427" t="s">
+      <c r="AP106" s="422"/>
+      <c r="AQ106" s="423"/>
+      <c r="AR106" s="415" t="s">
         <v>5</v>
       </c>
-      <c r="AS106" s="428"/>
+      <c r="AS106" s="416"/>
       <c r="AT106" s="432" t="s">
         <v>162</v>
       </c>
@@ -18478,118 +18478,118 @@
       <c r="AW106" s="434"/>
     </row>
     <row r="107" spans="1:49">
-      <c r="A107" s="399"/>
-      <c r="B107" s="400"/>
-      <c r="C107" s="400"/>
-      <c r="D107" s="400"/>
-      <c r="E107" s="400"/>
-      <c r="F107" s="400"/>
-      <c r="G107" s="400"/>
-      <c r="H107" s="400"/>
-      <c r="I107" s="576"/>
-      <c r="J107" s="415"/>
-      <c r="K107" s="409"/>
-      <c r="L107" s="409"/>
-      <c r="M107" s="409"/>
-      <c r="N107" s="409"/>
-      <c r="O107" s="410"/>
-      <c r="P107" s="415"/>
-      <c r="Q107" s="409"/>
-      <c r="R107" s="409"/>
-      <c r="S107" s="409"/>
-      <c r="T107" s="409"/>
-      <c r="U107" s="410"/>
-      <c r="V107" s="578"/>
-      <c r="W107" s="579"/>
-      <c r="X107" s="579"/>
-      <c r="Y107" s="579"/>
-      <c r="Z107" s="580"/>
-      <c r="AA107" s="408"/>
-      <c r="AB107" s="409"/>
-      <c r="AC107" s="409"/>
-      <c r="AD107" s="409"/>
-      <c r="AE107" s="409"/>
-      <c r="AF107" s="409"/>
-      <c r="AG107" s="409"/>
-      <c r="AH107" s="409"/>
-      <c r="AI107" s="409"/>
-      <c r="AJ107" s="409"/>
-      <c r="AK107" s="409"/>
-      <c r="AL107" s="410"/>
-      <c r="AM107" s="435" t="s">
+      <c r="A107" s="386"/>
+      <c r="B107" s="387"/>
+      <c r="C107" s="387"/>
+      <c r="D107" s="387"/>
+      <c r="E107" s="387"/>
+      <c r="F107" s="387"/>
+      <c r="G107" s="387"/>
+      <c r="H107" s="387"/>
+      <c r="I107" s="388"/>
+      <c r="J107" s="395"/>
+      <c r="K107" s="396"/>
+      <c r="L107" s="396"/>
+      <c r="M107" s="396"/>
+      <c r="N107" s="396"/>
+      <c r="O107" s="397"/>
+      <c r="P107" s="395"/>
+      <c r="Q107" s="396"/>
+      <c r="R107" s="396"/>
+      <c r="S107" s="396"/>
+      <c r="T107" s="396"/>
+      <c r="U107" s="397"/>
+      <c r="V107" s="410"/>
+      <c r="W107" s="411"/>
+      <c r="X107" s="411"/>
+      <c r="Y107" s="411"/>
+      <c r="Z107" s="412"/>
+      <c r="AA107" s="414"/>
+      <c r="AB107" s="396"/>
+      <c r="AC107" s="396"/>
+      <c r="AD107" s="396"/>
+      <c r="AE107" s="396"/>
+      <c r="AF107" s="396"/>
+      <c r="AG107" s="396"/>
+      <c r="AH107" s="396"/>
+      <c r="AI107" s="396"/>
+      <c r="AJ107" s="396"/>
+      <c r="AK107" s="396"/>
+      <c r="AL107" s="397"/>
+      <c r="AM107" s="424" t="s">
         <v>6</v>
       </c>
-      <c r="AN107" s="436"/>
-      <c r="AO107" s="437"/>
-      <c r="AP107" s="438"/>
-      <c r="AQ107" s="439"/>
-      <c r="AR107" s="435" t="s">
+      <c r="AN107" s="425"/>
+      <c r="AO107" s="426"/>
+      <c r="AP107" s="427"/>
+      <c r="AQ107" s="428"/>
+      <c r="AR107" s="424" t="s">
         <v>7</v>
       </c>
-      <c r="AS107" s="436"/>
-      <c r="AT107" s="440"/>
-      <c r="AU107" s="441"/>
-      <c r="AV107" s="441"/>
-      <c r="AW107" s="442"/>
+      <c r="AS107" s="425"/>
+      <c r="AT107" s="429"/>
+      <c r="AU107" s="430"/>
+      <c r="AV107" s="430"/>
+      <c r="AW107" s="431"/>
     </row>
     <row r="108" spans="1:49" ht="15" thickBot="1">
-      <c r="A108" s="402"/>
-      <c r="B108" s="403"/>
-      <c r="C108" s="403"/>
-      <c r="D108" s="403"/>
-      <c r="E108" s="403"/>
-      <c r="F108" s="403"/>
-      <c r="G108" s="403"/>
-      <c r="H108" s="403"/>
-      <c r="I108" s="577"/>
-      <c r="J108" s="416"/>
-      <c r="K108" s="412"/>
-      <c r="L108" s="412"/>
-      <c r="M108" s="412"/>
-      <c r="N108" s="412"/>
-      <c r="O108" s="413"/>
-      <c r="P108" s="416"/>
-      <c r="Q108" s="412"/>
-      <c r="R108" s="412"/>
-      <c r="S108" s="412"/>
-      <c r="T108" s="412"/>
-      <c r="U108" s="413"/>
-      <c r="V108" s="443" t="s">
+      <c r="A108" s="389"/>
+      <c r="B108" s="390"/>
+      <c r="C108" s="390"/>
+      <c r="D108" s="390"/>
+      <c r="E108" s="390"/>
+      <c r="F108" s="390"/>
+      <c r="G108" s="390"/>
+      <c r="H108" s="390"/>
+      <c r="I108" s="391"/>
+      <c r="J108" s="398"/>
+      <c r="K108" s="399"/>
+      <c r="L108" s="399"/>
+      <c r="M108" s="399"/>
+      <c r="N108" s="399"/>
+      <c r="O108" s="400"/>
+      <c r="P108" s="398"/>
+      <c r="Q108" s="399"/>
+      <c r="R108" s="399"/>
+      <c r="S108" s="399"/>
+      <c r="T108" s="399"/>
+      <c r="U108" s="400"/>
+      <c r="V108" s="404" t="s">
         <v>8</v>
       </c>
-      <c r="W108" s="444"/>
-      <c r="X108" s="444"/>
-      <c r="Y108" s="444"/>
-      <c r="Z108" s="445"/>
-      <c r="AA108" s="393" t="s">
+      <c r="W108" s="405"/>
+      <c r="X108" s="405"/>
+      <c r="Y108" s="405"/>
+      <c r="Z108" s="406"/>
+      <c r="AA108" s="401" t="s">
         <v>74</v>
       </c>
-      <c r="AB108" s="394"/>
-      <c r="AC108" s="394"/>
-      <c r="AD108" s="394"/>
-      <c r="AE108" s="394"/>
-      <c r="AF108" s="394"/>
-      <c r="AG108" s="446"/>
-      <c r="AH108" s="447" t="s">
+      <c r="AB108" s="402"/>
+      <c r="AC108" s="402"/>
+      <c r="AD108" s="402"/>
+      <c r="AE108" s="402"/>
+      <c r="AF108" s="402"/>
+      <c r="AG108" s="403"/>
+      <c r="AH108" s="417" t="s">
         <v>9</v>
       </c>
-      <c r="AI108" s="448"/>
-      <c r="AJ108" s="448"/>
-      <c r="AK108" s="448"/>
-      <c r="AL108" s="449"/>
-      <c r="AM108" s="393" t="s">
+      <c r="AI108" s="418"/>
+      <c r="AJ108" s="418"/>
+      <c r="AK108" s="418"/>
+      <c r="AL108" s="419"/>
+      <c r="AM108" s="401" t="s">
         <v>67</v>
       </c>
-      <c r="AN108" s="394"/>
-      <c r="AO108" s="394"/>
-      <c r="AP108" s="394"/>
-      <c r="AQ108" s="394"/>
-      <c r="AR108" s="394"/>
-      <c r="AS108" s="394"/>
-      <c r="AT108" s="394"/>
-      <c r="AU108" s="394"/>
-      <c r="AV108" s="394"/>
-      <c r="AW108" s="395"/>
+      <c r="AN108" s="402"/>
+      <c r="AO108" s="402"/>
+      <c r="AP108" s="402"/>
+      <c r="AQ108" s="402"/>
+      <c r="AR108" s="402"/>
+      <c r="AS108" s="402"/>
+      <c r="AT108" s="402"/>
+      <c r="AU108" s="402"/>
+      <c r="AV108" s="402"/>
+      <c r="AW108" s="420"/>
     </row>
     <row r="109" spans="1:49" ht="15" thickTop="1">
       <c r="A109" s="242"/>
@@ -19626,56 +19626,56 @@
       <c r="D127" s="151">
         <v>3</v>
       </c>
-      <c r="E127" s="603" t="s">
+      <c r="E127" s="609" t="s">
         <v>87</v>
       </c>
-      <c r="F127" s="604"/>
-      <c r="G127" s="604"/>
-      <c r="H127" s="604"/>
-      <c r="I127" s="604"/>
-      <c r="J127" s="604"/>
-      <c r="K127" s="604"/>
-      <c r="L127" s="605"/>
-      <c r="M127" s="603" t="s">
+      <c r="F127" s="610"/>
+      <c r="G127" s="610"/>
+      <c r="H127" s="610"/>
+      <c r="I127" s="610"/>
+      <c r="J127" s="610"/>
+      <c r="K127" s="610"/>
+      <c r="L127" s="611"/>
+      <c r="M127" s="609" t="s">
         <v>81</v>
       </c>
-      <c r="N127" s="604"/>
-      <c r="O127" s="604"/>
-      <c r="P127" s="604"/>
-      <c r="Q127" s="604"/>
-      <c r="R127" s="604"/>
-      <c r="S127" s="604"/>
-      <c r="T127" s="604"/>
-      <c r="U127" s="604"/>
-      <c r="V127" s="604"/>
-      <c r="W127" s="604"/>
-      <c r="X127" s="604"/>
-      <c r="Y127" s="604"/>
-      <c r="Z127" s="604"/>
-      <c r="AA127" s="604"/>
-      <c r="AB127" s="605"/>
-      <c r="AC127" s="603" t="s">
+      <c r="N127" s="610"/>
+      <c r="O127" s="610"/>
+      <c r="P127" s="610"/>
+      <c r="Q127" s="610"/>
+      <c r="R127" s="610"/>
+      <c r="S127" s="610"/>
+      <c r="T127" s="610"/>
+      <c r="U127" s="610"/>
+      <c r="V127" s="610"/>
+      <c r="W127" s="610"/>
+      <c r="X127" s="610"/>
+      <c r="Y127" s="610"/>
+      <c r="Z127" s="610"/>
+      <c r="AA127" s="610"/>
+      <c r="AB127" s="611"/>
+      <c r="AC127" s="609" t="s">
         <v>221</v>
       </c>
-      <c r="AD127" s="604"/>
-      <c r="AE127" s="604"/>
-      <c r="AF127" s="604"/>
-      <c r="AG127" s="604"/>
-      <c r="AH127" s="604"/>
-      <c r="AI127" s="604"/>
-      <c r="AJ127" s="605"/>
-      <c r="AK127" s="603" t="s">
+      <c r="AD127" s="610"/>
+      <c r="AE127" s="610"/>
+      <c r="AF127" s="610"/>
+      <c r="AG127" s="610"/>
+      <c r="AH127" s="610"/>
+      <c r="AI127" s="610"/>
+      <c r="AJ127" s="611"/>
+      <c r="AK127" s="609" t="s">
         <v>138</v>
       </c>
-      <c r="AL127" s="604"/>
-      <c r="AM127" s="605"/>
-      <c r="AN127" s="603"/>
-      <c r="AO127" s="604"/>
-      <c r="AP127" s="604"/>
-      <c r="AQ127" s="604"/>
-      <c r="AR127" s="604"/>
-      <c r="AS127" s="604"/>
-      <c r="AT127" s="605"/>
+      <c r="AL127" s="610"/>
+      <c r="AM127" s="611"/>
+      <c r="AN127" s="609"/>
+      <c r="AO127" s="610"/>
+      <c r="AP127" s="610"/>
+      <c r="AQ127" s="610"/>
+      <c r="AR127" s="610"/>
+      <c r="AS127" s="610"/>
+      <c r="AT127" s="611"/>
       <c r="AU127" s="316"/>
       <c r="AV127" s="316"/>
       <c r="AW127" s="242"/>
@@ -19687,54 +19687,54 @@
       <c r="D128" s="151">
         <v>4</v>
       </c>
-      <c r="E128" s="603" t="s">
+      <c r="E128" s="609" t="s">
         <v>88</v>
       </c>
-      <c r="F128" s="604"/>
-      <c r="G128" s="604"/>
-      <c r="H128" s="604"/>
-      <c r="I128" s="604"/>
-      <c r="J128" s="604"/>
-      <c r="K128" s="604"/>
-      <c r="L128" s="605"/>
-      <c r="M128" s="603" t="s">
+      <c r="F128" s="610"/>
+      <c r="G128" s="610"/>
+      <c r="H128" s="610"/>
+      <c r="I128" s="610"/>
+      <c r="J128" s="610"/>
+      <c r="K128" s="610"/>
+      <c r="L128" s="611"/>
+      <c r="M128" s="609" t="s">
         <v>82</v>
       </c>
-      <c r="N128" s="604"/>
-      <c r="O128" s="604"/>
-      <c r="P128" s="604"/>
-      <c r="Q128" s="604"/>
-      <c r="R128" s="604"/>
-      <c r="S128" s="604"/>
-      <c r="T128" s="604"/>
-      <c r="U128" s="604"/>
-      <c r="V128" s="604"/>
-      <c r="W128" s="604"/>
-      <c r="X128" s="604"/>
-      <c r="Y128" s="604"/>
-      <c r="Z128" s="604"/>
-      <c r="AA128" s="604"/>
-      <c r="AB128" s="605"/>
-      <c r="AC128" s="603"/>
-      <c r="AD128" s="604"/>
-      <c r="AE128" s="604"/>
-      <c r="AF128" s="604"/>
-      <c r="AG128" s="604"/>
-      <c r="AH128" s="604"/>
-      <c r="AI128" s="604"/>
-      <c r="AJ128" s="605"/>
-      <c r="AK128" s="603" t="s">
+      <c r="N128" s="610"/>
+      <c r="O128" s="610"/>
+      <c r="P128" s="610"/>
+      <c r="Q128" s="610"/>
+      <c r="R128" s="610"/>
+      <c r="S128" s="610"/>
+      <c r="T128" s="610"/>
+      <c r="U128" s="610"/>
+      <c r="V128" s="610"/>
+      <c r="W128" s="610"/>
+      <c r="X128" s="610"/>
+      <c r="Y128" s="610"/>
+      <c r="Z128" s="610"/>
+      <c r="AA128" s="610"/>
+      <c r="AB128" s="611"/>
+      <c r="AC128" s="609"/>
+      <c r="AD128" s="610"/>
+      <c r="AE128" s="610"/>
+      <c r="AF128" s="610"/>
+      <c r="AG128" s="610"/>
+      <c r="AH128" s="610"/>
+      <c r="AI128" s="610"/>
+      <c r="AJ128" s="611"/>
+      <c r="AK128" s="609" t="s">
         <v>138</v>
       </c>
-      <c r="AL128" s="604"/>
-      <c r="AM128" s="605"/>
-      <c r="AN128" s="603"/>
-      <c r="AO128" s="604"/>
-      <c r="AP128" s="604"/>
-      <c r="AQ128" s="604"/>
-      <c r="AR128" s="604"/>
-      <c r="AS128" s="604"/>
-      <c r="AT128" s="605"/>
+      <c r="AL128" s="610"/>
+      <c r="AM128" s="611"/>
+      <c r="AN128" s="609"/>
+      <c r="AO128" s="610"/>
+      <c r="AP128" s="610"/>
+      <c r="AQ128" s="610"/>
+      <c r="AR128" s="610"/>
+      <c r="AS128" s="610"/>
+      <c r="AT128" s="611"/>
       <c r="AU128" s="316"/>
       <c r="AV128" s="316"/>
       <c r="AW128" s="242"/>
@@ -19746,54 +19746,54 @@
       <c r="D129" s="151">
         <v>5</v>
       </c>
-      <c r="E129" s="603" t="s">
+      <c r="E129" s="609" t="s">
         <v>141</v>
       </c>
-      <c r="F129" s="604"/>
-      <c r="G129" s="604"/>
-      <c r="H129" s="604"/>
-      <c r="I129" s="604"/>
-      <c r="J129" s="604"/>
-      <c r="K129" s="604"/>
-      <c r="L129" s="605"/>
-      <c r="M129" s="603" t="s">
+      <c r="F129" s="610"/>
+      <c r="G129" s="610"/>
+      <c r="H129" s="610"/>
+      <c r="I129" s="610"/>
+      <c r="J129" s="610"/>
+      <c r="K129" s="610"/>
+      <c r="L129" s="611"/>
+      <c r="M129" s="609" t="s">
         <v>141</v>
       </c>
-      <c r="N129" s="604"/>
-      <c r="O129" s="604"/>
-      <c r="P129" s="604"/>
-      <c r="Q129" s="604"/>
-      <c r="R129" s="604"/>
-      <c r="S129" s="604"/>
-      <c r="T129" s="604"/>
-      <c r="U129" s="604"/>
-      <c r="V129" s="604"/>
-      <c r="W129" s="604"/>
-      <c r="X129" s="604"/>
-      <c r="Y129" s="604"/>
-      <c r="Z129" s="604"/>
-      <c r="AA129" s="604"/>
-      <c r="AB129" s="605"/>
-      <c r="AC129" s="597"/>
-      <c r="AD129" s="602"/>
-      <c r="AE129" s="602"/>
-      <c r="AF129" s="602"/>
-      <c r="AG129" s="602"/>
-      <c r="AH129" s="602"/>
-      <c r="AI129" s="602"/>
-      <c r="AJ129" s="598"/>
-      <c r="AK129" s="603" t="s">
+      <c r="N129" s="610"/>
+      <c r="O129" s="610"/>
+      <c r="P129" s="610"/>
+      <c r="Q129" s="610"/>
+      <c r="R129" s="610"/>
+      <c r="S129" s="610"/>
+      <c r="T129" s="610"/>
+      <c r="U129" s="610"/>
+      <c r="V129" s="610"/>
+      <c r="W129" s="610"/>
+      <c r="X129" s="610"/>
+      <c r="Y129" s="610"/>
+      <c r="Z129" s="610"/>
+      <c r="AA129" s="610"/>
+      <c r="AB129" s="611"/>
+      <c r="AC129" s="612"/>
+      <c r="AD129" s="613"/>
+      <c r="AE129" s="613"/>
+      <c r="AF129" s="613"/>
+      <c r="AG129" s="613"/>
+      <c r="AH129" s="613"/>
+      <c r="AI129" s="613"/>
+      <c r="AJ129" s="614"/>
+      <c r="AK129" s="609" t="s">
         <v>138</v>
       </c>
-      <c r="AL129" s="604"/>
-      <c r="AM129" s="605"/>
-      <c r="AN129" s="603"/>
-      <c r="AO129" s="604"/>
-      <c r="AP129" s="604"/>
-      <c r="AQ129" s="604"/>
-      <c r="AR129" s="604"/>
-      <c r="AS129" s="604"/>
-      <c r="AT129" s="605"/>
+      <c r="AL129" s="610"/>
+      <c r="AM129" s="611"/>
+      <c r="AN129" s="609"/>
+      <c r="AO129" s="610"/>
+      <c r="AP129" s="610"/>
+      <c r="AQ129" s="610"/>
+      <c r="AR129" s="610"/>
+      <c r="AS129" s="610"/>
+      <c r="AT129" s="611"/>
       <c r="AU129" s="316"/>
       <c r="AV129" s="316"/>
       <c r="AW129" s="242"/>
@@ -19805,54 +19805,54 @@
       <c r="D130" s="152">
         <v>6</v>
       </c>
-      <c r="E130" s="606" t="s">
+      <c r="E130" s="587" t="s">
         <v>90</v>
       </c>
-      <c r="F130" s="607"/>
-      <c r="G130" s="607"/>
-      <c r="H130" s="607"/>
-      <c r="I130" s="607"/>
-      <c r="J130" s="607"/>
-      <c r="K130" s="607"/>
-      <c r="L130" s="608"/>
-      <c r="M130" s="606" t="s">
+      <c r="F130" s="588"/>
+      <c r="G130" s="588"/>
+      <c r="H130" s="588"/>
+      <c r="I130" s="588"/>
+      <c r="J130" s="588"/>
+      <c r="K130" s="588"/>
+      <c r="L130" s="589"/>
+      <c r="M130" s="587" t="s">
         <v>90</v>
       </c>
-      <c r="N130" s="607"/>
-      <c r="O130" s="607"/>
-      <c r="P130" s="607"/>
-      <c r="Q130" s="607"/>
-      <c r="R130" s="607"/>
-      <c r="S130" s="607"/>
-      <c r="T130" s="607"/>
-      <c r="U130" s="607"/>
-      <c r="V130" s="607"/>
-      <c r="W130" s="607"/>
-      <c r="X130" s="607"/>
-      <c r="Y130" s="607"/>
-      <c r="Z130" s="607"/>
-      <c r="AA130" s="607"/>
-      <c r="AB130" s="608"/>
-      <c r="AC130" s="606"/>
-      <c r="AD130" s="607"/>
-      <c r="AE130" s="607"/>
-      <c r="AF130" s="607"/>
-      <c r="AG130" s="607"/>
-      <c r="AH130" s="607"/>
-      <c r="AI130" s="607"/>
-      <c r="AJ130" s="608"/>
-      <c r="AK130" s="606" t="s">
+      <c r="N130" s="588"/>
+      <c r="O130" s="588"/>
+      <c r="P130" s="588"/>
+      <c r="Q130" s="588"/>
+      <c r="R130" s="588"/>
+      <c r="S130" s="588"/>
+      <c r="T130" s="588"/>
+      <c r="U130" s="588"/>
+      <c r="V130" s="588"/>
+      <c r="W130" s="588"/>
+      <c r="X130" s="588"/>
+      <c r="Y130" s="588"/>
+      <c r="Z130" s="588"/>
+      <c r="AA130" s="588"/>
+      <c r="AB130" s="589"/>
+      <c r="AC130" s="587"/>
+      <c r="AD130" s="588"/>
+      <c r="AE130" s="588"/>
+      <c r="AF130" s="588"/>
+      <c r="AG130" s="588"/>
+      <c r="AH130" s="588"/>
+      <c r="AI130" s="588"/>
+      <c r="AJ130" s="589"/>
+      <c r="AK130" s="587" t="s">
         <v>138</v>
       </c>
-      <c r="AL130" s="607"/>
-      <c r="AM130" s="608"/>
-      <c r="AN130" s="606"/>
-      <c r="AO130" s="607"/>
-      <c r="AP130" s="607"/>
-      <c r="AQ130" s="607"/>
-      <c r="AR130" s="607"/>
-      <c r="AS130" s="607"/>
-      <c r="AT130" s="608"/>
+      <c r="AL130" s="588"/>
+      <c r="AM130" s="589"/>
+      <c r="AN130" s="587"/>
+      <c r="AO130" s="588"/>
+      <c r="AP130" s="588"/>
+      <c r="AQ130" s="588"/>
+      <c r="AR130" s="588"/>
+      <c r="AS130" s="588"/>
+      <c r="AT130" s="589"/>
       <c r="AU130" s="316"/>
       <c r="AV130" s="316"/>
       <c r="AW130" s="242"/>
@@ -20332,31 +20332,31 @@
     <row r="141" spans="1:49">
       <c r="A141" s="242"/>
       <c r="B141" s="40"/>
-      <c r="X141" s="633"/>
-      <c r="Y141" s="633"/>
-      <c r="Z141" s="633"/>
-      <c r="AA141" s="633"/>
-      <c r="AB141" s="633"/>
-      <c r="AC141" s="633"/>
-      <c r="AD141" s="633"/>
-      <c r="AE141" s="633"/>
-      <c r="AF141" s="633"/>
-      <c r="AG141" s="633"/>
-      <c r="AH141" s="633"/>
-      <c r="AI141" s="633"/>
-      <c r="AJ141" s="633"/>
-      <c r="AK141" s="633"/>
-      <c r="AL141" s="633"/>
-      <c r="AM141" s="633"/>
-      <c r="AN141" s="633"/>
-      <c r="AO141" s="633"/>
-      <c r="AP141" s="633"/>
-      <c r="AQ141" s="633"/>
-      <c r="AR141" s="633"/>
-      <c r="AS141" s="633"/>
-      <c r="AT141" s="633"/>
-      <c r="AU141" s="633"/>
-      <c r="AV141" s="633"/>
+      <c r="X141" s="590"/>
+      <c r="Y141" s="590"/>
+      <c r="Z141" s="590"/>
+      <c r="AA141" s="590"/>
+      <c r="AB141" s="590"/>
+      <c r="AC141" s="590"/>
+      <c r="AD141" s="590"/>
+      <c r="AE141" s="590"/>
+      <c r="AF141" s="590"/>
+      <c r="AG141" s="590"/>
+      <c r="AH141" s="590"/>
+      <c r="AI141" s="590"/>
+      <c r="AJ141" s="590"/>
+      <c r="AK141" s="590"/>
+      <c r="AL141" s="590"/>
+      <c r="AM141" s="590"/>
+      <c r="AN141" s="590"/>
+      <c r="AO141" s="590"/>
+      <c r="AP141" s="590"/>
+      <c r="AQ141" s="590"/>
+      <c r="AR141" s="590"/>
+      <c r="AS141" s="590"/>
+      <c r="AT141" s="590"/>
+      <c r="AU141" s="590"/>
+      <c r="AV141" s="590"/>
       <c r="AW141" s="242"/>
     </row>
     <row r="142" spans="1:49">
@@ -22896,6 +22896,109 @@
     </row>
   </sheetData>
   <mergeCells count="127">
+    <mergeCell ref="Q62:S62"/>
+    <mergeCell ref="Q61:S61"/>
+    <mergeCell ref="N61:P61"/>
+    <mergeCell ref="N62:P62"/>
+    <mergeCell ref="Q66:S66"/>
+    <mergeCell ref="T61:U61"/>
+    <mergeCell ref="T62:U62"/>
+    <mergeCell ref="T63:U63"/>
+    <mergeCell ref="T64:U64"/>
+    <mergeCell ref="T65:U65"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="N64:P64"/>
+    <mergeCell ref="N66:P66"/>
+    <mergeCell ref="N63:P63"/>
+    <mergeCell ref="N67:P67"/>
+    <mergeCell ref="Q67:S67"/>
+    <mergeCell ref="Q65:S65"/>
+    <mergeCell ref="Q64:S64"/>
+    <mergeCell ref="Q63:S63"/>
+    <mergeCell ref="E127:L127"/>
+    <mergeCell ref="M127:AB127"/>
+    <mergeCell ref="AC127:AJ127"/>
+    <mergeCell ref="AK127:AM127"/>
+    <mergeCell ref="AN127:AT127"/>
+    <mergeCell ref="E128:L128"/>
+    <mergeCell ref="E129:L129"/>
+    <mergeCell ref="E130:L130"/>
+    <mergeCell ref="M128:AB128"/>
+    <mergeCell ref="M129:AB129"/>
+    <mergeCell ref="M130:AB130"/>
+    <mergeCell ref="AC128:AJ128"/>
+    <mergeCell ref="AK128:AM128"/>
+    <mergeCell ref="AC129:AJ129"/>
+    <mergeCell ref="AC130:AJ130"/>
+    <mergeCell ref="AK129:AM129"/>
+    <mergeCell ref="AK130:AM130"/>
+    <mergeCell ref="AN128:AT128"/>
+    <mergeCell ref="AN129:AT129"/>
+    <mergeCell ref="AN130:AT130"/>
+    <mergeCell ref="AM72:AW72"/>
+    <mergeCell ref="AD68:AV68"/>
+    <mergeCell ref="A106:I108"/>
+    <mergeCell ref="J106:O108"/>
+    <mergeCell ref="P106:U108"/>
+    <mergeCell ref="AT70:AW70"/>
+    <mergeCell ref="AM71:AN71"/>
+    <mergeCell ref="AO71:AQ71"/>
+    <mergeCell ref="AM70:AN70"/>
+    <mergeCell ref="AO70:AQ70"/>
+    <mergeCell ref="AR70:AS70"/>
+    <mergeCell ref="AO106:AQ106"/>
+    <mergeCell ref="AM107:AN107"/>
+    <mergeCell ref="AO107:AQ107"/>
+    <mergeCell ref="V106:Z107"/>
+    <mergeCell ref="AA106:AL107"/>
+    <mergeCell ref="AM106:AN106"/>
+    <mergeCell ref="V108:Z108"/>
+    <mergeCell ref="AA108:AG108"/>
+    <mergeCell ref="AH108:AL108"/>
+    <mergeCell ref="AM108:AW108"/>
+    <mergeCell ref="A70:I72"/>
+    <mergeCell ref="J70:O72"/>
+    <mergeCell ref="P70:U72"/>
+    <mergeCell ref="AT35:AW35"/>
+    <mergeCell ref="AT34:AW34"/>
+    <mergeCell ref="A34:I36"/>
+    <mergeCell ref="J34:O36"/>
+    <mergeCell ref="P34:U36"/>
+    <mergeCell ref="V34:Z35"/>
+    <mergeCell ref="AA34:AL35"/>
+    <mergeCell ref="A1:I3"/>
+    <mergeCell ref="J1:O3"/>
+    <mergeCell ref="P1:U3"/>
+    <mergeCell ref="V1:Z2"/>
+    <mergeCell ref="AA1:AL2"/>
+    <mergeCell ref="V3:Z3"/>
+    <mergeCell ref="AA3:AG3"/>
+    <mergeCell ref="AH3:AL3"/>
+    <mergeCell ref="AI100:AT100"/>
+    <mergeCell ref="AI101:AT101"/>
+    <mergeCell ref="AI102:AT102"/>
+    <mergeCell ref="E100:L100"/>
+    <mergeCell ref="E101:L101"/>
+    <mergeCell ref="AM1:AN1"/>
+    <mergeCell ref="V36:Z36"/>
+    <mergeCell ref="AA36:AG36"/>
+    <mergeCell ref="AH36:AL36"/>
+    <mergeCell ref="AM36:AW36"/>
+    <mergeCell ref="AM34:AN34"/>
+    <mergeCell ref="AO34:AQ34"/>
+    <mergeCell ref="AR34:AS34"/>
+    <mergeCell ref="AM3:AW3"/>
+    <mergeCell ref="AO1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AO2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AW2"/>
+    <mergeCell ref="AM35:AN35"/>
+    <mergeCell ref="AO35:AQ35"/>
+    <mergeCell ref="AR35:AS35"/>
     <mergeCell ref="D68:I68"/>
     <mergeCell ref="J68:M68"/>
     <mergeCell ref="N68:P68"/>
@@ -22920,109 +23023,6 @@
     <mergeCell ref="M100:AH100"/>
     <mergeCell ref="M101:AH101"/>
     <mergeCell ref="M102:AH102"/>
-    <mergeCell ref="AI100:AT100"/>
-    <mergeCell ref="AI101:AT101"/>
-    <mergeCell ref="AI102:AT102"/>
-    <mergeCell ref="E100:L100"/>
-    <mergeCell ref="E101:L101"/>
-    <mergeCell ref="AM1:AN1"/>
-    <mergeCell ref="V36:Z36"/>
-    <mergeCell ref="AA36:AG36"/>
-    <mergeCell ref="AH36:AL36"/>
-    <mergeCell ref="AM36:AW36"/>
-    <mergeCell ref="AM34:AN34"/>
-    <mergeCell ref="AO34:AQ34"/>
-    <mergeCell ref="AR34:AS34"/>
-    <mergeCell ref="AM3:AW3"/>
-    <mergeCell ref="AO1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AT1:AW1"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AO2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AW2"/>
-    <mergeCell ref="AM35:AN35"/>
-    <mergeCell ref="AO35:AQ35"/>
-    <mergeCell ref="AR35:AS35"/>
-    <mergeCell ref="AT35:AW35"/>
-    <mergeCell ref="AT34:AW34"/>
-    <mergeCell ref="A34:I36"/>
-    <mergeCell ref="J34:O36"/>
-    <mergeCell ref="P34:U36"/>
-    <mergeCell ref="V34:Z35"/>
-    <mergeCell ref="AA34:AL35"/>
-    <mergeCell ref="A1:I3"/>
-    <mergeCell ref="J1:O3"/>
-    <mergeCell ref="P1:U3"/>
-    <mergeCell ref="V1:Z2"/>
-    <mergeCell ref="AA1:AL2"/>
-    <mergeCell ref="V3:Z3"/>
-    <mergeCell ref="AA3:AG3"/>
-    <mergeCell ref="AH3:AL3"/>
-    <mergeCell ref="AM72:AW72"/>
-    <mergeCell ref="AD68:AV68"/>
-    <mergeCell ref="A106:I108"/>
-    <mergeCell ref="J106:O108"/>
-    <mergeCell ref="P106:U108"/>
-    <mergeCell ref="AT70:AW70"/>
-    <mergeCell ref="AM71:AN71"/>
-    <mergeCell ref="AO71:AQ71"/>
-    <mergeCell ref="AM70:AN70"/>
-    <mergeCell ref="AO70:AQ70"/>
-    <mergeCell ref="AR70:AS70"/>
-    <mergeCell ref="AO106:AQ106"/>
-    <mergeCell ref="AM107:AN107"/>
-    <mergeCell ref="AO107:AQ107"/>
-    <mergeCell ref="V106:Z107"/>
-    <mergeCell ref="AA106:AL107"/>
-    <mergeCell ref="AM106:AN106"/>
-    <mergeCell ref="V108:Z108"/>
-    <mergeCell ref="AA108:AG108"/>
-    <mergeCell ref="AH108:AL108"/>
-    <mergeCell ref="AM108:AW108"/>
-    <mergeCell ref="A70:I72"/>
-    <mergeCell ref="J70:O72"/>
-    <mergeCell ref="P70:U72"/>
-    <mergeCell ref="E127:L127"/>
-    <mergeCell ref="M127:AB127"/>
-    <mergeCell ref="AC127:AJ127"/>
-    <mergeCell ref="AK127:AM127"/>
-    <mergeCell ref="AN127:AT127"/>
-    <mergeCell ref="E128:L128"/>
-    <mergeCell ref="E129:L129"/>
-    <mergeCell ref="E130:L130"/>
-    <mergeCell ref="M128:AB128"/>
-    <mergeCell ref="M129:AB129"/>
-    <mergeCell ref="M130:AB130"/>
-    <mergeCell ref="AC128:AJ128"/>
-    <mergeCell ref="AK128:AM128"/>
-    <mergeCell ref="AC129:AJ129"/>
-    <mergeCell ref="AC130:AJ130"/>
-    <mergeCell ref="AK129:AM129"/>
-    <mergeCell ref="AK130:AM130"/>
-    <mergeCell ref="AN128:AT128"/>
-    <mergeCell ref="AN129:AT129"/>
-    <mergeCell ref="AN130:AT130"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="N64:P64"/>
-    <mergeCell ref="N66:P66"/>
-    <mergeCell ref="N63:P63"/>
-    <mergeCell ref="N67:P67"/>
-    <mergeCell ref="Q67:S67"/>
-    <mergeCell ref="Q65:S65"/>
-    <mergeCell ref="Q64:S64"/>
-    <mergeCell ref="Q63:S63"/>
-    <mergeCell ref="Q62:S62"/>
-    <mergeCell ref="Q61:S61"/>
-    <mergeCell ref="N61:P61"/>
-    <mergeCell ref="N62:P62"/>
-    <mergeCell ref="Q66:S66"/>
-    <mergeCell ref="T61:U61"/>
-    <mergeCell ref="T62:U62"/>
-    <mergeCell ref="T63:U63"/>
-    <mergeCell ref="T64:U64"/>
-    <mergeCell ref="T65:U65"/>
-    <mergeCell ref="T66:U66"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId1"/>
